--- a/Attendance Tracking.xlsx
+++ b/Attendance Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1push\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664012A-972A-40F2-BA53-32CA316DA42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0ADA7-F238-499E-A4DB-E1FA95ED19DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="148">
   <si>
     <t>Time Table Until Get a Job</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Was,were</t>
+  </si>
+  <si>
+    <t>Question/Answers</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +595,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4CAF50"/>
         <bgColor rgb="FF4CAF50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF6C00"/>
+        <bgColor rgb="FFEF6C00"/>
       </patternFill>
     </fill>
   </fills>
@@ -826,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -904,6 +916,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="91" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="J280" sqref="J280"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="91" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I281" sqref="I281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,51 +1302,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="4:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="4:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
@@ -1358,7 +1373,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <v>45758</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1381,7 +1396,7 @@
       </c>
     </row>
     <row r="7" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1417,7 @@
       </c>
     </row>
     <row r="8" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1438,7 @@
       </c>
     </row>
     <row r="9" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="34"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1459,7 @@
       </c>
     </row>
     <row r="10" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="34"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1465,7 +1480,7 @@
       </c>
     </row>
     <row r="11" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="12" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1501,7 @@
       </c>
     </row>
     <row r="12" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1522,7 @@
       </c>
     </row>
     <row r="13" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="34"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
@@ -1528,21 +1543,21 @@
       </c>
     </row>
     <row r="14" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="35"/>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="9">
         <f>SUM(J6:J13)</f>
         <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="15" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="33">
+      <c r="D15" s="34">
         <v>45759</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1565,7 +1580,7 @@
       </c>
     </row>
     <row r="16" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="34"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1601,7 @@
       </c>
     </row>
     <row r="17" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="34"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1622,7 @@
       </c>
     </row>
     <row r="18" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="34"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1628,7 +1643,7 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1649,7 +1664,7 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="34"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1685,7 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="34"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1706,7 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="34"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="12" t="s">
         <v>27</v>
       </c>
@@ -1712,21 +1727,21 @@
       </c>
     </row>
     <row r="23" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="35"/>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="10">
         <f>SUM(J15:J22)</f>
         <v>0.32569444444444445</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="36">
+      <c r="D24" s="37">
         <v>45760</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -1749,7 +1764,7 @@
       </c>
     </row>
     <row r="25" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="37"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
@@ -1770,7 +1785,7 @@
       </c>
     </row>
     <row r="26" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="37"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1806,7 @@
       </c>
     </row>
     <row r="27" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1827,7 @@
       </c>
     </row>
     <row r="28" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="12" t="s">
         <v>22</v>
       </c>
@@ -1833,7 +1848,7 @@
       </c>
     </row>
     <row r="29" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="12" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1869,7 @@
       </c>
     </row>
     <row r="30" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="37"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1890,7 @@
       </c>
     </row>
     <row r="31" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="37"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1896,21 +1911,21 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="38"/>
-      <c r="E32" s="39" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="9">
         <f>SUM(J24:J31)</f>
         <v>0.11111111111111113</v>
       </c>
     </row>
     <row r="33" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="36">
+      <c r="D33" s="37">
         <v>45761</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -1933,7 +1948,7 @@
       </c>
     </row>
     <row r="34" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="37"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="11" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +1969,7 @@
       </c>
     </row>
     <row r="35" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="37"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="12" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +1990,7 @@
       </c>
     </row>
     <row r="36" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="37"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="12" t="s">
         <v>19</v>
       </c>
@@ -1996,7 +2011,7 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="37"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="12" t="s">
         <v>22</v>
       </c>
@@ -2017,7 +2032,7 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="37"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="12" t="s">
         <v>24</v>
       </c>
@@ -2038,7 +2053,7 @@
       </c>
     </row>
     <row r="39" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="37"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
@@ -2059,7 +2074,7 @@
       </c>
     </row>
     <row r="40" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="37"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
@@ -2080,21 +2095,21 @@
       </c>
     </row>
     <row r="41" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="38"/>
-      <c r="E41" s="39" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="9">
         <f>SUM(J33:J40)</f>
         <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="33">
+      <c r="D42" s="34">
         <v>45762</v>
       </c>
       <c r="E42" s="11" t="s">
@@ -2117,7 +2132,7 @@
       </c>
     </row>
     <row r="43" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="34"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="11" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2153,7 @@
       </c>
     </row>
     <row r="44" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="34"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="12" t="s">
         <v>17</v>
       </c>
@@ -2159,7 +2174,7 @@
       </c>
     </row>
     <row r="45" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="34"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="12" t="s">
         <v>19</v>
       </c>
@@ -2180,7 +2195,7 @@
       </c>
     </row>
     <row r="46" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="34"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="12" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +2216,7 @@
       </c>
     </row>
     <row r="47" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="34"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="12" t="s">
         <v>24</v>
       </c>
@@ -2222,7 +2237,7 @@
       </c>
     </row>
     <row r="48" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="34"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="12" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2258,7 @@
       </c>
     </row>
     <row r="49" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="34"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="12" t="s">
         <v>27</v>
       </c>
@@ -2256,21 +2271,21 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="35"/>
-      <c r="E50" s="30" t="s">
+      <c r="D50" s="36"/>
+      <c r="E50" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="9">
         <f>SUM(J42:J49)</f>
         <v>0.24652777777777776</v>
       </c>
     </row>
     <row r="51" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="33">
+      <c r="D51" s="34">
         <v>45763</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -2293,7 +2308,7 @@
       </c>
     </row>
     <row r="52" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="34"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="11" t="s">
         <v>13</v>
       </c>
@@ -2314,7 +2329,7 @@
       </c>
     </row>
     <row r="53" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="34"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="12" t="s">
         <v>17</v>
       </c>
@@ -2335,7 +2350,7 @@
       </c>
     </row>
     <row r="54" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="34"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="12" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +2371,7 @@
       </c>
     </row>
     <row r="55" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="34"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="12" t="s">
         <v>51</v>
       </c>
@@ -2377,7 +2392,7 @@
       </c>
     </row>
     <row r="56" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="34"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="12" t="s">
         <v>52</v>
       </c>
@@ -2398,7 +2413,7 @@
       </c>
     </row>
     <row r="57" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="34"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="12" t="s">
         <v>26</v>
       </c>
@@ -2419,7 +2434,7 @@
       </c>
     </row>
     <row r="58" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="34"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="12" t="s">
         <v>27</v>
       </c>
@@ -2440,21 +2455,21 @@
       </c>
     </row>
     <row r="59" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="35"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="36"/>
+      <c r="E59" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="10">
         <f>SUM(J51:J58)</f>
         <v>0.17708333333333331</v>
       </c>
     </row>
     <row r="60" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="33">
+      <c r="D60" s="34">
         <v>45764</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -2477,7 +2492,7 @@
       </c>
     </row>
     <row r="61" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="34"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="11" t="s">
         <v>13</v>
       </c>
@@ -2498,7 +2513,7 @@
       </c>
     </row>
     <row r="62" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="34"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="12" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2534,7 @@
       </c>
     </row>
     <row r="63" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="34"/>
+      <c r="D63" s="35"/>
       <c r="E63" s="12" t="s">
         <v>19</v>
       </c>
@@ -2540,7 +2555,7 @@
       </c>
     </row>
     <row r="64" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="34"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="12" t="s">
         <v>51</v>
       </c>
@@ -2561,7 +2576,7 @@
       </c>
     </row>
     <row r="65" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="34"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="12" t="s">
         <v>52</v>
       </c>
@@ -2582,7 +2597,7 @@
       </c>
     </row>
     <row r="66" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="34"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="12" t="s">
         <v>26</v>
       </c>
@@ -2603,7 +2618,7 @@
       </c>
     </row>
     <row r="67" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="34"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="12" t="s">
         <v>27</v>
       </c>
@@ -2624,21 +2639,21 @@
       </c>
     </row>
     <row r="68" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="35"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="36"/>
+      <c r="E68" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="30"/>
       <c r="J68" s="10">
         <f>SUM(J60:J67)</f>
         <v>0.18402777777777776</v>
       </c>
     </row>
     <row r="69" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="33">
+      <c r="D69" s="34">
         <v>45765</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -2661,7 +2676,7 @@
       </c>
     </row>
     <row r="70" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="34"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="11" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2697,7 @@
       </c>
     </row>
     <row r="71" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="34"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="12" t="s">
         <v>17</v>
       </c>
@@ -2703,7 +2718,7 @@
       </c>
     </row>
     <row r="72" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="34"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +2739,7 @@
       </c>
     </row>
     <row r="73" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="34"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="12" t="s">
         <v>51</v>
       </c>
@@ -2745,7 +2760,7 @@
       </c>
     </row>
     <row r="74" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="34"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="12" t="s">
         <v>52</v>
       </c>
@@ -2766,7 +2781,7 @@
       </c>
     </row>
     <row r="75" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="34"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="12" t="s">
         <v>26</v>
       </c>
@@ -2787,7 +2802,7 @@
       </c>
     </row>
     <row r="76" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="34"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="12" t="s">
         <v>27</v>
       </c>
@@ -2808,21 +2823,21 @@
       </c>
     </row>
     <row r="77" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="35"/>
-      <c r="E77" s="30" t="s">
+      <c r="D77" s="36"/>
+      <c r="E77" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="33"/>
       <c r="J77" s="10">
         <f>SUM(J69:J76)</f>
         <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="78" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="33">
+      <c r="D78" s="34">
         <v>45766</v>
       </c>
       <c r="E78" s="11" t="s">
@@ -2845,7 +2860,7 @@
       </c>
     </row>
     <row r="79" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="34"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="11" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2881,7 @@
       </c>
     </row>
     <row r="80" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="34"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="12" t="s">
         <v>17</v>
       </c>
@@ -2887,7 +2902,7 @@
       </c>
     </row>
     <row r="81" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="34"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="12" t="s">
         <v>19</v>
       </c>
@@ -2908,7 +2923,7 @@
       </c>
     </row>
     <row r="82" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="34"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="12" t="s">
         <v>51</v>
       </c>
@@ -2929,7 +2944,7 @@
       </c>
     </row>
     <row r="83" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="34"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="12" t="s">
         <v>52</v>
       </c>
@@ -2950,7 +2965,7 @@
       </c>
     </row>
     <row r="84" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="34"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="12" t="s">
         <v>26</v>
       </c>
@@ -2971,7 +2986,7 @@
       </c>
     </row>
     <row r="85" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="34"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="12" t="s">
         <v>27</v>
       </c>
@@ -2992,21 +3007,21 @@
       </c>
     </row>
     <row r="86" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="35"/>
-      <c r="E86" s="30" t="s">
+      <c r="D86" s="36"/>
+      <c r="E86" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
       <c r="J86" s="10">
         <f>SUM(J78:J85)</f>
         <v>0.27222222222222225</v>
       </c>
     </row>
     <row r="87" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="33">
+      <c r="D87" s="34">
         <v>45767</v>
       </c>
       <c r="E87" s="11" t="s">
@@ -3029,7 +3044,7 @@
       </c>
     </row>
     <row r="88" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="34"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="11" t="s">
         <v>13</v>
       </c>
@@ -3050,7 +3065,7 @@
       </c>
     </row>
     <row r="89" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="34"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3071,7 +3086,7 @@
       </c>
     </row>
     <row r="90" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="34"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3092,7 +3107,7 @@
       </c>
     </row>
     <row r="91" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="34"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="12" t="s">
         <v>51</v>
       </c>
@@ -3113,7 +3128,7 @@
       </c>
     </row>
     <row r="92" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="34"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="12" t="s">
         <v>52</v>
       </c>
@@ -3134,7 +3149,7 @@
       </c>
     </row>
     <row r="93" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="34"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="12" t="s">
         <v>26</v>
       </c>
@@ -3155,7 +3170,7 @@
       </c>
     </row>
     <row r="94" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="34"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="12" t="s">
         <v>27</v>
       </c>
@@ -3176,21 +3191,21 @@
       </c>
     </row>
     <row r="95" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="35"/>
-      <c r="E95" s="30" t="s">
+      <c r="D95" s="36"/>
+      <c r="E95" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="33"/>
       <c r="J95" s="10">
         <f>SUM(J87:J94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="33">
+      <c r="D96" s="34">
         <v>45768</v>
       </c>
       <c r="E96" s="11" t="s">
@@ -3213,7 +3228,7 @@
       </c>
     </row>
     <row r="97" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="34"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="11" t="s">
         <v>13</v>
       </c>
@@ -3234,7 +3249,7 @@
       </c>
     </row>
     <row r="98" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="34"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="12" t="s">
         <v>17</v>
       </c>
@@ -3255,7 +3270,7 @@
       </c>
     </row>
     <row r="99" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="34"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="12" t="s">
         <v>19</v>
       </c>
@@ -3276,7 +3291,7 @@
       </c>
     </row>
     <row r="100" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="34"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="12" t="s">
         <v>51</v>
       </c>
@@ -3297,7 +3312,7 @@
       </c>
     </row>
     <row r="101" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="34"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="12" t="s">
         <v>52</v>
       </c>
@@ -3318,7 +3333,7 @@
       </c>
     </row>
     <row r="102" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="34"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="12" t="s">
         <v>26</v>
       </c>
@@ -3339,7 +3354,7 @@
       </c>
     </row>
     <row r="103" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="34"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="12" t="s">
         <v>27</v>
       </c>
@@ -3360,21 +3375,21 @@
       </c>
     </row>
     <row r="104" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="35"/>
-      <c r="E104" s="30" t="s">
+      <c r="D104" s="36"/>
+      <c r="E104" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="33"/>
       <c r="J104" s="10">
         <f>SUM(J96:J103)</f>
         <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="105" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="33">
+      <c r="D105" s="34">
         <v>45769</v>
       </c>
       <c r="E105" s="17" t="s">
@@ -3397,7 +3412,7 @@
       </c>
     </row>
     <row r="106" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="34"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="17" t="s">
         <v>13</v>
       </c>
@@ -3418,7 +3433,7 @@
       </c>
     </row>
     <row r="107" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="34"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="18" t="s">
         <v>17</v>
       </c>
@@ -3439,7 +3454,7 @@
       </c>
     </row>
     <row r="108" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="34"/>
+      <c r="D108" s="35"/>
       <c r="E108" s="18" t="s">
         <v>19</v>
       </c>
@@ -3460,7 +3475,7 @@
       </c>
     </row>
     <row r="109" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="34"/>
+      <c r="D109" s="35"/>
       <c r="E109" s="18" t="s">
         <v>73</v>
       </c>
@@ -3481,7 +3496,7 @@
       </c>
     </row>
     <row r="110" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="34"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="18" t="s">
         <v>75</v>
       </c>
@@ -3502,7 +3517,7 @@
       </c>
     </row>
     <row r="111" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="34"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="18" t="s">
         <v>76</v>
       </c>
@@ -3523,7 +3538,7 @@
       </c>
     </row>
     <row r="112" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="34"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="18" t="s">
         <v>27</v>
       </c>
@@ -3544,21 +3559,21 @@
       </c>
     </row>
     <row r="113" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="35"/>
-      <c r="E113" s="30" t="s">
+      <c r="D113" s="36"/>
+      <c r="E113" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="33"/>
       <c r="J113" s="9">
         <f>SUM(J105:J112)</f>
         <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="114" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="33">
+      <c r="D114" s="34">
         <v>45770</v>
       </c>
       <c r="E114" s="17" t="s">
@@ -3581,7 +3596,7 @@
       </c>
     </row>
     <row r="115" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="34"/>
+      <c r="D115" s="35"/>
       <c r="E115" s="17" t="s">
         <v>13</v>
       </c>
@@ -3602,7 +3617,7 @@
       </c>
     </row>
     <row r="116" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="34"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="18" t="s">
         <v>17</v>
       </c>
@@ -3623,7 +3638,7 @@
       </c>
     </row>
     <row r="117" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="34"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="18" t="s">
         <v>19</v>
       </c>
@@ -3644,7 +3659,7 @@
       </c>
     </row>
     <row r="118" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="34"/>
+      <c r="D118" s="35"/>
       <c r="E118" s="18" t="s">
         <v>73</v>
       </c>
@@ -3665,7 +3680,7 @@
       </c>
     </row>
     <row r="119" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="34"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="18" t="s">
         <v>75</v>
       </c>
@@ -3686,7 +3701,7 @@
       </c>
     </row>
     <row r="120" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="34"/>
+      <c r="D120" s="35"/>
       <c r="E120" s="18" t="s">
         <v>76</v>
       </c>
@@ -3707,7 +3722,7 @@
       </c>
     </row>
     <row r="121" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="34"/>
+      <c r="D121" s="35"/>
       <c r="E121" s="18" t="s">
         <v>27</v>
       </c>
@@ -3728,21 +3743,21 @@
       </c>
     </row>
     <row r="122" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="35"/>
-      <c r="E122" s="30" t="s">
+      <c r="D122" s="36"/>
+      <c r="E122" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="33"/>
       <c r="J122" s="9">
         <f>SUM(J114:J121)</f>
         <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="123" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="33">
+      <c r="D123" s="34">
         <v>45771</v>
       </c>
       <c r="E123" s="17" t="s">
@@ -3765,7 +3780,7 @@
       </c>
     </row>
     <row r="124" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="34"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="17" t="s">
         <v>13</v>
       </c>
@@ -3786,7 +3801,7 @@
       </c>
     </row>
     <row r="125" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="34"/>
+      <c r="D125" s="35"/>
       <c r="E125" s="18" t="s">
         <v>17</v>
       </c>
@@ -3807,7 +3822,7 @@
       </c>
     </row>
     <row r="126" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="34"/>
+      <c r="D126" s="35"/>
       <c r="E126" s="18" t="s">
         <v>19</v>
       </c>
@@ -3828,7 +3843,7 @@
       </c>
     </row>
     <row r="127" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="34"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="18" t="s">
         <v>73</v>
       </c>
@@ -3849,7 +3864,7 @@
       </c>
     </row>
     <row r="128" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="34"/>
+      <c r="D128" s="35"/>
       <c r="E128" s="18" t="s">
         <v>75</v>
       </c>
@@ -3870,7 +3885,7 @@
       </c>
     </row>
     <row r="129" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="34"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="18" t="s">
         <v>76</v>
       </c>
@@ -3891,7 +3906,7 @@
       </c>
     </row>
     <row r="130" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="34"/>
+      <c r="D130" s="35"/>
       <c r="E130" s="18" t="s">
         <v>27</v>
       </c>
@@ -3912,21 +3927,21 @@
       </c>
     </row>
     <row r="131" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="35"/>
-      <c r="E131" s="30" t="s">
+      <c r="D131" s="36"/>
+      <c r="E131" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="33"/>
       <c r="J131" s="9">
         <f>SUM(J123:J130)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="132" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="33">
+      <c r="D132" s="34">
         <v>45772</v>
       </c>
       <c r="E132" s="17" t="s">
@@ -3949,7 +3964,7 @@
       </c>
     </row>
     <row r="133" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="34"/>
+      <c r="D133" s="35"/>
       <c r="E133" s="17" t="s">
         <v>13</v>
       </c>
@@ -3970,7 +3985,7 @@
       </c>
     </row>
     <row r="134" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="34"/>
+      <c r="D134" s="35"/>
       <c r="E134" s="18" t="s">
         <v>17</v>
       </c>
@@ -3991,7 +4006,7 @@
       </c>
     </row>
     <row r="135" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="34"/>
+      <c r="D135" s="35"/>
       <c r="E135" s="18" t="s">
         <v>19</v>
       </c>
@@ -4012,7 +4027,7 @@
       </c>
     </row>
     <row r="136" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="34"/>
+      <c r="D136" s="35"/>
       <c r="E136" s="18" t="s">
         <v>73</v>
       </c>
@@ -4033,7 +4048,7 @@
       </c>
     </row>
     <row r="137" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="34"/>
+      <c r="D137" s="35"/>
       <c r="E137" s="18" t="s">
         <v>75</v>
       </c>
@@ -4054,7 +4069,7 @@
       </c>
     </row>
     <row r="138" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="34"/>
+      <c r="D138" s="35"/>
       <c r="E138" s="18" t="s">
         <v>76</v>
       </c>
@@ -4075,7 +4090,7 @@
       </c>
     </row>
     <row r="139" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="34"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="18" t="s">
         <v>27</v>
       </c>
@@ -4096,21 +4111,21 @@
       </c>
     </row>
     <row r="140" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="35"/>
-      <c r="E140" s="30" t="s">
+      <c r="D140" s="36"/>
+      <c r="E140" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="33"/>
       <c r="J140" s="9">
         <f>SUM(J132:J139)</f>
         <v>0.27013888888888882</v>
       </c>
     </row>
     <row r="141" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="33">
+      <c r="D141" s="34">
         <v>45773</v>
       </c>
       <c r="E141" s="17" t="s">
@@ -4133,7 +4148,7 @@
       </c>
     </row>
     <row r="142" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="34"/>
+      <c r="D142" s="35"/>
       <c r="E142" s="17" t="s">
         <v>13</v>
       </c>
@@ -4154,7 +4169,7 @@
       </c>
     </row>
     <row r="143" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="34"/>
+      <c r="D143" s="35"/>
       <c r="E143" s="18" t="s">
         <v>17</v>
       </c>
@@ -4175,7 +4190,7 @@
       </c>
     </row>
     <row r="144" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="34"/>
+      <c r="D144" s="35"/>
       <c r="E144" s="18" t="s">
         <v>19</v>
       </c>
@@ -4196,7 +4211,7 @@
       </c>
     </row>
     <row r="145" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="34"/>
+      <c r="D145" s="35"/>
       <c r="E145" s="18" t="s">
         <v>51</v>
       </c>
@@ -4217,7 +4232,7 @@
       </c>
     </row>
     <row r="146" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="34"/>
+      <c r="D146" s="35"/>
       <c r="E146" s="18" t="s">
         <v>75</v>
       </c>
@@ -4238,7 +4253,7 @@
       </c>
     </row>
     <row r="147" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="34"/>
+      <c r="D147" s="35"/>
       <c r="E147" s="18" t="s">
         <v>76</v>
       </c>
@@ -4259,7 +4274,7 @@
       </c>
     </row>
     <row r="148" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="34"/>
+      <c r="D148" s="35"/>
       <c r="E148" s="18" t="s">
         <v>27</v>
       </c>
@@ -4280,21 +4295,21 @@
       </c>
     </row>
     <row r="149" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="35"/>
-      <c r="E149" s="30" t="s">
+      <c r="D149" s="36"/>
+      <c r="E149" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="33"/>
       <c r="J149" s="9">
         <f>SUM(J141:J148)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="150" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="33">
+      <c r="D150" s="34">
         <v>45774</v>
       </c>
       <c r="E150" s="11" t="s">
@@ -4317,7 +4332,7 @@
       </c>
     </row>
     <row r="151" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="34"/>
+      <c r="D151" s="35"/>
       <c r="E151" s="11" t="s">
         <v>13</v>
       </c>
@@ -4338,7 +4353,7 @@
       </c>
     </row>
     <row r="152" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="34"/>
+      <c r="D152" s="35"/>
       <c r="E152" s="12" t="s">
         <v>17</v>
       </c>
@@ -4359,7 +4374,7 @@
       </c>
     </row>
     <row r="153" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="34"/>
+      <c r="D153" s="35"/>
       <c r="E153" s="12" t="s">
         <v>52</v>
       </c>
@@ -4380,7 +4395,7 @@
       </c>
     </row>
     <row r="154" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="34"/>
+      <c r="D154" s="35"/>
       <c r="E154" s="12" t="s">
         <v>26</v>
       </c>
@@ -4401,7 +4416,7 @@
       </c>
     </row>
     <row r="155" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="34"/>
+      <c r="D155" s="35"/>
       <c r="E155" s="12" t="s">
         <v>27</v>
       </c>
@@ -4422,21 +4437,21 @@
       </c>
     </row>
     <row r="156" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="35"/>
-      <c r="E156" s="30" t="s">
+      <c r="D156" s="36"/>
+      <c r="E156" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="33"/>
       <c r="J156" s="10">
         <f>SUM(J150:J155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="33">
+      <c r="D157" s="34">
         <v>45775</v>
       </c>
       <c r="E157" s="11" t="s">
@@ -4459,7 +4474,7 @@
       </c>
     </row>
     <row r="158" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="34"/>
+      <c r="D158" s="35"/>
       <c r="E158" s="11" t="s">
         <v>13</v>
       </c>
@@ -4480,7 +4495,7 @@
       </c>
     </row>
     <row r="159" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="34"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="12" t="s">
         <v>87</v>
       </c>
@@ -4501,7 +4516,7 @@
       </c>
     </row>
     <row r="160" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="34"/>
+      <c r="D160" s="35"/>
       <c r="E160" s="12" t="s">
         <v>88</v>
       </c>
@@ -4522,7 +4537,7 @@
       </c>
     </row>
     <row r="161" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="34"/>
+      <c r="D161" s="35"/>
       <c r="E161" s="12" t="s">
         <v>90</v>
       </c>
@@ -4543,7 +4558,7 @@
       </c>
     </row>
     <row r="162" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="34"/>
+      <c r="D162" s="35"/>
       <c r="E162" s="12" t="s">
         <v>27</v>
       </c>
@@ -4564,21 +4579,21 @@
       </c>
     </row>
     <row r="163" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="35"/>
-      <c r="E163" s="30" t="s">
+      <c r="D163" s="36"/>
+      <c r="E163" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="31"/>
-      <c r="I163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="33"/>
       <c r="J163" s="10">
         <f>SUM(J157:J162)</f>
         <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="164" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="33">
+      <c r="D164" s="34">
         <v>45776</v>
       </c>
       <c r="E164" s="11" t="s">
@@ -4601,7 +4616,7 @@
       </c>
     </row>
     <row r="165" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="34"/>
+      <c r="D165" s="35"/>
       <c r="E165" s="11" t="s">
         <v>13</v>
       </c>
@@ -4622,7 +4637,7 @@
       </c>
     </row>
     <row r="166" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="34"/>
+      <c r="D166" s="35"/>
       <c r="E166" s="12" t="s">
         <v>87</v>
       </c>
@@ -4643,7 +4658,7 @@
       </c>
     </row>
     <row r="167" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="34"/>
+      <c r="D167" s="35"/>
       <c r="E167" s="12" t="s">
         <v>88</v>
       </c>
@@ -4664,7 +4679,7 @@
       </c>
     </row>
     <row r="168" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="34"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="12" t="s">
         <v>90</v>
       </c>
@@ -4685,7 +4700,7 @@
       </c>
     </row>
     <row r="169" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="34"/>
+      <c r="D169" s="35"/>
       <c r="E169" s="12" t="s">
         <v>27</v>
       </c>
@@ -4706,21 +4721,21 @@
       </c>
     </row>
     <row r="170" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="35"/>
-      <c r="E170" s="30" t="s">
+      <c r="D170" s="36"/>
+      <c r="E170" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="31"/>
-      <c r="I170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="33"/>
       <c r="J170" s="10">
         <f>SUM(J164:J169)</f>
         <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="171" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="33">
+      <c r="D171" s="34">
         <v>45777</v>
       </c>
       <c r="E171" s="11" t="s">
@@ -4743,7 +4758,7 @@
       </c>
     </row>
     <row r="172" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="34"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="11" t="s">
         <v>13</v>
       </c>
@@ -4764,7 +4779,7 @@
       </c>
     </row>
     <row r="173" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="34"/>
+      <c r="D173" s="35"/>
       <c r="E173" s="12" t="s">
         <v>87</v>
       </c>
@@ -4785,7 +4800,7 @@
       </c>
     </row>
     <row r="174" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="34"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="12" t="s">
         <v>88</v>
       </c>
@@ -4806,7 +4821,7 @@
       </c>
     </row>
     <row r="175" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="34"/>
+      <c r="D175" s="35"/>
       <c r="E175" s="12" t="s">
         <v>90</v>
       </c>
@@ -4827,7 +4842,7 @@
       </c>
     </row>
     <row r="176" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="34"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="12" t="s">
         <v>27</v>
       </c>
@@ -4848,21 +4863,21 @@
       </c>
     </row>
     <row r="177" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="35"/>
-      <c r="E177" s="30" t="s">
+      <c r="D177" s="36"/>
+      <c r="E177" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31"/>
-      <c r="H177" s="31"/>
-      <c r="I177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="33"/>
       <c r="J177" s="9">
         <f>SUM(J171:J176)</f>
         <v>0.30902777777777779</v>
       </c>
     </row>
     <row r="178" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="33">
+      <c r="D178" s="34">
         <v>45778</v>
       </c>
       <c r="E178" s="20" t="s">
@@ -4885,7 +4900,7 @@
       </c>
     </row>
     <row r="179" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="34"/>
+      <c r="D179" s="35"/>
       <c r="E179" s="20" t="s">
         <v>13</v>
       </c>
@@ -4906,7 +4921,7 @@
       </c>
     </row>
     <row r="180" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="34"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="21" t="s">
         <v>87</v>
       </c>
@@ -4927,7 +4942,7 @@
       </c>
     </row>
     <row r="181" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="34"/>
+      <c r="D181" s="35"/>
       <c r="E181" s="21" t="s">
         <v>88</v>
       </c>
@@ -4948,7 +4963,7 @@
       </c>
     </row>
     <row r="182" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="34"/>
+      <c r="D182" s="35"/>
       <c r="E182" s="21" t="s">
         <v>90</v>
       </c>
@@ -4969,7 +4984,7 @@
       </c>
     </row>
     <row r="183" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="34"/>
+      <c r="D183" s="35"/>
       <c r="E183" s="21" t="s">
         <v>27</v>
       </c>
@@ -4990,21 +5005,21 @@
       </c>
     </row>
     <row r="184" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="35"/>
-      <c r="E184" s="30" t="s">
+      <c r="D184" s="36"/>
+      <c r="E184" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F184" s="31"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="31"/>
-      <c r="I184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="33"/>
       <c r="J184" s="9">
         <f>SUM(J178:J183)</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="185" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="33">
+      <c r="D185" s="34">
         <v>45779</v>
       </c>
       <c r="E185" s="20" t="s">
@@ -5027,7 +5042,7 @@
       </c>
     </row>
     <row r="186" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="34"/>
+      <c r="D186" s="35"/>
       <c r="E186" s="20" t="s">
         <v>13</v>
       </c>
@@ -5048,7 +5063,7 @@
       </c>
     </row>
     <row r="187" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="34"/>
+      <c r="D187" s="35"/>
       <c r="E187" s="21" t="s">
         <v>87</v>
       </c>
@@ -5069,7 +5084,7 @@
       </c>
     </row>
     <row r="188" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="34"/>
+      <c r="D188" s="35"/>
       <c r="E188" s="21" t="s">
         <v>88</v>
       </c>
@@ -5090,7 +5105,7 @@
       </c>
     </row>
     <row r="189" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="34"/>
+      <c r="D189" s="35"/>
       <c r="E189" s="21" t="s">
         <v>90</v>
       </c>
@@ -5111,7 +5126,7 @@
       </c>
     </row>
     <row r="190" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="34"/>
+      <c r="D190" s="35"/>
       <c r="E190" s="21" t="s">
         <v>27</v>
       </c>
@@ -5132,21 +5147,21 @@
       </c>
     </row>
     <row r="191" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="35"/>
-      <c r="E191" s="30" t="s">
+      <c r="D191" s="36"/>
+      <c r="E191" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F191" s="31"/>
-      <c r="G191" s="31"/>
-      <c r="H191" s="31"/>
-      <c r="I191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="33"/>
       <c r="J191" s="9">
         <f>SUM(J185:J190)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="192" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="33">
+      <c r="D192" s="34">
         <v>45780</v>
       </c>
       <c r="E192" s="20" t="s">
@@ -5169,7 +5184,7 @@
       </c>
     </row>
     <row r="193" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="34"/>
+      <c r="D193" s="35"/>
       <c r="E193" s="20" t="s">
         <v>13</v>
       </c>
@@ -5190,7 +5205,7 @@
       </c>
     </row>
     <row r="194" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="34"/>
+      <c r="D194" s="35"/>
       <c r="E194" s="21" t="s">
         <v>87</v>
       </c>
@@ -5211,7 +5226,7 @@
       </c>
     </row>
     <row r="195" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="34"/>
+      <c r="D195" s="35"/>
       <c r="E195" s="21" t="s">
         <v>88</v>
       </c>
@@ -5232,7 +5247,7 @@
       </c>
     </row>
     <row r="196" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="34"/>
+      <c r="D196" s="35"/>
       <c r="E196" s="21" t="s">
         <v>90</v>
       </c>
@@ -5253,7 +5268,7 @@
       </c>
     </row>
     <row r="197" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="34"/>
+      <c r="D197" s="35"/>
       <c r="E197" s="21" t="s">
         <v>27</v>
       </c>
@@ -5274,21 +5289,21 @@
       </c>
     </row>
     <row r="198" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="35"/>
-      <c r="E198" s="30" t="s">
+      <c r="D198" s="36"/>
+      <c r="E198" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="33"/>
       <c r="J198" s="9">
         <f>SUM(J192:J197)</f>
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="199" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="33">
+      <c r="D199" s="34">
         <v>45781</v>
       </c>
       <c r="E199" s="11" t="s">
@@ -5311,7 +5326,7 @@
       </c>
     </row>
     <row r="200" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="34"/>
+      <c r="D200" s="35"/>
       <c r="E200" s="11" t="s">
         <v>13</v>
       </c>
@@ -5332,7 +5347,7 @@
       </c>
     </row>
     <row r="201" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="34"/>
+      <c r="D201" s="35"/>
       <c r="E201" s="21" t="s">
         <v>87</v>
       </c>
@@ -5353,7 +5368,7 @@
       </c>
     </row>
     <row r="202" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="34"/>
+      <c r="D202" s="35"/>
       <c r="E202" s="21" t="s">
         <v>88</v>
       </c>
@@ -5374,7 +5389,7 @@
       </c>
     </row>
     <row r="203" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="34"/>
+      <c r="D203" s="35"/>
       <c r="E203" s="12" t="s">
         <v>90</v>
       </c>
@@ -5395,7 +5410,7 @@
       </c>
     </row>
     <row r="204" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="34"/>
+      <c r="D204" s="35"/>
       <c r="E204" s="12" t="s">
         <v>27</v>
       </c>
@@ -5416,21 +5431,21 @@
       </c>
     </row>
     <row r="205" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="35"/>
-      <c r="E205" s="30" t="s">
+      <c r="D205" s="36"/>
+      <c r="E205" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F205" s="31"/>
-      <c r="G205" s="31"/>
-      <c r="H205" s="31"/>
-      <c r="I205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="33"/>
       <c r="J205" s="10">
         <f>SUM(J199:J204)</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="33">
+      <c r="D206" s="34">
         <v>45782</v>
       </c>
       <c r="E206" s="24" t="s">
@@ -5453,7 +5468,7 @@
       </c>
     </row>
     <row r="207" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="34"/>
+      <c r="D207" s="35"/>
       <c r="E207" s="24" t="s">
         <v>13</v>
       </c>
@@ -5474,7 +5489,7 @@
       </c>
     </row>
     <row r="208" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="34"/>
+      <c r="D208" s="35"/>
       <c r="E208" s="25" t="s">
         <v>87</v>
       </c>
@@ -5495,7 +5510,7 @@
       </c>
     </row>
     <row r="209" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="34"/>
+      <c r="D209" s="35"/>
       <c r="E209" s="25" t="s">
         <v>88</v>
       </c>
@@ -5516,7 +5531,7 @@
       </c>
     </row>
     <row r="210" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="34"/>
+      <c r="D210" s="35"/>
       <c r="E210" s="24" t="s">
         <v>90</v>
       </c>
@@ -5537,7 +5552,7 @@
       </c>
     </row>
     <row r="211" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="34"/>
+      <c r="D211" s="35"/>
       <c r="E211" s="12" t="s">
         <v>27</v>
       </c>
@@ -5558,21 +5573,21 @@
       </c>
     </row>
     <row r="212" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="35"/>
-      <c r="E212" s="30" t="s">
+      <c r="D212" s="36"/>
+      <c r="E212" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F212" s="31"/>
-      <c r="G212" s="31"/>
-      <c r="H212" s="31"/>
-      <c r="I212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="32"/>
+      <c r="I212" s="33"/>
       <c r="J212" s="10">
         <f>SUM(J206:J211)</f>
         <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="213" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="33">
+      <c r="D213" s="34">
         <v>45783</v>
       </c>
       <c r="E213" s="24" t="s">
@@ -5595,7 +5610,7 @@
       </c>
     </row>
     <row r="214" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="34"/>
+      <c r="D214" s="35"/>
       <c r="E214" s="24" t="s">
         <v>105</v>
       </c>
@@ -5616,7 +5631,7 @@
       </c>
     </row>
     <row r="215" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="34"/>
+      <c r="D215" s="35"/>
       <c r="E215" s="25" t="s">
         <v>108</v>
       </c>
@@ -5637,7 +5652,7 @@
       </c>
     </row>
     <row r="216" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="34"/>
+      <c r="D216" s="35"/>
       <c r="E216" s="25" t="s">
         <v>109</v>
       </c>
@@ -5658,7 +5673,7 @@
       </c>
     </row>
     <row r="217" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="34"/>
+      <c r="D217" s="35"/>
       <c r="E217" s="24" t="s">
         <v>112</v>
       </c>
@@ -5679,7 +5694,7 @@
       </c>
     </row>
     <row r="218" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="34"/>
+      <c r="D218" s="35"/>
       <c r="E218" s="12" t="s">
         <v>115</v>
       </c>
@@ -5700,21 +5715,21 @@
       </c>
     </row>
     <row r="219" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="35"/>
-      <c r="E219" s="30" t="s">
+      <c r="D219" s="36"/>
+      <c r="E219" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F219" s="31"/>
-      <c r="G219" s="31"/>
-      <c r="H219" s="31"/>
-      <c r="I219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="33"/>
       <c r="J219" s="10">
         <f>SUM(J213:J218)</f>
         <v>0.36111111111111116</v>
       </c>
     </row>
     <row r="220" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="33">
+      <c r="D220" s="34">
         <v>45784</v>
       </c>
       <c r="E220" s="24" t="s">
@@ -5737,7 +5752,7 @@
       </c>
     </row>
     <row r="221" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="34"/>
+      <c r="D221" s="35"/>
       <c r="E221" s="24" t="s">
         <v>105</v>
       </c>
@@ -5758,7 +5773,7 @@
       </c>
     </row>
     <row r="222" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="34"/>
+      <c r="D222" s="35"/>
       <c r="E222" s="25" t="s">
         <v>108</v>
       </c>
@@ -5779,7 +5794,7 @@
       </c>
     </row>
     <row r="223" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="34"/>
+      <c r="D223" s="35"/>
       <c r="E223" s="25" t="s">
         <v>109</v>
       </c>
@@ -5800,7 +5815,7 @@
       </c>
     </row>
     <row r="224" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="34"/>
+      <c r="D224" s="35"/>
       <c r="E224" s="24" t="s">
         <v>112</v>
       </c>
@@ -5821,7 +5836,7 @@
       </c>
     </row>
     <row r="225" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="34"/>
+      <c r="D225" s="35"/>
       <c r="E225" s="12" t="s">
         <v>115</v>
       </c>
@@ -5842,21 +5857,21 @@
       </c>
     </row>
     <row r="226" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="35"/>
-      <c r="E226" s="30" t="s">
+      <c r="D226" s="36"/>
+      <c r="E226" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F226" s="31"/>
-      <c r="G226" s="31"/>
-      <c r="H226" s="31"/>
-      <c r="I226" s="32"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="32"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="33"/>
       <c r="J226" s="10">
         <f>SUM(J220:J225)</f>
         <v>0.38194444444444448</v>
       </c>
     </row>
     <row r="227" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="33">
+      <c r="D227" s="34">
         <v>45785</v>
       </c>
       <c r="E227" s="24" t="s">
@@ -5879,7 +5894,7 @@
       </c>
     </row>
     <row r="228" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="34"/>
+      <c r="D228" s="35"/>
       <c r="E228" s="24" t="s">
         <v>105</v>
       </c>
@@ -5900,7 +5915,7 @@
       </c>
     </row>
     <row r="229" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="34"/>
+      <c r="D229" s="35"/>
       <c r="E229" s="25" t="s">
         <v>108</v>
       </c>
@@ -5921,7 +5936,7 @@
       </c>
     </row>
     <row r="230" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="34"/>
+      <c r="D230" s="35"/>
       <c r="E230" s="25" t="s">
         <v>109</v>
       </c>
@@ -5942,7 +5957,7 @@
       </c>
     </row>
     <row r="231" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="34"/>
+      <c r="D231" s="35"/>
       <c r="E231" s="24" t="s">
         <v>112</v>
       </c>
@@ -5963,7 +5978,7 @@
       </c>
     </row>
     <row r="232" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="34"/>
+      <c r="D232" s="35"/>
       <c r="E232" s="12" t="s">
         <v>115</v>
       </c>
@@ -5984,21 +5999,21 @@
       </c>
     </row>
     <row r="233" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="35"/>
-      <c r="E233" s="30" t="s">
+      <c r="D233" s="36"/>
+      <c r="E233" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F233" s="31"/>
-      <c r="G233" s="31"/>
-      <c r="H233" s="31"/>
-      <c r="I233" s="32"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="32"/>
+      <c r="H233" s="32"/>
+      <c r="I233" s="33"/>
       <c r="J233" s="10">
         <f>SUM(J227:J232)</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="234" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="33">
+      <c r="D234" s="34">
         <v>45786</v>
       </c>
       <c r="E234" s="24" t="s">
@@ -6021,7 +6036,7 @@
       </c>
     </row>
     <row r="235" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="34"/>
+      <c r="D235" s="35"/>
       <c r="E235" s="24" t="s">
         <v>105</v>
       </c>
@@ -6042,7 +6057,7 @@
       </c>
     </row>
     <row r="236" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="34"/>
+      <c r="D236" s="35"/>
       <c r="E236" s="25" t="s">
         <v>108</v>
       </c>
@@ -6063,7 +6078,7 @@
       </c>
     </row>
     <row r="237" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="34"/>
+      <c r="D237" s="35"/>
       <c r="E237" s="25" t="s">
         <v>109</v>
       </c>
@@ -6084,7 +6099,7 @@
       </c>
     </row>
     <row r="238" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="34"/>
+      <c r="D238" s="35"/>
       <c r="E238" s="24" t="s">
         <v>112</v>
       </c>
@@ -6105,7 +6120,7 @@
       </c>
     </row>
     <row r="239" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="34"/>
+      <c r="D239" s="35"/>
       <c r="E239" s="12" t="s">
         <v>115</v>
       </c>
@@ -6126,21 +6141,21 @@
       </c>
     </row>
     <row r="240" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="35"/>
-      <c r="E240" s="30" t="s">
+      <c r="D240" s="36"/>
+      <c r="E240" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F240" s="31"/>
-      <c r="G240" s="31"/>
-      <c r="H240" s="31"/>
-      <c r="I240" s="32"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32"/>
+      <c r="H240" s="32"/>
+      <c r="I240" s="33"/>
       <c r="J240" s="10">
         <f>SUM(J234:J239)</f>
         <v>0.24305555555555558</v>
       </c>
     </row>
     <row r="241" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="33">
+      <c r="D241" s="34">
         <v>45787</v>
       </c>
       <c r="E241" s="24" t="s">
@@ -6163,7 +6178,7 @@
       </c>
     </row>
     <row r="242" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="34"/>
+      <c r="D242" s="35"/>
       <c r="E242" s="24" t="s">
         <v>105</v>
       </c>
@@ -6184,7 +6199,7 @@
       </c>
     </row>
     <row r="243" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="34"/>
+      <c r="D243" s="35"/>
       <c r="E243" s="25" t="s">
         <v>108</v>
       </c>
@@ -6205,7 +6220,7 @@
       </c>
     </row>
     <row r="244" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="34"/>
+      <c r="D244" s="35"/>
       <c r="E244" s="25" t="s">
         <v>109</v>
       </c>
@@ -6226,7 +6241,7 @@
       </c>
     </row>
     <row r="245" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="34"/>
+      <c r="D245" s="35"/>
       <c r="E245" s="24" t="s">
         <v>112</v>
       </c>
@@ -6247,7 +6262,7 @@
       </c>
     </row>
     <row r="246" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="34"/>
+      <c r="D246" s="35"/>
       <c r="E246" s="12" t="s">
         <v>115</v>
       </c>
@@ -6268,21 +6283,21 @@
       </c>
     </row>
     <row r="247" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="35"/>
-      <c r="E247" s="30" t="s">
+      <c r="D247" s="36"/>
+      <c r="E247" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F247" s="31"/>
-      <c r="G247" s="31"/>
-      <c r="H247" s="31"/>
-      <c r="I247" s="32"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="32"/>
+      <c r="H247" s="32"/>
+      <c r="I247" s="33"/>
       <c r="J247" s="10">
         <f>SUM(J241:J246)</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="248" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="33">
+      <c r="D248" s="34">
         <v>45788</v>
       </c>
       <c r="E248" s="24" t="s">
@@ -6305,7 +6320,7 @@
       </c>
     </row>
     <row r="249" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="34"/>
+      <c r="D249" s="35"/>
       <c r="E249" s="24" t="s">
         <v>105</v>
       </c>
@@ -6326,7 +6341,7 @@
       </c>
     </row>
     <row r="250" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="34"/>
+      <c r="D250" s="35"/>
       <c r="E250" s="25" t="s">
         <v>108</v>
       </c>
@@ -6347,7 +6362,7 @@
       </c>
     </row>
     <row r="251" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="34"/>
+      <c r="D251" s="35"/>
       <c r="E251" s="25" t="s">
         <v>109</v>
       </c>
@@ -6368,7 +6383,7 @@
       </c>
     </row>
     <row r="252" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="34"/>
+      <c r="D252" s="35"/>
       <c r="E252" s="24" t="s">
         <v>112</v>
       </c>
@@ -6389,7 +6404,7 @@
       </c>
     </row>
     <row r="253" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="34"/>
+      <c r="D253" s="35"/>
       <c r="E253" s="12" t="s">
         <v>115</v>
       </c>
@@ -6410,21 +6425,21 @@
       </c>
     </row>
     <row r="254" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="35"/>
-      <c r="E254" s="30" t="s">
+      <c r="D254" s="36"/>
+      <c r="E254" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F254" s="31"/>
-      <c r="G254" s="31"/>
-      <c r="H254" s="31"/>
-      <c r="I254" s="32"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="32"/>
+      <c r="H254" s="32"/>
+      <c r="I254" s="33"/>
       <c r="J254" s="10">
         <f>SUM(J248:J253)</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="33">
+      <c r="D255" s="34">
         <v>45789</v>
       </c>
       <c r="E255" s="24" t="s">
@@ -6447,7 +6462,7 @@
       </c>
     </row>
     <row r="256" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="34"/>
+      <c r="D256" s="35"/>
       <c r="E256" s="24" t="s">
         <v>105</v>
       </c>
@@ -6468,7 +6483,7 @@
       </c>
     </row>
     <row r="257" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="34"/>
+      <c r="D257" s="35"/>
       <c r="E257" s="25" t="s">
         <v>108</v>
       </c>
@@ -6489,7 +6504,7 @@
       </c>
     </row>
     <row r="258" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="34"/>
+      <c r="D258" s="35"/>
       <c r="E258" s="25" t="s">
         <v>109</v>
       </c>
@@ -6510,7 +6525,7 @@
       </c>
     </row>
     <row r="259" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="34"/>
+      <c r="D259" s="35"/>
       <c r="E259" s="24" t="s">
         <v>112</v>
       </c>
@@ -6531,7 +6546,7 @@
       </c>
     </row>
     <row r="260" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="34"/>
+      <c r="D260" s="35"/>
       <c r="E260" s="7" t="s">
         <v>25</v>
       </c>
@@ -6552,21 +6567,21 @@
       </c>
     </row>
     <row r="261" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="35"/>
-      <c r="E261" s="30" t="s">
+      <c r="D261" s="36"/>
+      <c r="E261" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F261" s="31"/>
-      <c r="G261" s="31"/>
-      <c r="H261" s="31"/>
-      <c r="I261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="32"/>
+      <c r="I261" s="33"/>
       <c r="J261" s="10">
         <f>SUM(J255:J260)</f>
         <v>0.36111111111111105</v>
       </c>
     </row>
     <row r="262" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="33">
+      <c r="D262" s="34">
         <v>45790</v>
       </c>
       <c r="E262" s="24" t="s">
@@ -6589,7 +6604,7 @@
       </c>
     </row>
     <row r="263" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="34"/>
+      <c r="D263" s="35"/>
       <c r="E263" s="24" t="s">
         <v>105</v>
       </c>
@@ -6610,7 +6625,7 @@
       </c>
     </row>
     <row r="264" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="34"/>
+      <c r="D264" s="35"/>
       <c r="E264" s="25" t="s">
         <v>108</v>
       </c>
@@ -6631,7 +6646,7 @@
       </c>
     </row>
     <row r="265" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="34"/>
+      <c r="D265" s="35"/>
       <c r="E265" s="25" t="s">
         <v>109</v>
       </c>
@@ -6652,7 +6667,7 @@
       </c>
     </row>
     <row r="266" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="34"/>
+      <c r="D266" s="35"/>
       <c r="E266" s="24" t="s">
         <v>112</v>
       </c>
@@ -6673,7 +6688,7 @@
       </c>
     </row>
     <row r="267" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="34"/>
+      <c r="D267" s="35"/>
       <c r="E267" s="12" t="s">
         <v>115</v>
       </c>
@@ -6694,21 +6709,21 @@
       </c>
     </row>
     <row r="268" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="35"/>
-      <c r="E268" s="30" t="s">
+      <c r="D268" s="36"/>
+      <c r="E268" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F268" s="31"/>
-      <c r="G268" s="31"/>
-      <c r="H268" s="31"/>
-      <c r="I268" s="32"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32"/>
+      <c r="H268" s="32"/>
+      <c r="I268" s="33"/>
       <c r="J268" s="10">
         <f>SUM(J262:J267)</f>
         <v>0.13194444444444445</v>
       </c>
     </row>
     <row r="269" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="33">
+      <c r="D269" s="34">
         <v>45791</v>
       </c>
       <c r="E269" s="24" t="s">
@@ -6732,7 +6747,7 @@
       </c>
     </row>
     <row r="270" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="34"/>
+      <c r="D270" s="35"/>
       <c r="E270" s="24" t="s">
         <v>105</v>
       </c>
@@ -6754,7 +6769,7 @@
       </c>
     </row>
     <row r="271" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="34"/>
+      <c r="D271" s="35"/>
       <c r="E271" s="25" t="s">
         <v>108</v>
       </c>
@@ -6776,7 +6791,7 @@
       </c>
     </row>
     <row r="272" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="34"/>
+      <c r="D272" s="35"/>
       <c r="E272" s="25" t="s">
         <v>109</v>
       </c>
@@ -6798,7 +6813,7 @@
       </c>
     </row>
     <row r="273" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="34"/>
+      <c r="D273" s="35"/>
       <c r="E273" s="24" t="s">
         <v>112</v>
       </c>
@@ -6820,7 +6835,7 @@
       </c>
     </row>
     <row r="274" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="34"/>
+      <c r="D274" s="35"/>
       <c r="E274" s="12" t="s">
         <v>115</v>
       </c>
@@ -6842,21 +6857,21 @@
       </c>
     </row>
     <row r="275" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="35"/>
-      <c r="E275" s="30" t="s">
+      <c r="D275" s="36"/>
+      <c r="E275" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F275" s="31"/>
-      <c r="G275" s="31"/>
-      <c r="H275" s="31"/>
-      <c r="I275" s="32"/>
+      <c r="F275" s="32"/>
+      <c r="G275" s="32"/>
+      <c r="H275" s="32"/>
+      <c r="I275" s="33"/>
       <c r="J275" s="10" t="str">
         <f t="array" ref="J275">TEXT(SUMPRODUCT(--(J269:J274)), "h:mm")</f>
         <v>10:40</v>
       </c>
     </row>
     <row r="276" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="33">
+      <c r="D276" s="34">
         <v>45792</v>
       </c>
       <c r="E276" s="24" t="s">
@@ -6880,7 +6895,7 @@
       </c>
     </row>
     <row r="277" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="34"/>
+      <c r="D277" s="35"/>
       <c r="E277" s="24" t="s">
         <v>105</v>
       </c>
@@ -6902,7 +6917,7 @@
       </c>
     </row>
     <row r="278" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="34"/>
+      <c r="D278" s="35"/>
       <c r="E278" s="25" t="s">
         <v>108</v>
       </c>
@@ -6924,7 +6939,7 @@
       </c>
     </row>
     <row r="279" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="34"/>
+      <c r="D279" s="35"/>
       <c r="E279" s="25" t="s">
         <v>109</v>
       </c>
@@ -6946,49 +6961,65 @@
       </c>
     </row>
     <row r="280" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="34"/>
+      <c r="D280" s="35"/>
       <c r="E280" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
+      <c r="F280" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I280" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="J280" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0:00</v>
+        <v>2:00</v>
       </c>
     </row>
     <row r="281" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="34"/>
+      <c r="D281" s="35"/>
       <c r="E281" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
+      <c r="F281" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G281" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H281" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I281" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J281" s="6" t="str">
         <f t="shared" si="1"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="282" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="35"/>
-      <c r="E282" s="30" t="s">
+      <c r="D282" s="36"/>
+      <c r="E282" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F282" s="31"/>
-      <c r="G282" s="31"/>
-      <c r="H282" s="31"/>
-      <c r="I282" s="32"/>
+      <c r="F282" s="32"/>
+      <c r="G282" s="32"/>
+      <c r="H282" s="32"/>
+      <c r="I282" s="33"/>
       <c r="J282" s="10" t="str">
         <f t="array" ref="J282">TEXT(SUMPRODUCT(--(J276:J281)), "h:mm")</f>
-        <v>7:40</v>
+        <v>9:40</v>
       </c>
     </row>
     <row r="283" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="33">
+      <c r="D283" s="34">
         <v>45793</v>
       </c>
       <c r="E283" s="24" t="s">
@@ -7004,7 +7035,7 @@
       </c>
     </row>
     <row r="284" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="34"/>
+      <c r="D284" s="35"/>
       <c r="E284" s="24" t="s">
         <v>105</v>
       </c>
@@ -7018,7 +7049,7 @@
       </c>
     </row>
     <row r="285" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="34"/>
+      <c r="D285" s="35"/>
       <c r="E285" s="25" t="s">
         <v>108</v>
       </c>
@@ -7032,7 +7063,7 @@
       </c>
     </row>
     <row r="286" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="34"/>
+      <c r="D286" s="35"/>
       <c r="E286" s="25" t="s">
         <v>109</v>
       </c>
@@ -7046,7 +7077,7 @@
       </c>
     </row>
     <row r="287" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="34"/>
+      <c r="D287" s="35"/>
       <c r="E287" s="24" t="s">
         <v>112</v>
       </c>
@@ -7060,7 +7091,7 @@
       </c>
     </row>
     <row r="288" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="34"/>
+      <c r="D288" s="35"/>
       <c r="E288" s="12" t="s">
         <v>115</v>
       </c>
@@ -7074,21 +7105,21 @@
       </c>
     </row>
     <row r="289" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="35"/>
-      <c r="E289" s="30" t="s">
+      <c r="D289" s="36"/>
+      <c r="E289" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F289" s="31"/>
-      <c r="G289" s="31"/>
-      <c r="H289" s="31"/>
-      <c r="I289" s="32"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
+      <c r="H289" s="32"/>
+      <c r="I289" s="33"/>
       <c r="J289" s="10" t="str">
         <f t="array" ref="J289">TEXT(SUMPRODUCT(--(J283:J288)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="290" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="33">
+      <c r="D290" s="34">
         <v>45794</v>
       </c>
       <c r="E290" s="24" t="s">
@@ -7106,7 +7137,7 @@
       </c>
     </row>
     <row r="291" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="34"/>
+      <c r="D291" s="35"/>
       <c r="E291" s="24" t="s">
         <v>105</v>
       </c>
@@ -7122,7 +7153,7 @@
       </c>
     </row>
     <row r="292" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="34"/>
+      <c r="D292" s="35"/>
       <c r="E292" s="25" t="s">
         <v>108</v>
       </c>
@@ -7138,7 +7169,7 @@
       </c>
     </row>
     <row r="293" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="34"/>
+      <c r="D293" s="35"/>
       <c r="E293" s="25" t="s">
         <v>109</v>
       </c>
@@ -7154,7 +7185,7 @@
       </c>
     </row>
     <row r="294" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="34"/>
+      <c r="D294" s="35"/>
       <c r="E294" s="24" t="s">
         <v>112</v>
       </c>
@@ -7170,7 +7201,7 @@
       </c>
     </row>
     <row r="295" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="34"/>
+      <c r="D295" s="35"/>
       <c r="E295" s="12" t="s">
         <v>115</v>
       </c>
@@ -7184,21 +7215,21 @@
       </c>
     </row>
     <row r="296" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="35"/>
-      <c r="E296" s="30" t="s">
+      <c r="D296" s="36"/>
+      <c r="E296" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F296" s="31"/>
-      <c r="G296" s="31"/>
-      <c r="H296" s="31"/>
-      <c r="I296" s="32"/>
+      <c r="F296" s="32"/>
+      <c r="G296" s="32"/>
+      <c r="H296" s="32"/>
+      <c r="I296" s="33"/>
       <c r="J296" s="10" t="str">
         <f t="array" ref="J296">TEXT(SUMPRODUCT(--(J290:J295)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="297" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="33">
+      <c r="D297" s="34">
         <v>45795</v>
       </c>
       <c r="E297" s="24" t="s">
@@ -7216,7 +7247,7 @@
       </c>
     </row>
     <row r="298" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="34"/>
+      <c r="D298" s="35"/>
       <c r="E298" s="24" t="s">
         <v>105</v>
       </c>
@@ -7232,7 +7263,7 @@
       </c>
     </row>
     <row r="299" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="34"/>
+      <c r="D299" s="35"/>
       <c r="E299" s="25" t="s">
         <v>108</v>
       </c>
@@ -7248,7 +7279,7 @@
       </c>
     </row>
     <row r="300" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="34"/>
+      <c r="D300" s="35"/>
       <c r="E300" s="25" t="s">
         <v>109</v>
       </c>
@@ -7264,7 +7295,7 @@
       </c>
     </row>
     <row r="301" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="34"/>
+      <c r="D301" s="35"/>
       <c r="E301" s="24" t="s">
         <v>112</v>
       </c>
@@ -7280,7 +7311,7 @@
       </c>
     </row>
     <row r="302" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="34"/>
+      <c r="D302" s="35"/>
       <c r="E302" s="12" t="s">
         <v>115</v>
       </c>
@@ -7294,21 +7325,21 @@
       </c>
     </row>
     <row r="303" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="35"/>
-      <c r="E303" s="30" t="s">
+      <c r="D303" s="36"/>
+      <c r="E303" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F303" s="31"/>
-      <c r="G303" s="31"/>
-      <c r="H303" s="31"/>
-      <c r="I303" s="32"/>
+      <c r="F303" s="32"/>
+      <c r="G303" s="32"/>
+      <c r="H303" s="32"/>
+      <c r="I303" s="33"/>
       <c r="J303" s="10" t="str">
         <f t="array" ref="J303">TEXT(SUMPRODUCT(--(J297:J302)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="304" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="33">
+      <c r="D304" s="34">
         <v>45796</v>
       </c>
       <c r="E304" s="24" t="s">
@@ -7326,7 +7357,7 @@
       </c>
     </row>
     <row r="305" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="34"/>
+      <c r="D305" s="35"/>
       <c r="E305" s="24" t="s">
         <v>105</v>
       </c>
@@ -7342,7 +7373,7 @@
       </c>
     </row>
     <row r="306" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="34"/>
+      <c r="D306" s="35"/>
       <c r="E306" s="25" t="s">
         <v>108</v>
       </c>
@@ -7358,7 +7389,7 @@
       </c>
     </row>
     <row r="307" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="34"/>
+      <c r="D307" s="35"/>
       <c r="E307" s="25" t="s">
         <v>109</v>
       </c>
@@ -7374,7 +7405,7 @@
       </c>
     </row>
     <row r="308" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="34"/>
+      <c r="D308" s="35"/>
       <c r="E308" s="24" t="s">
         <v>112</v>
       </c>
@@ -7390,7 +7421,7 @@
       </c>
     </row>
     <row r="309" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="34"/>
+      <c r="D309" s="35"/>
       <c r="E309" s="12" t="s">
         <v>115</v>
       </c>
@@ -7404,21 +7435,21 @@
       </c>
     </row>
     <row r="310" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="35"/>
-      <c r="E310" s="30" t="s">
+      <c r="D310" s="36"/>
+      <c r="E310" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F310" s="31"/>
-      <c r="G310" s="31"/>
-      <c r="H310" s="31"/>
-      <c r="I310" s="32"/>
+      <c r="F310" s="32"/>
+      <c r="G310" s="32"/>
+      <c r="H310" s="32"/>
+      <c r="I310" s="33"/>
       <c r="J310" s="10" t="str">
         <f t="array" ref="J310">TEXT(SUMPRODUCT(--(J304:J309)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="311" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="33">
+      <c r="D311" s="34">
         <v>45797</v>
       </c>
       <c r="E311" s="24" t="s">
@@ -7436,7 +7467,7 @@
       </c>
     </row>
     <row r="312" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="34"/>
+      <c r="D312" s="35"/>
       <c r="E312" s="24" t="s">
         <v>105</v>
       </c>
@@ -7452,7 +7483,7 @@
       </c>
     </row>
     <row r="313" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="34"/>
+      <c r="D313" s="35"/>
       <c r="E313" s="25" t="s">
         <v>108</v>
       </c>
@@ -7468,7 +7499,7 @@
       </c>
     </row>
     <row r="314" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="34"/>
+      <c r="D314" s="35"/>
       <c r="E314" s="25" t="s">
         <v>109</v>
       </c>
@@ -7484,7 +7515,7 @@
       </c>
     </row>
     <row r="315" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="34"/>
+      <c r="D315" s="35"/>
       <c r="E315" s="24" t="s">
         <v>112</v>
       </c>
@@ -7500,7 +7531,7 @@
       </c>
     </row>
     <row r="316" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="34"/>
+      <c r="D316" s="35"/>
       <c r="E316" s="12" t="s">
         <v>115</v>
       </c>
@@ -7514,21 +7545,21 @@
       </c>
     </row>
     <row r="317" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="35"/>
-      <c r="E317" s="30" t="s">
+      <c r="D317" s="36"/>
+      <c r="E317" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F317" s="31"/>
-      <c r="G317" s="31"/>
-      <c r="H317" s="31"/>
-      <c r="I317" s="32"/>
+      <c r="F317" s="32"/>
+      <c r="G317" s="32"/>
+      <c r="H317" s="32"/>
+      <c r="I317" s="33"/>
       <c r="J317" s="10" t="str">
         <f t="array" ref="J317">TEXT(SUMPRODUCT(--(J311:J316)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="318" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="33">
+      <c r="D318" s="34">
         <v>45798</v>
       </c>
       <c r="E318" s="24" t="s">
@@ -7546,7 +7577,7 @@
       </c>
     </row>
     <row r="319" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="34"/>
+      <c r="D319" s="35"/>
       <c r="E319" s="24" t="s">
         <v>105</v>
       </c>
@@ -7562,7 +7593,7 @@
       </c>
     </row>
     <row r="320" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="34"/>
+      <c r="D320" s="35"/>
       <c r="E320" s="25" t="s">
         <v>108</v>
       </c>
@@ -7578,7 +7609,7 @@
       </c>
     </row>
     <row r="321" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="34"/>
+      <c r="D321" s="35"/>
       <c r="E321" s="25" t="s">
         <v>109</v>
       </c>
@@ -7594,7 +7625,7 @@
       </c>
     </row>
     <row r="322" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="34"/>
+      <c r="D322" s="35"/>
       <c r="E322" s="24" t="s">
         <v>112</v>
       </c>
@@ -7610,7 +7641,7 @@
       </c>
     </row>
     <row r="323" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="34"/>
+      <c r="D323" s="35"/>
       <c r="E323" s="12" t="s">
         <v>115</v>
       </c>
@@ -7624,21 +7655,21 @@
       </c>
     </row>
     <row r="324" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="35"/>
-      <c r="E324" s="30" t="s">
+      <c r="D324" s="36"/>
+      <c r="E324" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F324" s="31"/>
-      <c r="G324" s="31"/>
-      <c r="H324" s="31"/>
-      <c r="I324" s="32"/>
+      <c r="F324" s="32"/>
+      <c r="G324" s="32"/>
+      <c r="H324" s="32"/>
+      <c r="I324" s="33"/>
       <c r="J324" s="10" t="str">
         <f t="array" ref="J324">TEXT(SUMPRODUCT(--(J318:J323)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="325" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="33">
+      <c r="D325" s="34">
         <v>45799</v>
       </c>
       <c r="E325" s="24" t="s">
@@ -7656,7 +7687,7 @@
       </c>
     </row>
     <row r="326" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="34"/>
+      <c r="D326" s="35"/>
       <c r="E326" s="24" t="s">
         <v>105</v>
       </c>
@@ -7672,7 +7703,7 @@
       </c>
     </row>
     <row r="327" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="34"/>
+      <c r="D327" s="35"/>
       <c r="E327" s="25" t="s">
         <v>108</v>
       </c>
@@ -7688,7 +7719,7 @@
       </c>
     </row>
     <row r="328" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="34"/>
+      <c r="D328" s="35"/>
       <c r="E328" s="25" t="s">
         <v>109</v>
       </c>
@@ -7704,7 +7735,7 @@
       </c>
     </row>
     <row r="329" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="34"/>
+      <c r="D329" s="35"/>
       <c r="E329" s="24" t="s">
         <v>112</v>
       </c>
@@ -7720,7 +7751,7 @@
       </c>
     </row>
     <row r="330" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="34"/>
+      <c r="D330" s="35"/>
       <c r="E330" s="12" t="s">
         <v>115</v>
       </c>
@@ -7734,21 +7765,21 @@
       </c>
     </row>
     <row r="331" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="35"/>
-      <c r="E331" s="30" t="s">
+      <c r="D331" s="36"/>
+      <c r="E331" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F331" s="31"/>
-      <c r="G331" s="31"/>
-      <c r="H331" s="31"/>
-      <c r="I331" s="32"/>
+      <c r="F331" s="32"/>
+      <c r="G331" s="32"/>
+      <c r="H331" s="32"/>
+      <c r="I331" s="33"/>
       <c r="J331" s="10" t="str">
         <f t="array" ref="J331">TEXT(SUMPRODUCT(--(J325:J330)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="332" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="33">
+      <c r="D332" s="34">
         <v>45800</v>
       </c>
       <c r="E332" s="24" t="s">
@@ -7766,7 +7797,7 @@
       </c>
     </row>
     <row r="333" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="34"/>
+      <c r="D333" s="35"/>
       <c r="E333" s="24" t="s">
         <v>105</v>
       </c>
@@ -7782,7 +7813,7 @@
       </c>
     </row>
     <row r="334" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="34"/>
+      <c r="D334" s="35"/>
       <c r="E334" s="25" t="s">
         <v>108</v>
       </c>
@@ -7798,7 +7829,7 @@
       </c>
     </row>
     <row r="335" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="34"/>
+      <c r="D335" s="35"/>
       <c r="E335" s="25" t="s">
         <v>109</v>
       </c>
@@ -7814,7 +7845,7 @@
       </c>
     </row>
     <row r="336" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="34"/>
+      <c r="D336" s="35"/>
       <c r="E336" s="24" t="s">
         <v>112</v>
       </c>
@@ -7830,7 +7861,7 @@
       </c>
     </row>
     <row r="337" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="34"/>
+      <c r="D337" s="35"/>
       <c r="E337" s="12" t="s">
         <v>115</v>
       </c>
@@ -7844,21 +7875,21 @@
       </c>
     </row>
     <row r="338" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="35"/>
-      <c r="E338" s="30" t="s">
+      <c r="D338" s="36"/>
+      <c r="E338" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F338" s="31"/>
-      <c r="G338" s="31"/>
-      <c r="H338" s="31"/>
-      <c r="I338" s="32"/>
+      <c r="F338" s="32"/>
+      <c r="G338" s="32"/>
+      <c r="H338" s="32"/>
+      <c r="I338" s="33"/>
       <c r="J338" s="10" t="str">
         <f t="array" ref="J338">TEXT(SUMPRODUCT(--(J332:J337)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="339" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="33">
+      <c r="D339" s="34">
         <v>45801</v>
       </c>
       <c r="E339" s="24" t="s">
@@ -7876,7 +7907,7 @@
       </c>
     </row>
     <row r="340" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="34"/>
+      <c r="D340" s="35"/>
       <c r="E340" s="24" t="s">
         <v>105</v>
       </c>
@@ -7892,7 +7923,7 @@
       </c>
     </row>
     <row r="341" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="34"/>
+      <c r="D341" s="35"/>
       <c r="E341" s="25" t="s">
         <v>108</v>
       </c>
@@ -7908,7 +7939,7 @@
       </c>
     </row>
     <row r="342" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="34"/>
+      <c r="D342" s="35"/>
       <c r="E342" s="25" t="s">
         <v>109</v>
       </c>
@@ -7924,7 +7955,7 @@
       </c>
     </row>
     <row r="343" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="34"/>
+      <c r="D343" s="35"/>
       <c r="E343" s="24" t="s">
         <v>112</v>
       </c>
@@ -7940,7 +7971,7 @@
       </c>
     </row>
     <row r="344" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="34"/>
+      <c r="D344" s="35"/>
       <c r="E344" s="12" t="s">
         <v>115</v>
       </c>
@@ -7954,21 +7985,21 @@
       </c>
     </row>
     <row r="345" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="35"/>
-      <c r="E345" s="30" t="s">
+      <c r="D345" s="36"/>
+      <c r="E345" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F345" s="31"/>
-      <c r="G345" s="31"/>
-      <c r="H345" s="31"/>
-      <c r="I345" s="32"/>
+      <c r="F345" s="32"/>
+      <c r="G345" s="32"/>
+      <c r="H345" s="32"/>
+      <c r="I345" s="33"/>
       <c r="J345" s="10" t="str">
         <f t="array" ref="J345">TEXT(SUMPRODUCT(--(J339:J344)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="346" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="33">
+      <c r="D346" s="34">
         <v>45802</v>
       </c>
       <c r="E346" s="24" t="s">
@@ -7986,7 +8017,7 @@
       </c>
     </row>
     <row r="347" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="34"/>
+      <c r="D347" s="35"/>
       <c r="E347" s="24" t="s">
         <v>105</v>
       </c>
@@ -8002,7 +8033,7 @@
       </c>
     </row>
     <row r="348" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="34"/>
+      <c r="D348" s="35"/>
       <c r="E348" s="25" t="s">
         <v>108</v>
       </c>
@@ -8018,7 +8049,7 @@
       </c>
     </row>
     <row r="349" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="34"/>
+      <c r="D349" s="35"/>
       <c r="E349" s="25" t="s">
         <v>109</v>
       </c>
@@ -8034,7 +8065,7 @@
       </c>
     </row>
     <row r="350" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="34"/>
+      <c r="D350" s="35"/>
       <c r="E350" s="24" t="s">
         <v>112</v>
       </c>
@@ -8050,7 +8081,7 @@
       </c>
     </row>
     <row r="351" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="34"/>
+      <c r="D351" s="35"/>
       <c r="E351" s="12" t="s">
         <v>115</v>
       </c>
@@ -8064,21 +8095,21 @@
       </c>
     </row>
     <row r="352" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" s="35"/>
-      <c r="E352" s="30" t="s">
+      <c r="D352" s="36"/>
+      <c r="E352" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F352" s="31"/>
-      <c r="G352" s="31"/>
-      <c r="H352" s="31"/>
-      <c r="I352" s="32"/>
+      <c r="F352" s="32"/>
+      <c r="G352" s="32"/>
+      <c r="H352" s="32"/>
+      <c r="I352" s="33"/>
       <c r="J352" s="10" t="str">
         <f t="array" ref="J352">TEXT(SUMPRODUCT(--(J346:J351)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="353" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" s="33">
+      <c r="D353" s="34">
         <v>45803</v>
       </c>
       <c r="E353" s="24" t="s">
@@ -8096,7 +8127,7 @@
       </c>
     </row>
     <row r="354" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="34"/>
+      <c r="D354" s="35"/>
       <c r="E354" s="24" t="s">
         <v>105</v>
       </c>
@@ -8112,7 +8143,7 @@
       </c>
     </row>
     <row r="355" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="34"/>
+      <c r="D355" s="35"/>
       <c r="E355" s="25" t="s">
         <v>108</v>
       </c>
@@ -8128,7 +8159,7 @@
       </c>
     </row>
     <row r="356" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="34"/>
+      <c r="D356" s="35"/>
       <c r="E356" s="25" t="s">
         <v>109</v>
       </c>
@@ -8144,7 +8175,7 @@
       </c>
     </row>
     <row r="357" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" s="34"/>
+      <c r="D357" s="35"/>
       <c r="E357" s="24" t="s">
         <v>112</v>
       </c>
@@ -8160,7 +8191,7 @@
       </c>
     </row>
     <row r="358" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" s="34"/>
+      <c r="D358" s="35"/>
       <c r="E358" s="12" t="s">
         <v>115</v>
       </c>
@@ -8174,21 +8205,21 @@
       </c>
     </row>
     <row r="359" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="35"/>
-      <c r="E359" s="30" t="s">
+      <c r="D359" s="36"/>
+      <c r="E359" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F359" s="31"/>
-      <c r="G359" s="31"/>
-      <c r="H359" s="31"/>
-      <c r="I359" s="32"/>
+      <c r="F359" s="32"/>
+      <c r="G359" s="32"/>
+      <c r="H359" s="32"/>
+      <c r="I359" s="33"/>
       <c r="J359" s="10" t="str">
         <f t="array" ref="J359">TEXT(SUMPRODUCT(--(J353:J358)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="360" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="33">
+      <c r="D360" s="34">
         <v>45804</v>
       </c>
       <c r="E360" s="24" t="s">
@@ -8206,7 +8237,7 @@
       </c>
     </row>
     <row r="361" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="34"/>
+      <c r="D361" s="35"/>
       <c r="E361" s="24" t="s">
         <v>105</v>
       </c>
@@ -8222,7 +8253,7 @@
       </c>
     </row>
     <row r="362" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" s="34"/>
+      <c r="D362" s="35"/>
       <c r="E362" s="25" t="s">
         <v>108</v>
       </c>
@@ -8238,7 +8269,7 @@
       </c>
     </row>
     <row r="363" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D363" s="34"/>
+      <c r="D363" s="35"/>
       <c r="E363" s="25" t="s">
         <v>109</v>
       </c>
@@ -8254,7 +8285,7 @@
       </c>
     </row>
     <row r="364" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="34"/>
+      <c r="D364" s="35"/>
       <c r="E364" s="24" t="s">
         <v>112</v>
       </c>
@@ -8270,7 +8301,7 @@
       </c>
     </row>
     <row r="365" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="34"/>
+      <c r="D365" s="35"/>
       <c r="E365" s="12" t="s">
         <v>115</v>
       </c>
@@ -8284,21 +8315,21 @@
       </c>
     </row>
     <row r="366" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="35"/>
-      <c r="E366" s="30" t="s">
+      <c r="D366" s="36"/>
+      <c r="E366" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F366" s="31"/>
-      <c r="G366" s="31"/>
-      <c r="H366" s="31"/>
-      <c r="I366" s="32"/>
+      <c r="F366" s="32"/>
+      <c r="G366" s="32"/>
+      <c r="H366" s="32"/>
+      <c r="I366" s="33"/>
       <c r="J366" s="10" t="str">
         <f t="array" ref="J366">TEXT(SUMPRODUCT(--(J360:J365)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="367" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" s="33">
+      <c r="D367" s="34">
         <v>45805</v>
       </c>
       <c r="E367" s="24" t="s">
@@ -8316,7 +8347,7 @@
       </c>
     </row>
     <row r="368" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" s="34"/>
+      <c r="D368" s="35"/>
       <c r="E368" s="24" t="s">
         <v>105</v>
       </c>
@@ -8332,7 +8363,7 @@
       </c>
     </row>
     <row r="369" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" s="34"/>
+      <c r="D369" s="35"/>
       <c r="E369" s="25" t="s">
         <v>108</v>
       </c>
@@ -8348,7 +8379,7 @@
       </c>
     </row>
     <row r="370" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" s="34"/>
+      <c r="D370" s="35"/>
       <c r="E370" s="25" t="s">
         <v>109</v>
       </c>
@@ -8364,7 +8395,7 @@
       </c>
     </row>
     <row r="371" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" s="34"/>
+      <c r="D371" s="35"/>
       <c r="E371" s="24" t="s">
         <v>112</v>
       </c>
@@ -8380,7 +8411,7 @@
       </c>
     </row>
     <row r="372" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" s="34"/>
+      <c r="D372" s="35"/>
       <c r="E372" s="12" t="s">
         <v>115</v>
       </c>
@@ -8394,21 +8425,21 @@
       </c>
     </row>
     <row r="373" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" s="35"/>
-      <c r="E373" s="30" t="s">
+      <c r="D373" s="36"/>
+      <c r="E373" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F373" s="31"/>
-      <c r="G373" s="31"/>
-      <c r="H373" s="31"/>
-      <c r="I373" s="32"/>
+      <c r="F373" s="32"/>
+      <c r="G373" s="32"/>
+      <c r="H373" s="32"/>
+      <c r="I373" s="33"/>
       <c r="J373" s="10" t="str">
         <f t="array" ref="J373">TEXT(SUMPRODUCT(--(J367:J372)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="374" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" s="33">
+      <c r="D374" s="34">
         <v>45806</v>
       </c>
       <c r="E374" s="24" t="s">
@@ -8426,7 +8457,7 @@
       </c>
     </row>
     <row r="375" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" s="34"/>
+      <c r="D375" s="35"/>
       <c r="E375" s="24" t="s">
         <v>105</v>
       </c>
@@ -8442,7 +8473,7 @@
       </c>
     </row>
     <row r="376" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" s="34"/>
+      <c r="D376" s="35"/>
       <c r="E376" s="25" t="s">
         <v>108</v>
       </c>
@@ -8458,7 +8489,7 @@
       </c>
     </row>
     <row r="377" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" s="34"/>
+      <c r="D377" s="35"/>
       <c r="E377" s="25" t="s">
         <v>109</v>
       </c>
@@ -8474,7 +8505,7 @@
       </c>
     </row>
     <row r="378" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" s="34"/>
+      <c r="D378" s="35"/>
       <c r="E378" s="24" t="s">
         <v>112</v>
       </c>
@@ -8490,7 +8521,7 @@
       </c>
     </row>
     <row r="379" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" s="34"/>
+      <c r="D379" s="35"/>
       <c r="E379" s="12" t="s">
         <v>115</v>
       </c>
@@ -8504,14 +8535,14 @@
       </c>
     </row>
     <row r="380" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" s="35"/>
-      <c r="E380" s="30" t="s">
+      <c r="D380" s="36"/>
+      <c r="E380" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F380" s="31"/>
-      <c r="G380" s="31"/>
-      <c r="H380" s="31"/>
-      <c r="I380" s="32"/>
+      <c r="F380" s="32"/>
+      <c r="G380" s="32"/>
+      <c r="H380" s="32"/>
+      <c r="I380" s="33"/>
       <c r="J380" s="10" t="str">
         <f t="array" ref="J380">TEXT(SUMPRODUCT(--(J374:J379)), "h:mm")</f>
         <v>0:00</v>

--- a/Attendance Tracking.xlsx
+++ b/Attendance Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1push\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0ADA7-F238-499E-A4DB-E1FA95ED19DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2CF57-2F56-423E-BB67-098FBFD078DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="152">
   <si>
     <t>Time Table Until Get a Job</t>
   </si>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>Past continous</t>
+  </si>
+  <si>
+    <t>Data analyst</t>
+  </si>
+  <si>
+    <t>Question/answers</t>
+  </si>
+  <si>
+    <t>Numpy functions</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +613,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEF6C00"/>
         <bgColor rgb="FFEF6C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -838,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,6 +949,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="91" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I281" sqref="I281"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="91" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F285" sqref="F285:J285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,51 +1341,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="4:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="4:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
@@ -1373,7 +1412,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="34">
+      <c r="D6" s="37">
         <v>45758</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1396,7 +1435,7 @@
       </c>
     </row>
     <row r="7" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="35"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
@@ -1417,7 +1456,7 @@
       </c>
     </row>
     <row r="8" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="35"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1477,7 @@
       </c>
     </row>
     <row r="9" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="35"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1498,7 @@
       </c>
     </row>
     <row r="10" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="35"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1519,7 @@
       </c>
     </row>
     <row r="11" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="35"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="12" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1540,7 @@
       </c>
     </row>
     <row r="12" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="35"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1561,7 @@
       </c>
     </row>
     <row r="13" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="35"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
@@ -1543,21 +1582,21 @@
       </c>
     </row>
     <row r="14" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="36"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="9">
         <f>SUM(J6:J13)</f>
         <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="15" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="34">
+      <c r="D15" s="37">
         <v>45759</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1580,7 +1619,7 @@
       </c>
     </row>
     <row r="16" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="35"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1640,7 @@
       </c>
     </row>
     <row r="17" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="35"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1661,7 @@
       </c>
     </row>
     <row r="18" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="35"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1643,7 +1682,7 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="35"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1703,7 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="35"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1724,7 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="35"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1745,7 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="35"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="12" t="s">
         <v>27</v>
       </c>
@@ -1727,21 +1766,21 @@
       </c>
     </row>
     <row r="23" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="36"/>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="10">
         <f>SUM(J15:J22)</f>
         <v>0.32569444444444445</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="37">
+      <c r="D24" s="40">
         <v>45760</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -1764,7 +1803,7 @@
       </c>
     </row>
     <row r="25" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="38"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1824,7 @@
       </c>
     </row>
     <row r="26" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="38"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1806,7 +1845,7 @@
       </c>
     </row>
     <row r="27" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="38"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
@@ -1827,7 +1866,7 @@
       </c>
     </row>
     <row r="28" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="38"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="12" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1887,7 @@
       </c>
     </row>
     <row r="29" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="38"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="12" t="s">
         <v>24</v>
       </c>
@@ -1869,7 +1908,7 @@
       </c>
     </row>
     <row r="30" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="38"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
@@ -1890,7 +1929,7 @@
       </c>
     </row>
     <row r="31" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="38"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1911,21 +1950,21 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="39"/>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="9">
         <f>SUM(J24:J31)</f>
         <v>0.11111111111111113</v>
       </c>
     </row>
     <row r="33" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="37">
+      <c r="D33" s="40">
         <v>45761</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -1948,7 +1987,7 @@
       </c>
     </row>
     <row r="34" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="38"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="11" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +2008,7 @@
       </c>
     </row>
     <row r="35" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="38"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="12" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +2029,7 @@
       </c>
     </row>
     <row r="36" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="38"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="12" t="s">
         <v>19</v>
       </c>
@@ -2011,7 +2050,7 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="38"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="12" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2071,7 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="38"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="12" t="s">
         <v>24</v>
       </c>
@@ -2053,7 +2092,7 @@
       </c>
     </row>
     <row r="39" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="38"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
@@ -2074,7 +2113,7 @@
       </c>
     </row>
     <row r="40" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="38"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
@@ -2095,21 +2134,21 @@
       </c>
     </row>
     <row r="41" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="39"/>
-      <c r="E41" s="40" t="s">
+      <c r="D41" s="42"/>
+      <c r="E41" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="9">
         <f>SUM(J33:J40)</f>
         <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="34">
+      <c r="D42" s="37">
         <v>45762</v>
       </c>
       <c r="E42" s="11" t="s">
@@ -2132,7 +2171,7 @@
       </c>
     </row>
     <row r="43" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="35"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="11" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2192,7 @@
       </c>
     </row>
     <row r="44" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="35"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="12" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2213,7 @@
       </c>
     </row>
     <row r="45" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="35"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="12" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2234,7 @@
       </c>
     </row>
     <row r="46" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="35"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="12" t="s">
         <v>22</v>
       </c>
@@ -2216,7 +2255,7 @@
       </c>
     </row>
     <row r="47" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="35"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="12" t="s">
         <v>24</v>
       </c>
@@ -2237,7 +2276,7 @@
       </c>
     </row>
     <row r="48" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="35"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="12" t="s">
         <v>26</v>
       </c>
@@ -2258,7 +2297,7 @@
       </c>
     </row>
     <row r="49" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="35"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="12" t="s">
         <v>27</v>
       </c>
@@ -2271,21 +2310,21 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="36"/>
-      <c r="E50" s="31" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="9">
         <f>SUM(J42:J49)</f>
         <v>0.24652777777777776</v>
       </c>
     </row>
     <row r="51" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="34">
+      <c r="D51" s="37">
         <v>45763</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -2308,7 +2347,7 @@
       </c>
     </row>
     <row r="52" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="35"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="11" t="s">
         <v>13</v>
       </c>
@@ -2329,7 +2368,7 @@
       </c>
     </row>
     <row r="53" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="35"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="12" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2389,7 @@
       </c>
     </row>
     <row r="54" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="35"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="12" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +2410,7 @@
       </c>
     </row>
     <row r="55" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="35"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="12" t="s">
         <v>51</v>
       </c>
@@ -2392,7 +2431,7 @@
       </c>
     </row>
     <row r="56" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="35"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="12" t="s">
         <v>52</v>
       </c>
@@ -2413,7 +2452,7 @@
       </c>
     </row>
     <row r="57" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="35"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="12" t="s">
         <v>26</v>
       </c>
@@ -2434,7 +2473,7 @@
       </c>
     </row>
     <row r="58" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="35"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="12" t="s">
         <v>27</v>
       </c>
@@ -2455,21 +2494,21 @@
       </c>
     </row>
     <row r="59" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="36"/>
-      <c r="E59" s="28" t="s">
+      <c r="D59" s="39"/>
+      <c r="E59" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="33"/>
       <c r="J59" s="10">
         <f>SUM(J51:J58)</f>
         <v>0.17708333333333331</v>
       </c>
     </row>
     <row r="60" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="34">
+      <c r="D60" s="37">
         <v>45764</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -2492,7 +2531,7 @@
       </c>
     </row>
     <row r="61" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="35"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="11" t="s">
         <v>13</v>
       </c>
@@ -2513,7 +2552,7 @@
       </c>
     </row>
     <row r="62" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="35"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="12" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +2573,7 @@
       </c>
     </row>
     <row r="63" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="35"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="12" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2594,7 @@
       </c>
     </row>
     <row r="64" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="35"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="12" t="s">
         <v>51</v>
       </c>
@@ -2576,7 +2615,7 @@
       </c>
     </row>
     <row r="65" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="35"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="12" t="s">
         <v>52</v>
       </c>
@@ -2597,7 +2636,7 @@
       </c>
     </row>
     <row r="66" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="35"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="12" t="s">
         <v>26</v>
       </c>
@@ -2618,7 +2657,7 @@
       </c>
     </row>
     <row r="67" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="35"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="12" t="s">
         <v>27</v>
       </c>
@@ -2639,21 +2678,21 @@
       </c>
     </row>
     <row r="68" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="36"/>
-      <c r="E68" s="28" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="30"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="33"/>
       <c r="J68" s="10">
         <f>SUM(J60:J67)</f>
         <v>0.18402777777777776</v>
       </c>
     </row>
     <row r="69" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="34">
+      <c r="D69" s="37">
         <v>45765</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -2676,7 +2715,7 @@
       </c>
     </row>
     <row r="70" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="35"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="11" t="s">
         <v>13</v>
       </c>
@@ -2697,7 +2736,7 @@
       </c>
     </row>
     <row r="71" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="35"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="12" t="s">
         <v>17</v>
       </c>
@@ -2718,7 +2757,7 @@
       </c>
     </row>
     <row r="72" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="35"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2739,7 +2778,7 @@
       </c>
     </row>
     <row r="73" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="35"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="12" t="s">
         <v>51</v>
       </c>
@@ -2760,7 +2799,7 @@
       </c>
     </row>
     <row r="74" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="35"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="12" t="s">
         <v>52</v>
       </c>
@@ -2781,7 +2820,7 @@
       </c>
     </row>
     <row r="75" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="35"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="12" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2841,7 @@
       </c>
     </row>
     <row r="76" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="35"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="12" t="s">
         <v>27</v>
       </c>
@@ -2823,21 +2862,21 @@
       </c>
     </row>
     <row r="77" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="36"/>
-      <c r="E77" s="31" t="s">
+      <c r="D77" s="39"/>
+      <c r="E77" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="36"/>
       <c r="J77" s="10">
         <f>SUM(J69:J76)</f>
         <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="78" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="34">
+      <c r="D78" s="37">
         <v>45766</v>
       </c>
       <c r="E78" s="11" t="s">
@@ -2860,7 +2899,7 @@
       </c>
     </row>
     <row r="79" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="35"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="11" t="s">
         <v>13</v>
       </c>
@@ -2881,7 +2920,7 @@
       </c>
     </row>
     <row r="80" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="35"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="12" t="s">
         <v>17</v>
       </c>
@@ -2902,7 +2941,7 @@
       </c>
     </row>
     <row r="81" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="35"/>
+      <c r="D81" s="38"/>
       <c r="E81" s="12" t="s">
         <v>19</v>
       </c>
@@ -2923,7 +2962,7 @@
       </c>
     </row>
     <row r="82" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="35"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="12" t="s">
         <v>51</v>
       </c>
@@ -2944,7 +2983,7 @@
       </c>
     </row>
     <row r="83" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="35"/>
+      <c r="D83" s="38"/>
       <c r="E83" s="12" t="s">
         <v>52</v>
       </c>
@@ -2965,7 +3004,7 @@
       </c>
     </row>
     <row r="84" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="35"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="12" t="s">
         <v>26</v>
       </c>
@@ -2986,7 +3025,7 @@
       </c>
     </row>
     <row r="85" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="35"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="12" t="s">
         <v>27</v>
       </c>
@@ -3007,21 +3046,21 @@
       </c>
     </row>
     <row r="86" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="36"/>
-      <c r="E86" s="31" t="s">
+      <c r="D86" s="39"/>
+      <c r="E86" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="36"/>
       <c r="J86" s="10">
         <f>SUM(J78:J85)</f>
         <v>0.27222222222222225</v>
       </c>
     </row>
     <row r="87" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="34">
+      <c r="D87" s="37">
         <v>45767</v>
       </c>
       <c r="E87" s="11" t="s">
@@ -3044,7 +3083,7 @@
       </c>
     </row>
     <row r="88" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="35"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="11" t="s">
         <v>13</v>
       </c>
@@ -3065,7 +3104,7 @@
       </c>
     </row>
     <row r="89" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="35"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3086,7 +3125,7 @@
       </c>
     </row>
     <row r="90" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="35"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3107,7 +3146,7 @@
       </c>
     </row>
     <row r="91" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="35"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="12" t="s">
         <v>51</v>
       </c>
@@ -3128,7 +3167,7 @@
       </c>
     </row>
     <row r="92" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="35"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="12" t="s">
         <v>52</v>
       </c>
@@ -3149,7 +3188,7 @@
       </c>
     </row>
     <row r="93" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="35"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="12" t="s">
         <v>26</v>
       </c>
@@ -3170,7 +3209,7 @@
       </c>
     </row>
     <row r="94" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="35"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="12" t="s">
         <v>27</v>
       </c>
@@ -3191,21 +3230,21 @@
       </c>
     </row>
     <row r="95" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="36"/>
-      <c r="E95" s="31" t="s">
+      <c r="D95" s="39"/>
+      <c r="E95" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="10">
         <f>SUM(J87:J94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="34">
+      <c r="D96" s="37">
         <v>45768</v>
       </c>
       <c r="E96" s="11" t="s">
@@ -3228,7 +3267,7 @@
       </c>
     </row>
     <row r="97" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="35"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="11" t="s">
         <v>13</v>
       </c>
@@ -3249,7 +3288,7 @@
       </c>
     </row>
     <row r="98" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="35"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="12" t="s">
         <v>17</v>
       </c>
@@ -3270,7 +3309,7 @@
       </c>
     </row>
     <row r="99" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="35"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="12" t="s">
         <v>19</v>
       </c>
@@ -3291,7 +3330,7 @@
       </c>
     </row>
     <row r="100" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="35"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="12" t="s">
         <v>51</v>
       </c>
@@ -3312,7 +3351,7 @@
       </c>
     </row>
     <row r="101" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="35"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="12" t="s">
         <v>52</v>
       </c>
@@ -3333,7 +3372,7 @@
       </c>
     </row>
     <row r="102" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="35"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="12" t="s">
         <v>26</v>
       </c>
@@ -3354,7 +3393,7 @@
       </c>
     </row>
     <row r="103" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="35"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="12" t="s">
         <v>27</v>
       </c>
@@ -3375,21 +3414,21 @@
       </c>
     </row>
     <row r="104" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="36"/>
-      <c r="E104" s="31" t="s">
+      <c r="D104" s="39"/>
+      <c r="E104" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="10">
         <f>SUM(J96:J103)</f>
         <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="105" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="34">
+      <c r="D105" s="37">
         <v>45769</v>
       </c>
       <c r="E105" s="17" t="s">
@@ -3412,7 +3451,7 @@
       </c>
     </row>
     <row r="106" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="35"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="17" t="s">
         <v>13</v>
       </c>
@@ -3433,7 +3472,7 @@
       </c>
     </row>
     <row r="107" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="35"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="18" t="s">
         <v>17</v>
       </c>
@@ -3454,7 +3493,7 @@
       </c>
     </row>
     <row r="108" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="35"/>
+      <c r="D108" s="38"/>
       <c r="E108" s="18" t="s">
         <v>19</v>
       </c>
@@ -3475,7 +3514,7 @@
       </c>
     </row>
     <row r="109" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="35"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="18" t="s">
         <v>73</v>
       </c>
@@ -3496,7 +3535,7 @@
       </c>
     </row>
     <row r="110" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="35"/>
+      <c r="D110" s="38"/>
       <c r="E110" s="18" t="s">
         <v>75</v>
       </c>
@@ -3517,7 +3556,7 @@
       </c>
     </row>
     <row r="111" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="35"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="18" t="s">
         <v>76</v>
       </c>
@@ -3538,7 +3577,7 @@
       </c>
     </row>
     <row r="112" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="35"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="18" t="s">
         <v>27</v>
       </c>
@@ -3559,21 +3598,21 @@
       </c>
     </row>
     <row r="113" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="36"/>
-      <c r="E113" s="31" t="s">
+      <c r="D113" s="39"/>
+      <c r="E113" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="36"/>
       <c r="J113" s="9">
         <f>SUM(J105:J112)</f>
         <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="114" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="34">
+      <c r="D114" s="37">
         <v>45770</v>
       </c>
       <c r="E114" s="17" t="s">
@@ -3596,7 +3635,7 @@
       </c>
     </row>
     <row r="115" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="35"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="17" t="s">
         <v>13</v>
       </c>
@@ -3617,7 +3656,7 @@
       </c>
     </row>
     <row r="116" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="35"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="18" t="s">
         <v>17</v>
       </c>
@@ -3638,7 +3677,7 @@
       </c>
     </row>
     <row r="117" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="35"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="18" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3698,7 @@
       </c>
     </row>
     <row r="118" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="35"/>
+      <c r="D118" s="38"/>
       <c r="E118" s="18" t="s">
         <v>73</v>
       </c>
@@ -3680,7 +3719,7 @@
       </c>
     </row>
     <row r="119" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="35"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="18" t="s">
         <v>75</v>
       </c>
@@ -3701,7 +3740,7 @@
       </c>
     </row>
     <row r="120" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="35"/>
+      <c r="D120" s="38"/>
       <c r="E120" s="18" t="s">
         <v>76</v>
       </c>
@@ -3722,7 +3761,7 @@
       </c>
     </row>
     <row r="121" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="35"/>
+      <c r="D121" s="38"/>
       <c r="E121" s="18" t="s">
         <v>27</v>
       </c>
@@ -3743,21 +3782,21 @@
       </c>
     </row>
     <row r="122" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="36"/>
-      <c r="E122" s="31" t="s">
+      <c r="D122" s="39"/>
+      <c r="E122" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="33"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="36"/>
       <c r="J122" s="9">
         <f>SUM(J114:J121)</f>
         <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="123" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="34">
+      <c r="D123" s="37">
         <v>45771</v>
       </c>
       <c r="E123" s="17" t="s">
@@ -3780,7 +3819,7 @@
       </c>
     </row>
     <row r="124" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="35"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="17" t="s">
         <v>13</v>
       </c>
@@ -3801,7 +3840,7 @@
       </c>
     </row>
     <row r="125" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="35"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="18" t="s">
         <v>17</v>
       </c>
@@ -3822,7 +3861,7 @@
       </c>
     </row>
     <row r="126" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="35"/>
+      <c r="D126" s="38"/>
       <c r="E126" s="18" t="s">
         <v>19</v>
       </c>
@@ -3843,7 +3882,7 @@
       </c>
     </row>
     <row r="127" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="35"/>
+      <c r="D127" s="38"/>
       <c r="E127" s="18" t="s">
         <v>73</v>
       </c>
@@ -3864,7 +3903,7 @@
       </c>
     </row>
     <row r="128" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="35"/>
+      <c r="D128" s="38"/>
       <c r="E128" s="18" t="s">
         <v>75</v>
       </c>
@@ -3885,7 +3924,7 @@
       </c>
     </row>
     <row r="129" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="35"/>
+      <c r="D129" s="38"/>
       <c r="E129" s="18" t="s">
         <v>76</v>
       </c>
@@ -3906,7 +3945,7 @@
       </c>
     </row>
     <row r="130" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="35"/>
+      <c r="D130" s="38"/>
       <c r="E130" s="18" t="s">
         <v>27</v>
       </c>
@@ -3927,21 +3966,21 @@
       </c>
     </row>
     <row r="131" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="36"/>
-      <c r="E131" s="31" t="s">
+      <c r="D131" s="39"/>
+      <c r="E131" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="33"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="36"/>
       <c r="J131" s="9">
         <f>SUM(J123:J130)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="132" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="34">
+      <c r="D132" s="37">
         <v>45772</v>
       </c>
       <c r="E132" s="17" t="s">
@@ -3964,7 +4003,7 @@
       </c>
     </row>
     <row r="133" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="35"/>
+      <c r="D133" s="38"/>
       <c r="E133" s="17" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +4024,7 @@
       </c>
     </row>
     <row r="134" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="35"/>
+      <c r="D134" s="38"/>
       <c r="E134" s="18" t="s">
         <v>17</v>
       </c>
@@ -4006,7 +4045,7 @@
       </c>
     </row>
     <row r="135" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="35"/>
+      <c r="D135" s="38"/>
       <c r="E135" s="18" t="s">
         <v>19</v>
       </c>
@@ -4027,7 +4066,7 @@
       </c>
     </row>
     <row r="136" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="35"/>
+      <c r="D136" s="38"/>
       <c r="E136" s="18" t="s">
         <v>73</v>
       </c>
@@ -4048,7 +4087,7 @@
       </c>
     </row>
     <row r="137" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="35"/>
+      <c r="D137" s="38"/>
       <c r="E137" s="18" t="s">
         <v>75</v>
       </c>
@@ -4069,7 +4108,7 @@
       </c>
     </row>
     <row r="138" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="35"/>
+      <c r="D138" s="38"/>
       <c r="E138" s="18" t="s">
         <v>76</v>
       </c>
@@ -4090,7 +4129,7 @@
       </c>
     </row>
     <row r="139" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="35"/>
+      <c r="D139" s="38"/>
       <c r="E139" s="18" t="s">
         <v>27</v>
       </c>
@@ -4111,21 +4150,21 @@
       </c>
     </row>
     <row r="140" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="36"/>
-      <c r="E140" s="31" t="s">
+      <c r="D140" s="39"/>
+      <c r="E140" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="33"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="36"/>
       <c r="J140" s="9">
         <f>SUM(J132:J139)</f>
         <v>0.27013888888888882</v>
       </c>
     </row>
     <row r="141" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="34">
+      <c r="D141" s="37">
         <v>45773</v>
       </c>
       <c r="E141" s="17" t="s">
@@ -4148,7 +4187,7 @@
       </c>
     </row>
     <row r="142" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="35"/>
+      <c r="D142" s="38"/>
       <c r="E142" s="17" t="s">
         <v>13</v>
       </c>
@@ -4169,7 +4208,7 @@
       </c>
     </row>
     <row r="143" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="35"/>
+      <c r="D143" s="38"/>
       <c r="E143" s="18" t="s">
         <v>17</v>
       </c>
@@ -4190,7 +4229,7 @@
       </c>
     </row>
     <row r="144" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="35"/>
+      <c r="D144" s="38"/>
       <c r="E144" s="18" t="s">
         <v>19</v>
       </c>
@@ -4211,7 +4250,7 @@
       </c>
     </row>
     <row r="145" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="35"/>
+      <c r="D145" s="38"/>
       <c r="E145" s="18" t="s">
         <v>51</v>
       </c>
@@ -4232,7 +4271,7 @@
       </c>
     </row>
     <row r="146" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="35"/>
+      <c r="D146" s="38"/>
       <c r="E146" s="18" t="s">
         <v>75</v>
       </c>
@@ -4253,7 +4292,7 @@
       </c>
     </row>
     <row r="147" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="35"/>
+      <c r="D147" s="38"/>
       <c r="E147" s="18" t="s">
         <v>76</v>
       </c>
@@ -4274,7 +4313,7 @@
       </c>
     </row>
     <row r="148" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="35"/>
+      <c r="D148" s="38"/>
       <c r="E148" s="18" t="s">
         <v>27</v>
       </c>
@@ -4295,21 +4334,21 @@
       </c>
     </row>
     <row r="149" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="36"/>
-      <c r="E149" s="31" t="s">
+      <c r="D149" s="39"/>
+      <c r="E149" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="33"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="36"/>
       <c r="J149" s="9">
         <f>SUM(J141:J148)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="150" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="34">
+      <c r="D150" s="37">
         <v>45774</v>
       </c>
       <c r="E150" s="11" t="s">
@@ -4332,7 +4371,7 @@
       </c>
     </row>
     <row r="151" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="35"/>
+      <c r="D151" s="38"/>
       <c r="E151" s="11" t="s">
         <v>13</v>
       </c>
@@ -4353,7 +4392,7 @@
       </c>
     </row>
     <row r="152" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="35"/>
+      <c r="D152" s="38"/>
       <c r="E152" s="12" t="s">
         <v>17</v>
       </c>
@@ -4374,7 +4413,7 @@
       </c>
     </row>
     <row r="153" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="35"/>
+      <c r="D153" s="38"/>
       <c r="E153" s="12" t="s">
         <v>52</v>
       </c>
@@ -4395,7 +4434,7 @@
       </c>
     </row>
     <row r="154" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="35"/>
+      <c r="D154" s="38"/>
       <c r="E154" s="12" t="s">
         <v>26</v>
       </c>
@@ -4416,7 +4455,7 @@
       </c>
     </row>
     <row r="155" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="35"/>
+      <c r="D155" s="38"/>
       <c r="E155" s="12" t="s">
         <v>27</v>
       </c>
@@ -4437,21 +4476,21 @@
       </c>
     </row>
     <row r="156" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="36"/>
-      <c r="E156" s="31" t="s">
+      <c r="D156" s="39"/>
+      <c r="E156" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="33"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="36"/>
       <c r="J156" s="10">
         <f>SUM(J150:J155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="34">
+      <c r="D157" s="37">
         <v>45775</v>
       </c>
       <c r="E157" s="11" t="s">
@@ -4474,7 +4513,7 @@
       </c>
     </row>
     <row r="158" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="35"/>
+      <c r="D158" s="38"/>
       <c r="E158" s="11" t="s">
         <v>13</v>
       </c>
@@ -4495,7 +4534,7 @@
       </c>
     </row>
     <row r="159" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="35"/>
+      <c r="D159" s="38"/>
       <c r="E159" s="12" t="s">
         <v>87</v>
       </c>
@@ -4516,7 +4555,7 @@
       </c>
     </row>
     <row r="160" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="35"/>
+      <c r="D160" s="38"/>
       <c r="E160" s="12" t="s">
         <v>88</v>
       </c>
@@ -4537,7 +4576,7 @@
       </c>
     </row>
     <row r="161" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="35"/>
+      <c r="D161" s="38"/>
       <c r="E161" s="12" t="s">
         <v>90</v>
       </c>
@@ -4558,7 +4597,7 @@
       </c>
     </row>
     <row r="162" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="35"/>
+      <c r="D162" s="38"/>
       <c r="E162" s="12" t="s">
         <v>27</v>
       </c>
@@ -4579,21 +4618,21 @@
       </c>
     </row>
     <row r="163" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="36"/>
-      <c r="E163" s="31" t="s">
+      <c r="D163" s="39"/>
+      <c r="E163" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
-      <c r="I163" s="33"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="36"/>
       <c r="J163" s="10">
         <f>SUM(J157:J162)</f>
         <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="164" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="34">
+      <c r="D164" s="37">
         <v>45776</v>
       </c>
       <c r="E164" s="11" t="s">
@@ -4616,7 +4655,7 @@
       </c>
     </row>
     <row r="165" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="35"/>
+      <c r="D165" s="38"/>
       <c r="E165" s="11" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +4676,7 @@
       </c>
     </row>
     <row r="166" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="35"/>
+      <c r="D166" s="38"/>
       <c r="E166" s="12" t="s">
         <v>87</v>
       </c>
@@ -4658,7 +4697,7 @@
       </c>
     </row>
     <row r="167" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="35"/>
+      <c r="D167" s="38"/>
       <c r="E167" s="12" t="s">
         <v>88</v>
       </c>
@@ -4679,7 +4718,7 @@
       </c>
     </row>
     <row r="168" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="35"/>
+      <c r="D168" s="38"/>
       <c r="E168" s="12" t="s">
         <v>90</v>
       </c>
@@ -4700,7 +4739,7 @@
       </c>
     </row>
     <row r="169" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="35"/>
+      <c r="D169" s="38"/>
       <c r="E169" s="12" t="s">
         <v>27</v>
       </c>
@@ -4721,21 +4760,21 @@
       </c>
     </row>
     <row r="170" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="36"/>
-      <c r="E170" s="31" t="s">
+      <c r="D170" s="39"/>
+      <c r="E170" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F170" s="32"/>
-      <c r="G170" s="32"/>
-      <c r="H170" s="32"/>
-      <c r="I170" s="33"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="36"/>
       <c r="J170" s="10">
         <f>SUM(J164:J169)</f>
         <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="171" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="34">
+      <c r="D171" s="37">
         <v>45777</v>
       </c>
       <c r="E171" s="11" t="s">
@@ -4758,7 +4797,7 @@
       </c>
     </row>
     <row r="172" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="35"/>
+      <c r="D172" s="38"/>
       <c r="E172" s="11" t="s">
         <v>13</v>
       </c>
@@ -4779,7 +4818,7 @@
       </c>
     </row>
     <row r="173" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="35"/>
+      <c r="D173" s="38"/>
       <c r="E173" s="12" t="s">
         <v>87</v>
       </c>
@@ -4800,7 +4839,7 @@
       </c>
     </row>
     <row r="174" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="35"/>
+      <c r="D174" s="38"/>
       <c r="E174" s="12" t="s">
         <v>88</v>
       </c>
@@ -4821,7 +4860,7 @@
       </c>
     </row>
     <row r="175" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="35"/>
+      <c r="D175" s="38"/>
       <c r="E175" s="12" t="s">
         <v>90</v>
       </c>
@@ -4842,7 +4881,7 @@
       </c>
     </row>
     <row r="176" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="35"/>
+      <c r="D176" s="38"/>
       <c r="E176" s="12" t="s">
         <v>27</v>
       </c>
@@ -4863,21 +4902,21 @@
       </c>
     </row>
     <row r="177" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="36"/>
-      <c r="E177" s="31" t="s">
+      <c r="D177" s="39"/>
+      <c r="E177" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F177" s="32"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="33"/>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="36"/>
       <c r="J177" s="9">
         <f>SUM(J171:J176)</f>
         <v>0.30902777777777779</v>
       </c>
     </row>
     <row r="178" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="34">
+      <c r="D178" s="37">
         <v>45778</v>
       </c>
       <c r="E178" s="20" t="s">
@@ -4900,7 +4939,7 @@
       </c>
     </row>
     <row r="179" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="35"/>
+      <c r="D179" s="38"/>
       <c r="E179" s="20" t="s">
         <v>13</v>
       </c>
@@ -4921,7 +4960,7 @@
       </c>
     </row>
     <row r="180" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="35"/>
+      <c r="D180" s="38"/>
       <c r="E180" s="21" t="s">
         <v>87</v>
       </c>
@@ -4942,7 +4981,7 @@
       </c>
     </row>
     <row r="181" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="35"/>
+      <c r="D181" s="38"/>
       <c r="E181" s="21" t="s">
         <v>88</v>
       </c>
@@ -4963,7 +5002,7 @@
       </c>
     </row>
     <row r="182" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="35"/>
+      <c r="D182" s="38"/>
       <c r="E182" s="21" t="s">
         <v>90</v>
       </c>
@@ -4984,7 +5023,7 @@
       </c>
     </row>
     <row r="183" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="35"/>
+      <c r="D183" s="38"/>
       <c r="E183" s="21" t="s">
         <v>27</v>
       </c>
@@ -5005,21 +5044,21 @@
       </c>
     </row>
     <row r="184" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="36"/>
-      <c r="E184" s="31" t="s">
+      <c r="D184" s="39"/>
+      <c r="E184" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F184" s="32"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="33"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="36"/>
       <c r="J184" s="9">
         <f>SUM(J178:J183)</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="185" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="34">
+      <c r="D185" s="37">
         <v>45779</v>
       </c>
       <c r="E185" s="20" t="s">
@@ -5042,7 +5081,7 @@
       </c>
     </row>
     <row r="186" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="35"/>
+      <c r="D186" s="38"/>
       <c r="E186" s="20" t="s">
         <v>13</v>
       </c>
@@ -5063,7 +5102,7 @@
       </c>
     </row>
     <row r="187" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="35"/>
+      <c r="D187" s="38"/>
       <c r="E187" s="21" t="s">
         <v>87</v>
       </c>
@@ -5084,7 +5123,7 @@
       </c>
     </row>
     <row r="188" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="35"/>
+      <c r="D188" s="38"/>
       <c r="E188" s="21" t="s">
         <v>88</v>
       </c>
@@ -5105,7 +5144,7 @@
       </c>
     </row>
     <row r="189" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="35"/>
+      <c r="D189" s="38"/>
       <c r="E189" s="21" t="s">
         <v>90</v>
       </c>
@@ -5126,7 +5165,7 @@
       </c>
     </row>
     <row r="190" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="35"/>
+      <c r="D190" s="38"/>
       <c r="E190" s="21" t="s">
         <v>27</v>
       </c>
@@ -5147,21 +5186,21 @@
       </c>
     </row>
     <row r="191" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="36"/>
-      <c r="E191" s="31" t="s">
+      <c r="D191" s="39"/>
+      <c r="E191" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="33"/>
+      <c r="F191" s="35"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="36"/>
       <c r="J191" s="9">
         <f>SUM(J185:J190)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="192" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="34">
+      <c r="D192" s="37">
         <v>45780</v>
       </c>
       <c r="E192" s="20" t="s">
@@ -5184,7 +5223,7 @@
       </c>
     </row>
     <row r="193" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="35"/>
+      <c r="D193" s="38"/>
       <c r="E193" s="20" t="s">
         <v>13</v>
       </c>
@@ -5205,7 +5244,7 @@
       </c>
     </row>
     <row r="194" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="35"/>
+      <c r="D194" s="38"/>
       <c r="E194" s="21" t="s">
         <v>87</v>
       </c>
@@ -5226,7 +5265,7 @@
       </c>
     </row>
     <row r="195" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="35"/>
+      <c r="D195" s="38"/>
       <c r="E195" s="21" t="s">
         <v>88</v>
       </c>
@@ -5247,7 +5286,7 @@
       </c>
     </row>
     <row r="196" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="35"/>
+      <c r="D196" s="38"/>
       <c r="E196" s="21" t="s">
         <v>90</v>
       </c>
@@ -5268,7 +5307,7 @@
       </c>
     </row>
     <row r="197" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="35"/>
+      <c r="D197" s="38"/>
       <c r="E197" s="21" t="s">
         <v>27</v>
       </c>
@@ -5289,21 +5328,21 @@
       </c>
     </row>
     <row r="198" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="36"/>
-      <c r="E198" s="31" t="s">
+      <c r="D198" s="39"/>
+      <c r="E198" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F198" s="32"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="32"/>
-      <c r="I198" s="33"/>
+      <c r="F198" s="35"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="35"/>
+      <c r="I198" s="36"/>
       <c r="J198" s="9">
         <f>SUM(J192:J197)</f>
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="199" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="34">
+      <c r="D199" s="37">
         <v>45781</v>
       </c>
       <c r="E199" s="11" t="s">
@@ -5326,7 +5365,7 @@
       </c>
     </row>
     <row r="200" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="35"/>
+      <c r="D200" s="38"/>
       <c r="E200" s="11" t="s">
         <v>13</v>
       </c>
@@ -5347,7 +5386,7 @@
       </c>
     </row>
     <row r="201" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="35"/>
+      <c r="D201" s="38"/>
       <c r="E201" s="21" t="s">
         <v>87</v>
       </c>
@@ -5368,7 +5407,7 @@
       </c>
     </row>
     <row r="202" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="35"/>
+      <c r="D202" s="38"/>
       <c r="E202" s="21" t="s">
         <v>88</v>
       </c>
@@ -5389,7 +5428,7 @@
       </c>
     </row>
     <row r="203" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="35"/>
+      <c r="D203" s="38"/>
       <c r="E203" s="12" t="s">
         <v>90</v>
       </c>
@@ -5410,7 +5449,7 @@
       </c>
     </row>
     <row r="204" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="35"/>
+      <c r="D204" s="38"/>
       <c r="E204" s="12" t="s">
         <v>27</v>
       </c>
@@ -5431,21 +5470,21 @@
       </c>
     </row>
     <row r="205" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="36"/>
-      <c r="E205" s="31" t="s">
+      <c r="D205" s="39"/>
+      <c r="E205" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F205" s="32"/>
-      <c r="G205" s="32"/>
-      <c r="H205" s="32"/>
-      <c r="I205" s="33"/>
+      <c r="F205" s="35"/>
+      <c r="G205" s="35"/>
+      <c r="H205" s="35"/>
+      <c r="I205" s="36"/>
       <c r="J205" s="10">
         <f>SUM(J199:J204)</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="34">
+      <c r="D206" s="37">
         <v>45782</v>
       </c>
       <c r="E206" s="24" t="s">
@@ -5468,7 +5507,7 @@
       </c>
     </row>
     <row r="207" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="35"/>
+      <c r="D207" s="38"/>
       <c r="E207" s="24" t="s">
         <v>13</v>
       </c>
@@ -5489,7 +5528,7 @@
       </c>
     </row>
     <row r="208" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="35"/>
+      <c r="D208" s="38"/>
       <c r="E208" s="25" t="s">
         <v>87</v>
       </c>
@@ -5510,7 +5549,7 @@
       </c>
     </row>
     <row r="209" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="35"/>
+      <c r="D209" s="38"/>
       <c r="E209" s="25" t="s">
         <v>88</v>
       </c>
@@ -5531,7 +5570,7 @@
       </c>
     </row>
     <row r="210" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="35"/>
+      <c r="D210" s="38"/>
       <c r="E210" s="24" t="s">
         <v>90</v>
       </c>
@@ -5552,7 +5591,7 @@
       </c>
     </row>
     <row r="211" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="35"/>
+      <c r="D211" s="38"/>
       <c r="E211" s="12" t="s">
         <v>27</v>
       </c>
@@ -5573,21 +5612,21 @@
       </c>
     </row>
     <row r="212" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="36"/>
-      <c r="E212" s="31" t="s">
+      <c r="D212" s="39"/>
+      <c r="E212" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F212" s="32"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="32"/>
-      <c r="I212" s="33"/>
+      <c r="F212" s="35"/>
+      <c r="G212" s="35"/>
+      <c r="H212" s="35"/>
+      <c r="I212" s="36"/>
       <c r="J212" s="10">
         <f>SUM(J206:J211)</f>
         <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="213" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="34">
+      <c r="D213" s="37">
         <v>45783</v>
       </c>
       <c r="E213" s="24" t="s">
@@ -5610,7 +5649,7 @@
       </c>
     </row>
     <row r="214" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="35"/>
+      <c r="D214" s="38"/>
       <c r="E214" s="24" t="s">
         <v>105</v>
       </c>
@@ -5631,7 +5670,7 @@
       </c>
     </row>
     <row r="215" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="35"/>
+      <c r="D215" s="38"/>
       <c r="E215" s="25" t="s">
         <v>108</v>
       </c>
@@ -5652,7 +5691,7 @@
       </c>
     </row>
     <row r="216" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="35"/>
+      <c r="D216" s="38"/>
       <c r="E216" s="25" t="s">
         <v>109</v>
       </c>
@@ -5673,7 +5712,7 @@
       </c>
     </row>
     <row r="217" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="35"/>
+      <c r="D217" s="38"/>
       <c r="E217" s="24" t="s">
         <v>112</v>
       </c>
@@ -5694,7 +5733,7 @@
       </c>
     </row>
     <row r="218" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="35"/>
+      <c r="D218" s="38"/>
       <c r="E218" s="12" t="s">
         <v>115</v>
       </c>
@@ -5715,21 +5754,21 @@
       </c>
     </row>
     <row r="219" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="36"/>
-      <c r="E219" s="31" t="s">
+      <c r="D219" s="39"/>
+      <c r="E219" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F219" s="32"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="33"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="35"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="36"/>
       <c r="J219" s="10">
         <f>SUM(J213:J218)</f>
         <v>0.36111111111111116</v>
       </c>
     </row>
     <row r="220" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="34">
+      <c r="D220" s="37">
         <v>45784</v>
       </c>
       <c r="E220" s="24" t="s">
@@ -5752,7 +5791,7 @@
       </c>
     </row>
     <row r="221" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="35"/>
+      <c r="D221" s="38"/>
       <c r="E221" s="24" t="s">
         <v>105</v>
       </c>
@@ -5773,7 +5812,7 @@
       </c>
     </row>
     <row r="222" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="35"/>
+      <c r="D222" s="38"/>
       <c r="E222" s="25" t="s">
         <v>108</v>
       </c>
@@ -5794,7 +5833,7 @@
       </c>
     </row>
     <row r="223" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="35"/>
+      <c r="D223" s="38"/>
       <c r="E223" s="25" t="s">
         <v>109</v>
       </c>
@@ -5815,7 +5854,7 @@
       </c>
     </row>
     <row r="224" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="35"/>
+      <c r="D224" s="38"/>
       <c r="E224" s="24" t="s">
         <v>112</v>
       </c>
@@ -5836,7 +5875,7 @@
       </c>
     </row>
     <row r="225" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="35"/>
+      <c r="D225" s="38"/>
       <c r="E225" s="12" t="s">
         <v>115</v>
       </c>
@@ -5857,21 +5896,21 @@
       </c>
     </row>
     <row r="226" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="36"/>
-      <c r="E226" s="31" t="s">
+      <c r="D226" s="39"/>
+      <c r="E226" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="32"/>
-      <c r="I226" s="33"/>
+      <c r="F226" s="35"/>
+      <c r="G226" s="35"/>
+      <c r="H226" s="35"/>
+      <c r="I226" s="36"/>
       <c r="J226" s="10">
         <f>SUM(J220:J225)</f>
         <v>0.38194444444444448</v>
       </c>
     </row>
     <row r="227" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="34">
+      <c r="D227" s="37">
         <v>45785</v>
       </c>
       <c r="E227" s="24" t="s">
@@ -5894,7 +5933,7 @@
       </c>
     </row>
     <row r="228" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="35"/>
+      <c r="D228" s="38"/>
       <c r="E228" s="24" t="s">
         <v>105</v>
       </c>
@@ -5915,7 +5954,7 @@
       </c>
     </row>
     <row r="229" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="35"/>
+      <c r="D229" s="38"/>
       <c r="E229" s="25" t="s">
         <v>108</v>
       </c>
@@ -5936,7 +5975,7 @@
       </c>
     </row>
     <row r="230" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="35"/>
+      <c r="D230" s="38"/>
       <c r="E230" s="25" t="s">
         <v>109</v>
       </c>
@@ -5957,7 +5996,7 @@
       </c>
     </row>
     <row r="231" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="35"/>
+      <c r="D231" s="38"/>
       <c r="E231" s="24" t="s">
         <v>112</v>
       </c>
@@ -5978,7 +6017,7 @@
       </c>
     </row>
     <row r="232" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="35"/>
+      <c r="D232" s="38"/>
       <c r="E232" s="12" t="s">
         <v>115</v>
       </c>
@@ -5999,21 +6038,21 @@
       </c>
     </row>
     <row r="233" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="36"/>
-      <c r="E233" s="31" t="s">
+      <c r="D233" s="39"/>
+      <c r="E233" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F233" s="32"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="32"/>
-      <c r="I233" s="33"/>
+      <c r="F233" s="35"/>
+      <c r="G233" s="35"/>
+      <c r="H233" s="35"/>
+      <c r="I233" s="36"/>
       <c r="J233" s="10">
         <f>SUM(J227:J232)</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="234" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="34">
+      <c r="D234" s="37">
         <v>45786</v>
       </c>
       <c r="E234" s="24" t="s">
@@ -6036,7 +6075,7 @@
       </c>
     </row>
     <row r="235" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="35"/>
+      <c r="D235" s="38"/>
       <c r="E235" s="24" t="s">
         <v>105</v>
       </c>
@@ -6057,7 +6096,7 @@
       </c>
     </row>
     <row r="236" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="35"/>
+      <c r="D236" s="38"/>
       <c r="E236" s="25" t="s">
         <v>108</v>
       </c>
@@ -6078,7 +6117,7 @@
       </c>
     </row>
     <row r="237" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="35"/>
+      <c r="D237" s="38"/>
       <c r="E237" s="25" t="s">
         <v>109</v>
       </c>
@@ -6099,7 +6138,7 @@
       </c>
     </row>
     <row r="238" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="35"/>
+      <c r="D238" s="38"/>
       <c r="E238" s="24" t="s">
         <v>112</v>
       </c>
@@ -6120,7 +6159,7 @@
       </c>
     </row>
     <row r="239" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="35"/>
+      <c r="D239" s="38"/>
       <c r="E239" s="12" t="s">
         <v>115</v>
       </c>
@@ -6141,21 +6180,21 @@
       </c>
     </row>
     <row r="240" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="36"/>
-      <c r="E240" s="31" t="s">
+      <c r="D240" s="39"/>
+      <c r="E240" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="32"/>
-      <c r="I240" s="33"/>
+      <c r="F240" s="35"/>
+      <c r="G240" s="35"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="36"/>
       <c r="J240" s="10">
         <f>SUM(J234:J239)</f>
         <v>0.24305555555555558</v>
       </c>
     </row>
     <row r="241" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="34">
+      <c r="D241" s="37">
         <v>45787</v>
       </c>
       <c r="E241" s="24" t="s">
@@ -6178,7 +6217,7 @@
       </c>
     </row>
     <row r="242" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="35"/>
+      <c r="D242" s="38"/>
       <c r="E242" s="24" t="s">
         <v>105</v>
       </c>
@@ -6199,7 +6238,7 @@
       </c>
     </row>
     <row r="243" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="35"/>
+      <c r="D243" s="38"/>
       <c r="E243" s="25" t="s">
         <v>108</v>
       </c>
@@ -6220,7 +6259,7 @@
       </c>
     </row>
     <row r="244" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="35"/>
+      <c r="D244" s="38"/>
       <c r="E244" s="25" t="s">
         <v>109</v>
       </c>
@@ -6241,7 +6280,7 @@
       </c>
     </row>
     <row r="245" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="35"/>
+      <c r="D245" s="38"/>
       <c r="E245" s="24" t="s">
         <v>112</v>
       </c>
@@ -6262,7 +6301,7 @@
       </c>
     </row>
     <row r="246" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="35"/>
+      <c r="D246" s="38"/>
       <c r="E246" s="12" t="s">
         <v>115</v>
       </c>
@@ -6283,21 +6322,21 @@
       </c>
     </row>
     <row r="247" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="36"/>
-      <c r="E247" s="31" t="s">
+      <c r="D247" s="39"/>
+      <c r="E247" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F247" s="32"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="32"/>
-      <c r="I247" s="33"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="36"/>
       <c r="J247" s="10">
         <f>SUM(J241:J246)</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="248" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="34">
+      <c r="D248" s="37">
         <v>45788</v>
       </c>
       <c r="E248" s="24" t="s">
@@ -6320,7 +6359,7 @@
       </c>
     </row>
     <row r="249" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="35"/>
+      <c r="D249" s="38"/>
       <c r="E249" s="24" t="s">
         <v>105</v>
       </c>
@@ -6341,7 +6380,7 @@
       </c>
     </row>
     <row r="250" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="35"/>
+      <c r="D250" s="38"/>
       <c r="E250" s="25" t="s">
         <v>108</v>
       </c>
@@ -6362,7 +6401,7 @@
       </c>
     </row>
     <row r="251" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="35"/>
+      <c r="D251" s="38"/>
       <c r="E251" s="25" t="s">
         <v>109</v>
       </c>
@@ -6383,7 +6422,7 @@
       </c>
     </row>
     <row r="252" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="35"/>
+      <c r="D252" s="38"/>
       <c r="E252" s="24" t="s">
         <v>112</v>
       </c>
@@ -6404,7 +6443,7 @@
       </c>
     </row>
     <row r="253" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="35"/>
+      <c r="D253" s="38"/>
       <c r="E253" s="12" t="s">
         <v>115</v>
       </c>
@@ -6425,21 +6464,21 @@
       </c>
     </row>
     <row r="254" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="36"/>
-      <c r="E254" s="31" t="s">
+      <c r="D254" s="39"/>
+      <c r="E254" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F254" s="32"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="32"/>
-      <c r="I254" s="33"/>
+      <c r="F254" s="35"/>
+      <c r="G254" s="35"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="36"/>
       <c r="J254" s="10">
         <f>SUM(J248:J253)</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="34">
+      <c r="D255" s="37">
         <v>45789</v>
       </c>
       <c r="E255" s="24" t="s">
@@ -6462,7 +6501,7 @@
       </c>
     </row>
     <row r="256" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="35"/>
+      <c r="D256" s="38"/>
       <c r="E256" s="24" t="s">
         <v>105</v>
       </c>
@@ -6483,7 +6522,7 @@
       </c>
     </row>
     <row r="257" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="35"/>
+      <c r="D257" s="38"/>
       <c r="E257" s="25" t="s">
         <v>108</v>
       </c>
@@ -6504,7 +6543,7 @@
       </c>
     </row>
     <row r="258" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="35"/>
+      <c r="D258" s="38"/>
       <c r="E258" s="25" t="s">
         <v>109</v>
       </c>
@@ -6525,7 +6564,7 @@
       </c>
     </row>
     <row r="259" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="35"/>
+      <c r="D259" s="38"/>
       <c r="E259" s="24" t="s">
         <v>112</v>
       </c>
@@ -6546,7 +6585,7 @@
       </c>
     </row>
     <row r="260" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="35"/>
+      <c r="D260" s="38"/>
       <c r="E260" s="7" t="s">
         <v>25</v>
       </c>
@@ -6567,21 +6606,21 @@
       </c>
     </row>
     <row r="261" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="36"/>
-      <c r="E261" s="31" t="s">
+      <c r="D261" s="39"/>
+      <c r="E261" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F261" s="32"/>
-      <c r="G261" s="32"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="33"/>
+      <c r="F261" s="35"/>
+      <c r="G261" s="35"/>
+      <c r="H261" s="35"/>
+      <c r="I261" s="36"/>
       <c r="J261" s="10">
         <f>SUM(J255:J260)</f>
         <v>0.36111111111111105</v>
       </c>
     </row>
     <row r="262" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="34">
+      <c r="D262" s="37">
         <v>45790</v>
       </c>
       <c r="E262" s="24" t="s">
@@ -6604,7 +6643,7 @@
       </c>
     </row>
     <row r="263" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="35"/>
+      <c r="D263" s="38"/>
       <c r="E263" s="24" t="s">
         <v>105</v>
       </c>
@@ -6625,7 +6664,7 @@
       </c>
     </row>
     <row r="264" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="35"/>
+      <c r="D264" s="38"/>
       <c r="E264" s="25" t="s">
         <v>108</v>
       </c>
@@ -6646,7 +6685,7 @@
       </c>
     </row>
     <row r="265" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="35"/>
+      <c r="D265" s="38"/>
       <c r="E265" s="25" t="s">
         <v>109</v>
       </c>
@@ -6667,7 +6706,7 @@
       </c>
     </row>
     <row r="266" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="35"/>
+      <c r="D266" s="38"/>
       <c r="E266" s="24" t="s">
         <v>112</v>
       </c>
@@ -6688,7 +6727,7 @@
       </c>
     </row>
     <row r="267" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="35"/>
+      <c r="D267" s="38"/>
       <c r="E267" s="12" t="s">
         <v>115</v>
       </c>
@@ -6709,21 +6748,21 @@
       </c>
     </row>
     <row r="268" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="36"/>
-      <c r="E268" s="31" t="s">
+      <c r="D268" s="39"/>
+      <c r="E268" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F268" s="32"/>
-      <c r="G268" s="32"/>
-      <c r="H268" s="32"/>
-      <c r="I268" s="33"/>
+      <c r="F268" s="35"/>
+      <c r="G268" s="35"/>
+      <c r="H268" s="35"/>
+      <c r="I268" s="36"/>
       <c r="J268" s="10">
         <f>SUM(J262:J267)</f>
         <v>0.13194444444444445</v>
       </c>
     </row>
     <row r="269" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="34">
+      <c r="D269" s="37">
         <v>45791</v>
       </c>
       <c r="E269" s="24" t="s">
@@ -6747,7 +6786,7 @@
       </c>
     </row>
     <row r="270" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="35"/>
+      <c r="D270" s="38"/>
       <c r="E270" s="24" t="s">
         <v>105</v>
       </c>
@@ -6769,7 +6808,7 @@
       </c>
     </row>
     <row r="271" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="35"/>
+      <c r="D271" s="38"/>
       <c r="E271" s="25" t="s">
         <v>108</v>
       </c>
@@ -6791,7 +6830,7 @@
       </c>
     </row>
     <row r="272" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="35"/>
+      <c r="D272" s="38"/>
       <c r="E272" s="25" t="s">
         <v>109</v>
       </c>
@@ -6813,7 +6852,7 @@
       </c>
     </row>
     <row r="273" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="35"/>
+      <c r="D273" s="38"/>
       <c r="E273" s="24" t="s">
         <v>112</v>
       </c>
@@ -6835,7 +6874,7 @@
       </c>
     </row>
     <row r="274" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="35"/>
+      <c r="D274" s="38"/>
       <c r="E274" s="12" t="s">
         <v>115</v>
       </c>
@@ -6857,21 +6896,21 @@
       </c>
     </row>
     <row r="275" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="36"/>
-      <c r="E275" s="31" t="s">
+      <c r="D275" s="39"/>
+      <c r="E275" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F275" s="32"/>
-      <c r="G275" s="32"/>
-      <c r="H275" s="32"/>
-      <c r="I275" s="33"/>
+      <c r="F275" s="35"/>
+      <c r="G275" s="35"/>
+      <c r="H275" s="35"/>
+      <c r="I275" s="36"/>
       <c r="J275" s="10" t="str">
         <f t="array" ref="J275">TEXT(SUMPRODUCT(--(J269:J274)), "h:mm")</f>
         <v>10:40</v>
       </c>
     </row>
     <row r="276" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="34">
+      <c r="D276" s="37">
         <v>45792</v>
       </c>
       <c r="E276" s="24" t="s">
@@ -6895,7 +6934,7 @@
       </c>
     </row>
     <row r="277" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="35"/>
+      <c r="D277" s="38"/>
       <c r="E277" s="24" t="s">
         <v>105</v>
       </c>
@@ -6917,7 +6956,7 @@
       </c>
     </row>
     <row r="278" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="35"/>
+      <c r="D278" s="38"/>
       <c r="E278" s="25" t="s">
         <v>108</v>
       </c>
@@ -6939,7 +6978,7 @@
       </c>
     </row>
     <row r="279" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="35"/>
+      <c r="D279" s="38"/>
       <c r="E279" s="25" t="s">
         <v>109</v>
       </c>
@@ -6961,7 +7000,7 @@
       </c>
     </row>
     <row r="280" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="35"/>
+      <c r="D280" s="38"/>
       <c r="E280" s="24" t="s">
         <v>112</v>
       </c>
@@ -6983,7 +7022,7 @@
       </c>
     </row>
     <row r="281" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="35"/>
+      <c r="D281" s="38"/>
       <c r="E281" s="12" t="s">
         <v>115</v>
       </c>
@@ -7005,155 +7044,215 @@
       </c>
     </row>
     <row r="282" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="36"/>
-      <c r="E282" s="31" t="s">
+      <c r="D282" s="39"/>
+      <c r="E282" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F282" s="32"/>
-      <c r="G282" s="32"/>
-      <c r="H282" s="32"/>
-      <c r="I282" s="33"/>
+      <c r="F282" s="35"/>
+      <c r="G282" s="35"/>
+      <c r="H282" s="35"/>
+      <c r="I282" s="36"/>
       <c r="J282" s="10" t="str">
         <f t="array" ref="J282">TEXT(SUMPRODUCT(--(J276:J281)), "h:mm")</f>
         <v>9:40</v>
       </c>
     </row>
     <row r="283" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="34">
+      <c r="D283" s="37">
         <v>45793</v>
       </c>
       <c r="E283" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
+      <c r="F283" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H283" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>145</v>
+      </c>
       <c r="J283" s="6" t="str">
         <f t="shared" ref="J283:J288" si="2">IF(F283="P", TEXT(TIMEVALUE(RIGHT(E283,5)) - TIMEVALUE(LEFT(E283,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
+        <v>1:30</v>
       </c>
     </row>
     <row r="284" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="35"/>
+      <c r="D284" s="38"/>
       <c r="E284" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-      <c r="I284" s="6"/>
+      <c r="F284" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H284" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I284" s="29" t="s">
+        <v>150</v>
+      </c>
       <c r="J284" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="285" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="35"/>
+      <c r="D285" s="38"/>
       <c r="E285" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-      <c r="I285" s="6"/>
+      <c r="F285" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G285" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H285" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I285" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J285" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="286" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="35"/>
+      <c r="D286" s="38"/>
       <c r="E286" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-      <c r="I286" s="6"/>
+      <c r="F286" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I286" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="J286" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="287" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="35"/>
+      <c r="D287" s="38"/>
       <c r="E287" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
-      <c r="H287" s="6"/>
-      <c r="I287" s="6"/>
+      <c r="F287" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G287" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H287" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I287" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J287" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="288" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="35"/>
+      <c r="D288" s="38"/>
       <c r="E288" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F288" s="6"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="6"/>
-      <c r="I288" s="6"/>
+      <c r="F288" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G288" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H288" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I288" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J288" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="289" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="36"/>
-      <c r="E289" s="31" t="s">
+      <c r="D289" s="39"/>
+      <c r="E289" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F289" s="32"/>
-      <c r="G289" s="32"/>
-      <c r="H289" s="32"/>
-      <c r="I289" s="33"/>
+      <c r="F289" s="35"/>
+      <c r="G289" s="35"/>
+      <c r="H289" s="35"/>
+      <c r="I289" s="36"/>
       <c r="J289" s="10" t="str">
         <f t="array" ref="J289">TEXT(SUMPRODUCT(--(J283:J288)), "h:mm")</f>
-        <v>0:00</v>
+        <v>6:40</v>
       </c>
     </row>
     <row r="290" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="34">
+      <c r="D290" s="37">
         <v>45794</v>
       </c>
       <c r="E290" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F290" s="6"/>
-      <c r="G290" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H290" s="6"/>
-      <c r="I290" s="6"/>
+      <c r="F290" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G290" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H290" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I290" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J290" s="6" t="str">
         <f t="shared" ref="J290:J295" si="3">IF(F290="P", TEXT(TIMEVALUE(RIGHT(E290,5)) - TIMEVALUE(LEFT(E290,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="291" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="35"/>
+      <c r="D291" s="38"/>
       <c r="E291" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H291" s="6"/>
-      <c r="I291" s="6"/>
+      <c r="F291" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H291" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I291" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="J291" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="292" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="35"/>
+      <c r="D292" s="38"/>
       <c r="E292" s="25" t="s">
         <v>108</v>
       </c>
@@ -7169,7 +7268,7 @@
       </c>
     </row>
     <row r="293" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="35"/>
+      <c r="D293" s="38"/>
       <c r="E293" s="25" t="s">
         <v>109</v>
       </c>
@@ -7185,7 +7284,7 @@
       </c>
     </row>
     <row r="294" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="35"/>
+      <c r="D294" s="38"/>
       <c r="E294" s="24" t="s">
         <v>112</v>
       </c>
@@ -7201,7 +7300,7 @@
       </c>
     </row>
     <row r="295" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="35"/>
+      <c r="D295" s="38"/>
       <c r="E295" s="12" t="s">
         <v>115</v>
       </c>
@@ -7215,21 +7314,21 @@
       </c>
     </row>
     <row r="296" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="36"/>
-      <c r="E296" s="31" t="s">
+      <c r="D296" s="39"/>
+      <c r="E296" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F296" s="32"/>
-      <c r="G296" s="32"/>
-      <c r="H296" s="32"/>
-      <c r="I296" s="33"/>
+      <c r="F296" s="35"/>
+      <c r="G296" s="35"/>
+      <c r="H296" s="35"/>
+      <c r="I296" s="36"/>
       <c r="J296" s="10" t="str">
         <f t="array" ref="J296">TEXT(SUMPRODUCT(--(J290:J295)), "h:mm")</f>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="297" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="34">
+      <c r="D297" s="37">
         <v>45795</v>
       </c>
       <c r="E297" s="24" t="s">
@@ -7247,7 +7346,7 @@
       </c>
     </row>
     <row r="298" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="35"/>
+      <c r="D298" s="38"/>
       <c r="E298" s="24" t="s">
         <v>105</v>
       </c>
@@ -7263,7 +7362,7 @@
       </c>
     </row>
     <row r="299" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="35"/>
+      <c r="D299" s="38"/>
       <c r="E299" s="25" t="s">
         <v>108</v>
       </c>
@@ -7279,7 +7378,7 @@
       </c>
     </row>
     <row r="300" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="35"/>
+      <c r="D300" s="38"/>
       <c r="E300" s="25" t="s">
         <v>109</v>
       </c>
@@ -7295,7 +7394,7 @@
       </c>
     </row>
     <row r="301" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="35"/>
+      <c r="D301" s="38"/>
       <c r="E301" s="24" t="s">
         <v>112</v>
       </c>
@@ -7311,7 +7410,7 @@
       </c>
     </row>
     <row r="302" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="35"/>
+      <c r="D302" s="38"/>
       <c r="E302" s="12" t="s">
         <v>115</v>
       </c>
@@ -7325,21 +7424,21 @@
       </c>
     </row>
     <row r="303" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="36"/>
-      <c r="E303" s="31" t="s">
+      <c r="D303" s="39"/>
+      <c r="E303" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F303" s="32"/>
-      <c r="G303" s="32"/>
-      <c r="H303" s="32"/>
-      <c r="I303" s="33"/>
+      <c r="F303" s="35"/>
+      <c r="G303" s="35"/>
+      <c r="H303" s="35"/>
+      <c r="I303" s="36"/>
       <c r="J303" s="10" t="str">
         <f t="array" ref="J303">TEXT(SUMPRODUCT(--(J297:J302)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="304" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="34">
+      <c r="D304" s="37">
         <v>45796</v>
       </c>
       <c r="E304" s="24" t="s">
@@ -7357,7 +7456,7 @@
       </c>
     </row>
     <row r="305" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="35"/>
+      <c r="D305" s="38"/>
       <c r="E305" s="24" t="s">
         <v>105</v>
       </c>
@@ -7373,7 +7472,7 @@
       </c>
     </row>
     <row r="306" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="35"/>
+      <c r="D306" s="38"/>
       <c r="E306" s="25" t="s">
         <v>108</v>
       </c>
@@ -7389,7 +7488,7 @@
       </c>
     </row>
     <row r="307" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="35"/>
+      <c r="D307" s="38"/>
       <c r="E307" s="25" t="s">
         <v>109</v>
       </c>
@@ -7405,7 +7504,7 @@
       </c>
     </row>
     <row r="308" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="35"/>
+      <c r="D308" s="38"/>
       <c r="E308" s="24" t="s">
         <v>112</v>
       </c>
@@ -7421,7 +7520,7 @@
       </c>
     </row>
     <row r="309" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="35"/>
+      <c r="D309" s="38"/>
       <c r="E309" s="12" t="s">
         <v>115</v>
       </c>
@@ -7435,21 +7534,21 @@
       </c>
     </row>
     <row r="310" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="36"/>
-      <c r="E310" s="31" t="s">
+      <c r="D310" s="39"/>
+      <c r="E310" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F310" s="32"/>
-      <c r="G310" s="32"/>
-      <c r="H310" s="32"/>
-      <c r="I310" s="33"/>
+      <c r="F310" s="35"/>
+      <c r="G310" s="35"/>
+      <c r="H310" s="35"/>
+      <c r="I310" s="36"/>
       <c r="J310" s="10" t="str">
         <f t="array" ref="J310">TEXT(SUMPRODUCT(--(J304:J309)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="311" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="34">
+      <c r="D311" s="37">
         <v>45797</v>
       </c>
       <c r="E311" s="24" t="s">
@@ -7467,7 +7566,7 @@
       </c>
     </row>
     <row r="312" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="35"/>
+      <c r="D312" s="38"/>
       <c r="E312" s="24" t="s">
         <v>105</v>
       </c>
@@ -7483,7 +7582,7 @@
       </c>
     </row>
     <row r="313" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="35"/>
+      <c r="D313" s="38"/>
       <c r="E313" s="25" t="s">
         <v>108</v>
       </c>
@@ -7499,7 +7598,7 @@
       </c>
     </row>
     <row r="314" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="35"/>
+      <c r="D314" s="38"/>
       <c r="E314" s="25" t="s">
         <v>109</v>
       </c>
@@ -7515,7 +7614,7 @@
       </c>
     </row>
     <row r="315" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="35"/>
+      <c r="D315" s="38"/>
       <c r="E315" s="24" t="s">
         <v>112</v>
       </c>
@@ -7531,7 +7630,7 @@
       </c>
     </row>
     <row r="316" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="35"/>
+      <c r="D316" s="38"/>
       <c r="E316" s="12" t="s">
         <v>115</v>
       </c>
@@ -7545,21 +7644,21 @@
       </c>
     </row>
     <row r="317" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="36"/>
-      <c r="E317" s="31" t="s">
+      <c r="D317" s="39"/>
+      <c r="E317" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F317" s="32"/>
-      <c r="G317" s="32"/>
-      <c r="H317" s="32"/>
-      <c r="I317" s="33"/>
+      <c r="F317" s="35"/>
+      <c r="G317" s="35"/>
+      <c r="H317" s="35"/>
+      <c r="I317" s="36"/>
       <c r="J317" s="10" t="str">
         <f t="array" ref="J317">TEXT(SUMPRODUCT(--(J311:J316)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="318" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="34">
+      <c r="D318" s="37">
         <v>45798</v>
       </c>
       <c r="E318" s="24" t="s">
@@ -7577,7 +7676,7 @@
       </c>
     </row>
     <row r="319" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="35"/>
+      <c r="D319" s="38"/>
       <c r="E319" s="24" t="s">
         <v>105</v>
       </c>
@@ -7593,7 +7692,7 @@
       </c>
     </row>
     <row r="320" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="35"/>
+      <c r="D320" s="38"/>
       <c r="E320" s="25" t="s">
         <v>108</v>
       </c>
@@ -7609,7 +7708,7 @@
       </c>
     </row>
     <row r="321" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="35"/>
+      <c r="D321" s="38"/>
       <c r="E321" s="25" t="s">
         <v>109</v>
       </c>
@@ -7625,7 +7724,7 @@
       </c>
     </row>
     <row r="322" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="35"/>
+      <c r="D322" s="38"/>
       <c r="E322" s="24" t="s">
         <v>112</v>
       </c>
@@ -7641,7 +7740,7 @@
       </c>
     </row>
     <row r="323" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="35"/>
+      <c r="D323" s="38"/>
       <c r="E323" s="12" t="s">
         <v>115</v>
       </c>
@@ -7655,21 +7754,21 @@
       </c>
     </row>
     <row r="324" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="36"/>
-      <c r="E324" s="31" t="s">
+      <c r="D324" s="39"/>
+      <c r="E324" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F324" s="32"/>
-      <c r="G324" s="32"/>
-      <c r="H324" s="32"/>
-      <c r="I324" s="33"/>
+      <c r="F324" s="35"/>
+      <c r="G324" s="35"/>
+      <c r="H324" s="35"/>
+      <c r="I324" s="36"/>
       <c r="J324" s="10" t="str">
         <f t="array" ref="J324">TEXT(SUMPRODUCT(--(J318:J323)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="325" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="34">
+      <c r="D325" s="37">
         <v>45799</v>
       </c>
       <c r="E325" s="24" t="s">
@@ -7687,7 +7786,7 @@
       </c>
     </row>
     <row r="326" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="35"/>
+      <c r="D326" s="38"/>
       <c r="E326" s="24" t="s">
         <v>105</v>
       </c>
@@ -7703,7 +7802,7 @@
       </c>
     </row>
     <row r="327" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="35"/>
+      <c r="D327" s="38"/>
       <c r="E327" s="25" t="s">
         <v>108</v>
       </c>
@@ -7719,7 +7818,7 @@
       </c>
     </row>
     <row r="328" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="35"/>
+      <c r="D328" s="38"/>
       <c r="E328" s="25" t="s">
         <v>109</v>
       </c>
@@ -7735,7 +7834,7 @@
       </c>
     </row>
     <row r="329" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="35"/>
+      <c r="D329" s="38"/>
       <c r="E329" s="24" t="s">
         <v>112</v>
       </c>
@@ -7751,7 +7850,7 @@
       </c>
     </row>
     <row r="330" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="35"/>
+      <c r="D330" s="38"/>
       <c r="E330" s="12" t="s">
         <v>115</v>
       </c>
@@ -7765,21 +7864,21 @@
       </c>
     </row>
     <row r="331" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="36"/>
-      <c r="E331" s="31" t="s">
+      <c r="D331" s="39"/>
+      <c r="E331" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F331" s="32"/>
-      <c r="G331" s="32"/>
-      <c r="H331" s="32"/>
-      <c r="I331" s="33"/>
+      <c r="F331" s="35"/>
+      <c r="G331" s="35"/>
+      <c r="H331" s="35"/>
+      <c r="I331" s="36"/>
       <c r="J331" s="10" t="str">
         <f t="array" ref="J331">TEXT(SUMPRODUCT(--(J325:J330)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="332" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="34">
+      <c r="D332" s="37">
         <v>45800</v>
       </c>
       <c r="E332" s="24" t="s">
@@ -7797,7 +7896,7 @@
       </c>
     </row>
     <row r="333" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="35"/>
+      <c r="D333" s="38"/>
       <c r="E333" s="24" t="s">
         <v>105</v>
       </c>
@@ -7813,7 +7912,7 @@
       </c>
     </row>
     <row r="334" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="35"/>
+      <c r="D334" s="38"/>
       <c r="E334" s="25" t="s">
         <v>108</v>
       </c>
@@ -7829,7 +7928,7 @@
       </c>
     </row>
     <row r="335" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="35"/>
+      <c r="D335" s="38"/>
       <c r="E335" s="25" t="s">
         <v>109</v>
       </c>
@@ -7845,7 +7944,7 @@
       </c>
     </row>
     <row r="336" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="35"/>
+      <c r="D336" s="38"/>
       <c r="E336" s="24" t="s">
         <v>112</v>
       </c>
@@ -7861,7 +7960,7 @@
       </c>
     </row>
     <row r="337" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="35"/>
+      <c r="D337" s="38"/>
       <c r="E337" s="12" t="s">
         <v>115</v>
       </c>
@@ -7875,21 +7974,21 @@
       </c>
     </row>
     <row r="338" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="36"/>
-      <c r="E338" s="31" t="s">
+      <c r="D338" s="39"/>
+      <c r="E338" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F338" s="32"/>
-      <c r="G338" s="32"/>
-      <c r="H338" s="32"/>
-      <c r="I338" s="33"/>
+      <c r="F338" s="35"/>
+      <c r="G338" s="35"/>
+      <c r="H338" s="35"/>
+      <c r="I338" s="36"/>
       <c r="J338" s="10" t="str">
         <f t="array" ref="J338">TEXT(SUMPRODUCT(--(J332:J337)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="339" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="34">
+      <c r="D339" s="37">
         <v>45801</v>
       </c>
       <c r="E339" s="24" t="s">
@@ -7907,7 +8006,7 @@
       </c>
     </row>
     <row r="340" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="35"/>
+      <c r="D340" s="38"/>
       <c r="E340" s="24" t="s">
         <v>105</v>
       </c>
@@ -7923,7 +8022,7 @@
       </c>
     </row>
     <row r="341" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="35"/>
+      <c r="D341" s="38"/>
       <c r="E341" s="25" t="s">
         <v>108</v>
       </c>
@@ -7939,7 +8038,7 @@
       </c>
     </row>
     <row r="342" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="35"/>
+      <c r="D342" s="38"/>
       <c r="E342" s="25" t="s">
         <v>109</v>
       </c>
@@ -7955,7 +8054,7 @@
       </c>
     </row>
     <row r="343" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="35"/>
+      <c r="D343" s="38"/>
       <c r="E343" s="24" t="s">
         <v>112</v>
       </c>
@@ -7971,7 +8070,7 @@
       </c>
     </row>
     <row r="344" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="35"/>
+      <c r="D344" s="38"/>
       <c r="E344" s="12" t="s">
         <v>115</v>
       </c>
@@ -7985,21 +8084,21 @@
       </c>
     </row>
     <row r="345" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="36"/>
-      <c r="E345" s="31" t="s">
+      <c r="D345" s="39"/>
+      <c r="E345" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F345" s="32"/>
-      <c r="G345" s="32"/>
-      <c r="H345" s="32"/>
-      <c r="I345" s="33"/>
+      <c r="F345" s="35"/>
+      <c r="G345" s="35"/>
+      <c r="H345" s="35"/>
+      <c r="I345" s="36"/>
       <c r="J345" s="10" t="str">
         <f t="array" ref="J345">TEXT(SUMPRODUCT(--(J339:J344)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="346" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="34">
+      <c r="D346" s="37">
         <v>45802</v>
       </c>
       <c r="E346" s="24" t="s">
@@ -8017,7 +8116,7 @@
       </c>
     </row>
     <row r="347" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="35"/>
+      <c r="D347" s="38"/>
       <c r="E347" s="24" t="s">
         <v>105</v>
       </c>
@@ -8033,7 +8132,7 @@
       </c>
     </row>
     <row r="348" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="35"/>
+      <c r="D348" s="38"/>
       <c r="E348" s="25" t="s">
         <v>108</v>
       </c>
@@ -8049,7 +8148,7 @@
       </c>
     </row>
     <row r="349" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="35"/>
+      <c r="D349" s="38"/>
       <c r="E349" s="25" t="s">
         <v>109</v>
       </c>
@@ -8065,7 +8164,7 @@
       </c>
     </row>
     <row r="350" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="35"/>
+      <c r="D350" s="38"/>
       <c r="E350" s="24" t="s">
         <v>112</v>
       </c>
@@ -8081,7 +8180,7 @@
       </c>
     </row>
     <row r="351" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="35"/>
+      <c r="D351" s="38"/>
       <c r="E351" s="12" t="s">
         <v>115</v>
       </c>
@@ -8095,21 +8194,21 @@
       </c>
     </row>
     <row r="352" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" s="36"/>
-      <c r="E352" s="31" t="s">
+      <c r="D352" s="39"/>
+      <c r="E352" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F352" s="32"/>
-      <c r="G352" s="32"/>
-      <c r="H352" s="32"/>
-      <c r="I352" s="33"/>
+      <c r="F352" s="35"/>
+      <c r="G352" s="35"/>
+      <c r="H352" s="35"/>
+      <c r="I352" s="36"/>
       <c r="J352" s="10" t="str">
         <f t="array" ref="J352">TEXT(SUMPRODUCT(--(J346:J351)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="353" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" s="34">
+      <c r="D353" s="37">
         <v>45803</v>
       </c>
       <c r="E353" s="24" t="s">
@@ -8127,7 +8226,7 @@
       </c>
     </row>
     <row r="354" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="35"/>
+      <c r="D354" s="38"/>
       <c r="E354" s="24" t="s">
         <v>105</v>
       </c>
@@ -8143,7 +8242,7 @@
       </c>
     </row>
     <row r="355" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="35"/>
+      <c r="D355" s="38"/>
       <c r="E355" s="25" t="s">
         <v>108</v>
       </c>
@@ -8159,7 +8258,7 @@
       </c>
     </row>
     <row r="356" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="35"/>
+      <c r="D356" s="38"/>
       <c r="E356" s="25" t="s">
         <v>109</v>
       </c>
@@ -8175,7 +8274,7 @@
       </c>
     </row>
     <row r="357" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" s="35"/>
+      <c r="D357" s="38"/>
       <c r="E357" s="24" t="s">
         <v>112</v>
       </c>
@@ -8191,7 +8290,7 @@
       </c>
     </row>
     <row r="358" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" s="35"/>
+      <c r="D358" s="38"/>
       <c r="E358" s="12" t="s">
         <v>115</v>
       </c>
@@ -8205,21 +8304,21 @@
       </c>
     </row>
     <row r="359" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="36"/>
-      <c r="E359" s="31" t="s">
+      <c r="D359" s="39"/>
+      <c r="E359" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F359" s="32"/>
-      <c r="G359" s="32"/>
-      <c r="H359" s="32"/>
-      <c r="I359" s="33"/>
+      <c r="F359" s="35"/>
+      <c r="G359" s="35"/>
+      <c r="H359" s="35"/>
+      <c r="I359" s="36"/>
       <c r="J359" s="10" t="str">
         <f t="array" ref="J359">TEXT(SUMPRODUCT(--(J353:J358)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="360" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="34">
+      <c r="D360" s="37">
         <v>45804</v>
       </c>
       <c r="E360" s="24" t="s">
@@ -8237,7 +8336,7 @@
       </c>
     </row>
     <row r="361" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="35"/>
+      <c r="D361" s="38"/>
       <c r="E361" s="24" t="s">
         <v>105</v>
       </c>
@@ -8253,7 +8352,7 @@
       </c>
     </row>
     <row r="362" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" s="35"/>
+      <c r="D362" s="38"/>
       <c r="E362" s="25" t="s">
         <v>108</v>
       </c>
@@ -8269,7 +8368,7 @@
       </c>
     </row>
     <row r="363" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D363" s="35"/>
+      <c r="D363" s="38"/>
       <c r="E363" s="25" t="s">
         <v>109</v>
       </c>
@@ -8285,7 +8384,7 @@
       </c>
     </row>
     <row r="364" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="35"/>
+      <c r="D364" s="38"/>
       <c r="E364" s="24" t="s">
         <v>112</v>
       </c>
@@ -8301,7 +8400,7 @@
       </c>
     </row>
     <row r="365" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="35"/>
+      <c r="D365" s="38"/>
       <c r="E365" s="12" t="s">
         <v>115</v>
       </c>
@@ -8315,21 +8414,21 @@
       </c>
     </row>
     <row r="366" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="36"/>
-      <c r="E366" s="31" t="s">
+      <c r="D366" s="39"/>
+      <c r="E366" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F366" s="32"/>
-      <c r="G366" s="32"/>
-      <c r="H366" s="32"/>
-      <c r="I366" s="33"/>
+      <c r="F366" s="35"/>
+      <c r="G366" s="35"/>
+      <c r="H366" s="35"/>
+      <c r="I366" s="36"/>
       <c r="J366" s="10" t="str">
         <f t="array" ref="J366">TEXT(SUMPRODUCT(--(J360:J365)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="367" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" s="34">
+      <c r="D367" s="37">
         <v>45805</v>
       </c>
       <c r="E367" s="24" t="s">
@@ -8347,7 +8446,7 @@
       </c>
     </row>
     <row r="368" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" s="35"/>
+      <c r="D368" s="38"/>
       <c r="E368" s="24" t="s">
         <v>105</v>
       </c>
@@ -8363,7 +8462,7 @@
       </c>
     </row>
     <row r="369" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" s="35"/>
+      <c r="D369" s="38"/>
       <c r="E369" s="25" t="s">
         <v>108</v>
       </c>
@@ -8379,7 +8478,7 @@
       </c>
     </row>
     <row r="370" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" s="35"/>
+      <c r="D370" s="38"/>
       <c r="E370" s="25" t="s">
         <v>109</v>
       </c>
@@ -8395,7 +8494,7 @@
       </c>
     </row>
     <row r="371" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" s="35"/>
+      <c r="D371" s="38"/>
       <c r="E371" s="24" t="s">
         <v>112</v>
       </c>
@@ -8411,7 +8510,7 @@
       </c>
     </row>
     <row r="372" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" s="35"/>
+      <c r="D372" s="38"/>
       <c r="E372" s="12" t="s">
         <v>115</v>
       </c>
@@ -8425,21 +8524,21 @@
       </c>
     </row>
     <row r="373" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" s="36"/>
-      <c r="E373" s="31" t="s">
+      <c r="D373" s="39"/>
+      <c r="E373" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F373" s="32"/>
-      <c r="G373" s="32"/>
-      <c r="H373" s="32"/>
-      <c r="I373" s="33"/>
+      <c r="F373" s="35"/>
+      <c r="G373" s="35"/>
+      <c r="H373" s="35"/>
+      <c r="I373" s="36"/>
       <c r="J373" s="10" t="str">
         <f t="array" ref="J373">TEXT(SUMPRODUCT(--(J367:J372)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="374" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" s="34">
+      <c r="D374" s="37">
         <v>45806</v>
       </c>
       <c r="E374" s="24" t="s">
@@ -8457,7 +8556,7 @@
       </c>
     </row>
     <row r="375" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" s="35"/>
+      <c r="D375" s="38"/>
       <c r="E375" s="24" t="s">
         <v>105</v>
       </c>
@@ -8473,7 +8572,7 @@
       </c>
     </row>
     <row r="376" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" s="35"/>
+      <c r="D376" s="38"/>
       <c r="E376" s="25" t="s">
         <v>108</v>
       </c>
@@ -8489,7 +8588,7 @@
       </c>
     </row>
     <row r="377" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" s="35"/>
+      <c r="D377" s="38"/>
       <c r="E377" s="25" t="s">
         <v>109</v>
       </c>
@@ -8505,7 +8604,7 @@
       </c>
     </row>
     <row r="378" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" s="35"/>
+      <c r="D378" s="38"/>
       <c r="E378" s="24" t="s">
         <v>112</v>
       </c>
@@ -8521,7 +8620,7 @@
       </c>
     </row>
     <row r="379" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" s="35"/>
+      <c r="D379" s="38"/>
       <c r="E379" s="12" t="s">
         <v>115</v>
       </c>
@@ -8535,14 +8634,14 @@
       </c>
     </row>
     <row r="380" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" s="36"/>
-      <c r="E380" s="31" t="s">
+      <c r="D380" s="39"/>
+      <c r="E380" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F380" s="32"/>
-      <c r="G380" s="32"/>
-      <c r="H380" s="32"/>
-      <c r="I380" s="33"/>
+      <c r="F380" s="35"/>
+      <c r="G380" s="35"/>
+      <c r="H380" s="35"/>
+      <c r="I380" s="36"/>
       <c r="J380" s="10" t="str">
         <f t="array" ref="J380">TEXT(SUMPRODUCT(--(J374:J379)), "h:mm")</f>
         <v>0:00</v>
@@ -8553,7 +8652,6 @@
   <mergeCells count="99">
     <mergeCell ref="D2:P4"/>
     <mergeCell ref="E380:I380"/>
-    <mergeCell ref="E113:I113"/>
     <mergeCell ref="D96:D104"/>
     <mergeCell ref="D297:D303"/>
     <mergeCell ref="E317:I317"/>
@@ -8564,6 +8662,7 @@
     <mergeCell ref="D69:D77"/>
     <mergeCell ref="E163:I163"/>
     <mergeCell ref="D262:D268"/>
+    <mergeCell ref="E113:I113"/>
     <mergeCell ref="D15:D23"/>
     <mergeCell ref="D24:D32"/>
     <mergeCell ref="D290:D296"/>

--- a/Attendance Tracking.xlsx
+++ b/Attendance Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1push\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2CF57-2F56-423E-BB67-098FBFD078DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD27E3-F049-4D33-95D3-E961E166E54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="185">
   <si>
     <t>Time Table Until Get a Job</t>
   </si>
@@ -493,6 +493,105 @@
   </si>
   <si>
     <t>Numpy functions</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Passive I,II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numpy </t>
+  </si>
+  <si>
+    <t>Practice question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t>5 q/a</t>
+  </si>
+  <si>
+    <t>Data analysis</t>
+  </si>
+  <si>
+    <t>Self-introduction</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>All question {d}</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Mock Interview</t>
+  </si>
+  <si>
+    <t>Practice questions</t>
+  </si>
+  <si>
+    <t>Has,have,was,were</t>
+  </si>
+  <si>
+    <t>Present,past</t>
+  </si>
+  <si>
+    <t>Numpy homework</t>
+  </si>
+  <si>
+    <t>Extra thing</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>were,has,they</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present, Past </t>
+  </si>
+  <si>
+    <t>Extra things</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>had to</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like to </t>
+  </si>
+  <si>
+    <t>2 question done</t>
+  </si>
+  <si>
+    <t>love to, like to, hate to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data analysst </t>
+  </si>
+  <si>
+    <t>Pandas learning</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Project Work</t>
+  </si>
+  <si>
+    <t>Attendance Tracker</t>
   </si>
 </sst>
 </file>
@@ -554,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +712,54 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEF6C00"/>
         <bgColor rgb="FFEF6C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -868,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,6 +1105,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:P380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="91" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F285" sqref="F285:J285"/>
+    <sheetView tabSelected="1" topLeftCell="B335" zoomScale="91" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J366" sqref="J366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,56 +1510,56 @@
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="4:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="4:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
@@ -1412,7 +1586,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="37">
+      <c r="D6" s="46">
         <v>45758</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1435,7 +1609,7 @@
       </c>
     </row>
     <row r="7" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="38"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1630,7 @@
       </c>
     </row>
     <row r="8" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="38"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1651,7 @@
       </c>
     </row>
     <row r="9" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="38"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1672,7 @@
       </c>
     </row>
     <row r="10" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="38"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1519,7 +1693,7 @@
       </c>
     </row>
     <row r="11" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="38"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="12" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1714,7 @@
       </c>
     </row>
     <row r="12" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="38"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1561,7 +1735,7 @@
       </c>
     </row>
     <row r="13" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="38"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
@@ -1582,21 +1756,21 @@
       </c>
     </row>
     <row r="14" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="39"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="9">
         <f>SUM(J6:J13)</f>
         <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="15" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="37">
+      <c r="D15" s="46">
         <v>45759</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1619,7 +1793,7 @@
       </c>
     </row>
     <row r="16" spans="4:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="38"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1814,7 @@
       </c>
     </row>
     <row r="17" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="38"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1835,7 @@
       </c>
     </row>
     <row r="18" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="38"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1856,7 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="38"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +1877,7 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="38"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1898,7 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="38"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1745,7 +1919,7 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="38"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="12" t="s">
         <v>27</v>
       </c>
@@ -1766,21 +1940,21 @@
       </c>
     </row>
     <row r="23" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="39"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="10">
         <f>SUM(J15:J22)</f>
         <v>0.32569444444444445</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="40">
+      <c r="D24" s="49">
         <v>45760</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -1803,7 +1977,7 @@
       </c>
     </row>
     <row r="25" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="41"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1998,7 @@
       </c>
     </row>
     <row r="26" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="41"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +2019,7 @@
       </c>
     </row>
     <row r="27" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="41"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
@@ -1866,7 +2040,7 @@
       </c>
     </row>
     <row r="28" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="41"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="12" t="s">
         <v>22</v>
       </c>
@@ -1887,7 +2061,7 @@
       </c>
     </row>
     <row r="29" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="41"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="12" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +2082,7 @@
       </c>
     </row>
     <row r="30" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="41"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
@@ -1929,7 +2103,7 @@
       </c>
     </row>
     <row r="31" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="41"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1950,21 +2124,21 @@
       </c>
     </row>
     <row r="32" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="42"/>
-      <c r="E32" s="43" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="9">
         <f>SUM(J24:J31)</f>
         <v>0.11111111111111113</v>
       </c>
     </row>
     <row r="33" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="40">
+      <c r="D33" s="49">
         <v>45761</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -1987,7 +2161,7 @@
       </c>
     </row>
     <row r="34" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="41"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="11" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2182,7 @@
       </c>
     </row>
     <row r="35" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="41"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="12" t="s">
         <v>17</v>
       </c>
@@ -2029,7 +2203,7 @@
       </c>
     </row>
     <row r="36" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="41"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="12" t="s">
         <v>19</v>
       </c>
@@ -2050,7 +2224,7 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="41"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="12" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2245,7 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="41"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="12" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2266,7 @@
       </c>
     </row>
     <row r="39" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="41"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +2287,7 @@
       </c>
     </row>
     <row r="40" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="41"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
@@ -2134,21 +2308,21 @@
       </c>
     </row>
     <row r="41" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="42"/>
-      <c r="E41" s="43" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="9">
         <f>SUM(J33:J40)</f>
         <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="37">
+      <c r="D42" s="46">
         <v>45762</v>
       </c>
       <c r="E42" s="11" t="s">
@@ -2171,7 +2345,7 @@
       </c>
     </row>
     <row r="43" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="38"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="11" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2366,7 @@
       </c>
     </row>
     <row r="44" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="38"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="12" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2387,7 @@
       </c>
     </row>
     <row r="45" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="38"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="12" t="s">
         <v>19</v>
       </c>
@@ -2234,7 +2408,7 @@
       </c>
     </row>
     <row r="46" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="38"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="12" t="s">
         <v>22</v>
       </c>
@@ -2255,7 +2429,7 @@
       </c>
     </row>
     <row r="47" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="38"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="12" t="s">
         <v>24</v>
       </c>
@@ -2276,7 +2450,7 @@
       </c>
     </row>
     <row r="48" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="38"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="12" t="s">
         <v>26</v>
       </c>
@@ -2297,7 +2471,7 @@
       </c>
     </row>
     <row r="49" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="38"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="12" t="s">
         <v>27</v>
       </c>
@@ -2310,21 +2484,21 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="39"/>
-      <c r="E50" s="34" t="s">
+      <c r="D50" s="48"/>
+      <c r="E50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="9">
         <f>SUM(J42:J49)</f>
         <v>0.24652777777777776</v>
       </c>
     </row>
     <row r="51" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="37">
+      <c r="D51" s="46">
         <v>45763</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -2347,7 +2521,7 @@
       </c>
     </row>
     <row r="52" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="38"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="11" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2542,7 @@
       </c>
     </row>
     <row r="53" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="38"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="12" t="s">
         <v>17</v>
       </c>
@@ -2389,7 +2563,7 @@
       </c>
     </row>
     <row r="54" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="38"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="12" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2584,7 @@
       </c>
     </row>
     <row r="55" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="38"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="12" t="s">
         <v>51</v>
       </c>
@@ -2431,7 +2605,7 @@
       </c>
     </row>
     <row r="56" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="38"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="12" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2626,7 @@
       </c>
     </row>
     <row r="57" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="38"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="12" t="s">
         <v>26</v>
       </c>
@@ -2473,7 +2647,7 @@
       </c>
     </row>
     <row r="58" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="38"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="12" t="s">
         <v>27</v>
       </c>
@@ -2494,21 +2668,21 @@
       </c>
     </row>
     <row r="59" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="39"/>
-      <c r="E59" s="31" t="s">
+      <c r="D59" s="48"/>
+      <c r="E59" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="42"/>
       <c r="J59" s="10">
         <f>SUM(J51:J58)</f>
         <v>0.17708333333333331</v>
       </c>
     </row>
     <row r="60" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="37">
+      <c r="D60" s="46">
         <v>45764</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -2531,7 +2705,7 @@
       </c>
     </row>
     <row r="61" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="38"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="11" t="s">
         <v>13</v>
       </c>
@@ -2552,7 +2726,7 @@
       </c>
     </row>
     <row r="62" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="38"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="12" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2747,7 @@
       </c>
     </row>
     <row r="63" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="38"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="12" t="s">
         <v>19</v>
       </c>
@@ -2594,7 +2768,7 @@
       </c>
     </row>
     <row r="64" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="38"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="12" t="s">
         <v>51</v>
       </c>
@@ -2615,7 +2789,7 @@
       </c>
     </row>
     <row r="65" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="38"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="12" t="s">
         <v>52</v>
       </c>
@@ -2636,7 +2810,7 @@
       </c>
     </row>
     <row r="66" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="38"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="12" t="s">
         <v>26</v>
       </c>
@@ -2657,7 +2831,7 @@
       </c>
     </row>
     <row r="67" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="38"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="12" t="s">
         <v>27</v>
       </c>
@@ -2678,21 +2852,21 @@
       </c>
     </row>
     <row r="68" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="39"/>
-      <c r="E68" s="31" t="s">
+      <c r="D68" s="48"/>
+      <c r="E68" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="42"/>
       <c r="J68" s="10">
         <f>SUM(J60:J67)</f>
         <v>0.18402777777777776</v>
       </c>
     </row>
     <row r="69" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="37">
+      <c r="D69" s="46">
         <v>45765</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -2715,7 +2889,7 @@
       </c>
     </row>
     <row r="70" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="38"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="11" t="s">
         <v>13</v>
       </c>
@@ -2736,7 +2910,7 @@
       </c>
     </row>
     <row r="71" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="38"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="12" t="s">
         <v>17</v>
       </c>
@@ -2757,7 +2931,7 @@
       </c>
     </row>
     <row r="72" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="38"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2778,7 +2952,7 @@
       </c>
     </row>
     <row r="73" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="38"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="12" t="s">
         <v>51</v>
       </c>
@@ -2799,7 +2973,7 @@
       </c>
     </row>
     <row r="74" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="38"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="12" t="s">
         <v>52</v>
       </c>
@@ -2820,7 +2994,7 @@
       </c>
     </row>
     <row r="75" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="38"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="12" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +3015,7 @@
       </c>
     </row>
     <row r="76" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="38"/>
+      <c r="D76" s="47"/>
       <c r="E76" s="12" t="s">
         <v>27</v>
       </c>
@@ -2862,21 +3036,21 @@
       </c>
     </row>
     <row r="77" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="39"/>
-      <c r="E77" s="34" t="s">
+      <c r="D77" s="48"/>
+      <c r="E77" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="36"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="45"/>
       <c r="J77" s="10">
         <f>SUM(J69:J76)</f>
         <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="78" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="37">
+      <c r="D78" s="46">
         <v>45766</v>
       </c>
       <c r="E78" s="11" t="s">
@@ -2899,7 +3073,7 @@
       </c>
     </row>
     <row r="79" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="38"/>
+      <c r="D79" s="47"/>
       <c r="E79" s="11" t="s">
         <v>13</v>
       </c>
@@ -2920,7 +3094,7 @@
       </c>
     </row>
     <row r="80" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="38"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="12" t="s">
         <v>17</v>
       </c>
@@ -2941,7 +3115,7 @@
       </c>
     </row>
     <row r="81" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="38"/>
+      <c r="D81" s="47"/>
       <c r="E81" s="12" t="s">
         <v>19</v>
       </c>
@@ -2962,7 +3136,7 @@
       </c>
     </row>
     <row r="82" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="38"/>
+      <c r="D82" s="47"/>
       <c r="E82" s="12" t="s">
         <v>51</v>
       </c>
@@ -2983,7 +3157,7 @@
       </c>
     </row>
     <row r="83" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="38"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="12" t="s">
         <v>52</v>
       </c>
@@ -3004,7 +3178,7 @@
       </c>
     </row>
     <row r="84" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="38"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="12" t="s">
         <v>26</v>
       </c>
@@ -3025,7 +3199,7 @@
       </c>
     </row>
     <row r="85" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="38"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="12" t="s">
         <v>27</v>
       </c>
@@ -3046,21 +3220,21 @@
       </c>
     </row>
     <row r="86" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="39"/>
-      <c r="E86" s="34" t="s">
+      <c r="D86" s="48"/>
+      <c r="E86" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="36"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="45"/>
       <c r="J86" s="10">
         <f>SUM(J78:J85)</f>
         <v>0.27222222222222225</v>
       </c>
     </row>
     <row r="87" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="37">
+      <c r="D87" s="46">
         <v>45767</v>
       </c>
       <c r="E87" s="11" t="s">
@@ -3083,7 +3257,7 @@
       </c>
     </row>
     <row r="88" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="38"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="11" t="s">
         <v>13</v>
       </c>
@@ -3104,7 +3278,7 @@
       </c>
     </row>
     <row r="89" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="38"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3299,7 @@
       </c>
     </row>
     <row r="90" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="38"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +3320,7 @@
       </c>
     </row>
     <row r="91" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="38"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="12" t="s">
         <v>51</v>
       </c>
@@ -3167,7 +3341,7 @@
       </c>
     </row>
     <row r="92" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="38"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="12" t="s">
         <v>52</v>
       </c>
@@ -3188,7 +3362,7 @@
       </c>
     </row>
     <row r="93" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="38"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="12" t="s">
         <v>26</v>
       </c>
@@ -3209,7 +3383,7 @@
       </c>
     </row>
     <row r="94" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="38"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="12" t="s">
         <v>27</v>
       </c>
@@ -3230,21 +3404,21 @@
       </c>
     </row>
     <row r="95" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="39"/>
-      <c r="E95" s="34" t="s">
+      <c r="D95" s="48"/>
+      <c r="E95" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="36"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="45"/>
       <c r="J95" s="10">
         <f>SUM(J87:J94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="37">
+      <c r="D96" s="46">
         <v>45768</v>
       </c>
       <c r="E96" s="11" t="s">
@@ -3267,7 +3441,7 @@
       </c>
     </row>
     <row r="97" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="38"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="11" t="s">
         <v>13</v>
       </c>
@@ -3288,7 +3462,7 @@
       </c>
     </row>
     <row r="98" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="38"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="12" t="s">
         <v>17</v>
       </c>
@@ -3309,7 +3483,7 @@
       </c>
     </row>
     <row r="99" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="38"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="12" t="s">
         <v>19</v>
       </c>
@@ -3330,7 +3504,7 @@
       </c>
     </row>
     <row r="100" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="38"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="12" t="s">
         <v>51</v>
       </c>
@@ -3351,7 +3525,7 @@
       </c>
     </row>
     <row r="101" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="38"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="12" t="s">
         <v>52</v>
       </c>
@@ -3372,7 +3546,7 @@
       </c>
     </row>
     <row r="102" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="38"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="12" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3567,7 @@
       </c>
     </row>
     <row r="103" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="38"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="12" t="s">
         <v>27</v>
       </c>
@@ -3414,21 +3588,21 @@
       </c>
     </row>
     <row r="104" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="39"/>
-      <c r="E104" s="34" t="s">
+      <c r="D104" s="48"/>
+      <c r="E104" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="36"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="45"/>
       <c r="J104" s="10">
         <f>SUM(J96:J103)</f>
         <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="105" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="37">
+      <c r="D105" s="46">
         <v>45769</v>
       </c>
       <c r="E105" s="17" t="s">
@@ -3451,7 +3625,7 @@
       </c>
     </row>
     <row r="106" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="38"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="17" t="s">
         <v>13</v>
       </c>
@@ -3472,7 +3646,7 @@
       </c>
     </row>
     <row r="107" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="38"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="18" t="s">
         <v>17</v>
       </c>
@@ -3493,7 +3667,7 @@
       </c>
     </row>
     <row r="108" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="38"/>
+      <c r="D108" s="47"/>
       <c r="E108" s="18" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3688,7 @@
       </c>
     </row>
     <row r="109" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="38"/>
+      <c r="D109" s="47"/>
       <c r="E109" s="18" t="s">
         <v>73</v>
       </c>
@@ -3535,7 +3709,7 @@
       </c>
     </row>
     <row r="110" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="38"/>
+      <c r="D110" s="47"/>
       <c r="E110" s="18" t="s">
         <v>75</v>
       </c>
@@ -3556,7 +3730,7 @@
       </c>
     </row>
     <row r="111" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="38"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="18" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3751,7 @@
       </c>
     </row>
     <row r="112" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="38"/>
+      <c r="D112" s="47"/>
       <c r="E112" s="18" t="s">
         <v>27</v>
       </c>
@@ -3598,21 +3772,21 @@
       </c>
     </row>
     <row r="113" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="39"/>
-      <c r="E113" s="34" t="s">
+      <c r="D113" s="48"/>
+      <c r="E113" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="36"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="45"/>
       <c r="J113" s="9">
         <f>SUM(J105:J112)</f>
         <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="114" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="37">
+      <c r="D114" s="46">
         <v>45770</v>
       </c>
       <c r="E114" s="17" t="s">
@@ -3635,7 +3809,7 @@
       </c>
     </row>
     <row r="115" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="38"/>
+      <c r="D115" s="47"/>
       <c r="E115" s="17" t="s">
         <v>13</v>
       </c>
@@ -3656,7 +3830,7 @@
       </c>
     </row>
     <row r="116" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="38"/>
+      <c r="D116" s="47"/>
       <c r="E116" s="18" t="s">
         <v>17</v>
       </c>
@@ -3677,7 +3851,7 @@
       </c>
     </row>
     <row r="117" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="38"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="18" t="s">
         <v>19</v>
       </c>
@@ -3698,7 +3872,7 @@
       </c>
     </row>
     <row r="118" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="38"/>
+      <c r="D118" s="47"/>
       <c r="E118" s="18" t="s">
         <v>73</v>
       </c>
@@ -3719,7 +3893,7 @@
       </c>
     </row>
     <row r="119" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="38"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="18" t="s">
         <v>75</v>
       </c>
@@ -3740,7 +3914,7 @@
       </c>
     </row>
     <row r="120" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="38"/>
+      <c r="D120" s="47"/>
       <c r="E120" s="18" t="s">
         <v>76</v>
       </c>
@@ -3761,7 +3935,7 @@
       </c>
     </row>
     <row r="121" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="38"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="18" t="s">
         <v>27</v>
       </c>
@@ -3782,21 +3956,21 @@
       </c>
     </row>
     <row r="122" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="39"/>
-      <c r="E122" s="34" t="s">
+      <c r="D122" s="48"/>
+      <c r="E122" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="36"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="45"/>
       <c r="J122" s="9">
         <f>SUM(J114:J121)</f>
         <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="123" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="37">
+      <c r="D123" s="46">
         <v>45771</v>
       </c>
       <c r="E123" s="17" t="s">
@@ -3819,7 +3993,7 @@
       </c>
     </row>
     <row r="124" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="38"/>
+      <c r="D124" s="47"/>
       <c r="E124" s="17" t="s">
         <v>13</v>
       </c>
@@ -3840,7 +4014,7 @@
       </c>
     </row>
     <row r="125" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="38"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="18" t="s">
         <v>17</v>
       </c>
@@ -3861,7 +4035,7 @@
       </c>
     </row>
     <row r="126" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="38"/>
+      <c r="D126" s="47"/>
       <c r="E126" s="18" t="s">
         <v>19</v>
       </c>
@@ -3882,7 +4056,7 @@
       </c>
     </row>
     <row r="127" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="38"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="18" t="s">
         <v>73</v>
       </c>
@@ -3903,7 +4077,7 @@
       </c>
     </row>
     <row r="128" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="38"/>
+      <c r="D128" s="47"/>
       <c r="E128" s="18" t="s">
         <v>75</v>
       </c>
@@ -3924,7 +4098,7 @@
       </c>
     </row>
     <row r="129" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="38"/>
+      <c r="D129" s="47"/>
       <c r="E129" s="18" t="s">
         <v>76</v>
       </c>
@@ -3945,7 +4119,7 @@
       </c>
     </row>
     <row r="130" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="38"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="18" t="s">
         <v>27</v>
       </c>
@@ -3966,21 +4140,21 @@
       </c>
     </row>
     <row r="131" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="39"/>
-      <c r="E131" s="34" t="s">
+      <c r="D131" s="48"/>
+      <c r="E131" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="36"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="45"/>
       <c r="J131" s="9">
         <f>SUM(J123:J130)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="132" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="37">
+      <c r="D132" s="46">
         <v>45772</v>
       </c>
       <c r="E132" s="17" t="s">
@@ -4003,7 +4177,7 @@
       </c>
     </row>
     <row r="133" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="38"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="17" t="s">
         <v>13</v>
       </c>
@@ -4024,7 +4198,7 @@
       </c>
     </row>
     <row r="134" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="38"/>
+      <c r="D134" s="47"/>
       <c r="E134" s="18" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +4219,7 @@
       </c>
     </row>
     <row r="135" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="38"/>
+      <c r="D135" s="47"/>
       <c r="E135" s="18" t="s">
         <v>19</v>
       </c>
@@ -4066,7 +4240,7 @@
       </c>
     </row>
     <row r="136" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="38"/>
+      <c r="D136" s="47"/>
       <c r="E136" s="18" t="s">
         <v>73</v>
       </c>
@@ -4087,7 +4261,7 @@
       </c>
     </row>
     <row r="137" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="38"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="18" t="s">
         <v>75</v>
       </c>
@@ -4108,7 +4282,7 @@
       </c>
     </row>
     <row r="138" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="38"/>
+      <c r="D138" s="47"/>
       <c r="E138" s="18" t="s">
         <v>76</v>
       </c>
@@ -4129,7 +4303,7 @@
       </c>
     </row>
     <row r="139" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="38"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="18" t="s">
         <v>27</v>
       </c>
@@ -4150,21 +4324,21 @@
       </c>
     </row>
     <row r="140" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="39"/>
-      <c r="E140" s="34" t="s">
+      <c r="D140" s="48"/>
+      <c r="E140" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="36"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="45"/>
       <c r="J140" s="9">
         <f>SUM(J132:J139)</f>
         <v>0.27013888888888882</v>
       </c>
     </row>
     <row r="141" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="37">
+      <c r="D141" s="46">
         <v>45773</v>
       </c>
       <c r="E141" s="17" t="s">
@@ -4187,7 +4361,7 @@
       </c>
     </row>
     <row r="142" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="38"/>
+      <c r="D142" s="47"/>
       <c r="E142" s="17" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +4382,7 @@
       </c>
     </row>
     <row r="143" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="38"/>
+      <c r="D143" s="47"/>
       <c r="E143" s="18" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4403,7 @@
       </c>
     </row>
     <row r="144" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="38"/>
+      <c r="D144" s="47"/>
       <c r="E144" s="18" t="s">
         <v>19</v>
       </c>
@@ -4250,7 +4424,7 @@
       </c>
     </row>
     <row r="145" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="38"/>
+      <c r="D145" s="47"/>
       <c r="E145" s="18" t="s">
         <v>51</v>
       </c>
@@ -4271,7 +4445,7 @@
       </c>
     </row>
     <row r="146" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="38"/>
+      <c r="D146" s="47"/>
       <c r="E146" s="18" t="s">
         <v>75</v>
       </c>
@@ -4292,7 +4466,7 @@
       </c>
     </row>
     <row r="147" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="38"/>
+      <c r="D147" s="47"/>
       <c r="E147" s="18" t="s">
         <v>76</v>
       </c>
@@ -4313,7 +4487,7 @@
       </c>
     </row>
     <row r="148" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="38"/>
+      <c r="D148" s="47"/>
       <c r="E148" s="18" t="s">
         <v>27</v>
       </c>
@@ -4334,21 +4508,21 @@
       </c>
     </row>
     <row r="149" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="39"/>
-      <c r="E149" s="34" t="s">
+      <c r="D149" s="48"/>
+      <c r="E149" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="36"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="45"/>
       <c r="J149" s="9">
         <f>SUM(J141:J148)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="150" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="37">
+      <c r="D150" s="46">
         <v>45774</v>
       </c>
       <c r="E150" s="11" t="s">
@@ -4371,7 +4545,7 @@
       </c>
     </row>
     <row r="151" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="38"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="11" t="s">
         <v>13</v>
       </c>
@@ -4392,7 +4566,7 @@
       </c>
     </row>
     <row r="152" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="38"/>
+      <c r="D152" s="47"/>
       <c r="E152" s="12" t="s">
         <v>17</v>
       </c>
@@ -4413,7 +4587,7 @@
       </c>
     </row>
     <row r="153" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="38"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="12" t="s">
         <v>52</v>
       </c>
@@ -4434,7 +4608,7 @@
       </c>
     </row>
     <row r="154" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="38"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="12" t="s">
         <v>26</v>
       </c>
@@ -4455,7 +4629,7 @@
       </c>
     </row>
     <row r="155" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="38"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="12" t="s">
         <v>27</v>
       </c>
@@ -4476,21 +4650,21 @@
       </c>
     </row>
     <row r="156" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="39"/>
-      <c r="E156" s="34" t="s">
+      <c r="D156" s="48"/>
+      <c r="E156" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
-      <c r="I156" s="36"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="45"/>
       <c r="J156" s="10">
         <f>SUM(J150:J155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="37">
+      <c r="D157" s="46">
         <v>45775</v>
       </c>
       <c r="E157" s="11" t="s">
@@ -4513,7 +4687,7 @@
       </c>
     </row>
     <row r="158" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="38"/>
+      <c r="D158" s="47"/>
       <c r="E158" s="11" t="s">
         <v>13</v>
       </c>
@@ -4534,7 +4708,7 @@
       </c>
     </row>
     <row r="159" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="38"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="12" t="s">
         <v>87</v>
       </c>
@@ -4555,7 +4729,7 @@
       </c>
     </row>
     <row r="160" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="38"/>
+      <c r="D160" s="47"/>
       <c r="E160" s="12" t="s">
         <v>88</v>
       </c>
@@ -4576,7 +4750,7 @@
       </c>
     </row>
     <row r="161" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="38"/>
+      <c r="D161" s="47"/>
       <c r="E161" s="12" t="s">
         <v>90</v>
       </c>
@@ -4597,7 +4771,7 @@
       </c>
     </row>
     <row r="162" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="38"/>
+      <c r="D162" s="47"/>
       <c r="E162" s="12" t="s">
         <v>27</v>
       </c>
@@ -4618,21 +4792,21 @@
       </c>
     </row>
     <row r="163" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="39"/>
-      <c r="E163" s="34" t="s">
+      <c r="D163" s="48"/>
+      <c r="E163" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="35"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="36"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="44"/>
+      <c r="I163" s="45"/>
       <c r="J163" s="10">
         <f>SUM(J157:J162)</f>
         <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="164" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="37">
+      <c r="D164" s="46">
         <v>45776</v>
       </c>
       <c r="E164" s="11" t="s">
@@ -4655,7 +4829,7 @@
       </c>
     </row>
     <row r="165" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="38"/>
+      <c r="D165" s="47"/>
       <c r="E165" s="11" t="s">
         <v>13</v>
       </c>
@@ -4676,7 +4850,7 @@
       </c>
     </row>
     <row r="166" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="38"/>
+      <c r="D166" s="47"/>
       <c r="E166" s="12" t="s">
         <v>87</v>
       </c>
@@ -4697,7 +4871,7 @@
       </c>
     </row>
     <row r="167" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="38"/>
+      <c r="D167" s="47"/>
       <c r="E167" s="12" t="s">
         <v>88</v>
       </c>
@@ -4718,7 +4892,7 @@
       </c>
     </row>
     <row r="168" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="38"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="12" t="s">
         <v>90</v>
       </c>
@@ -4739,7 +4913,7 @@
       </c>
     </row>
     <row r="169" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="38"/>
+      <c r="D169" s="47"/>
       <c r="E169" s="12" t="s">
         <v>27</v>
       </c>
@@ -4760,21 +4934,21 @@
       </c>
     </row>
     <row r="170" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="39"/>
-      <c r="E170" s="34" t="s">
+      <c r="D170" s="48"/>
+      <c r="E170" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="36"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="44"/>
+      <c r="I170" s="45"/>
       <c r="J170" s="10">
         <f>SUM(J164:J169)</f>
         <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="171" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="37">
+      <c r="D171" s="46">
         <v>45777</v>
       </c>
       <c r="E171" s="11" t="s">
@@ -4797,7 +4971,7 @@
       </c>
     </row>
     <row r="172" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="38"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="11" t="s">
         <v>13</v>
       </c>
@@ -4818,7 +4992,7 @@
       </c>
     </row>
     <row r="173" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="38"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="12" t="s">
         <v>87</v>
       </c>
@@ -4839,7 +5013,7 @@
       </c>
     </row>
     <row r="174" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="38"/>
+      <c r="D174" s="47"/>
       <c r="E174" s="12" t="s">
         <v>88</v>
       </c>
@@ -4860,7 +5034,7 @@
       </c>
     </row>
     <row r="175" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="38"/>
+      <c r="D175" s="47"/>
       <c r="E175" s="12" t="s">
         <v>90</v>
       </c>
@@ -4881,7 +5055,7 @@
       </c>
     </row>
     <row r="176" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="38"/>
+      <c r="D176" s="47"/>
       <c r="E176" s="12" t="s">
         <v>27</v>
       </c>
@@ -4902,21 +5076,21 @@
       </c>
     </row>
     <row r="177" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="39"/>
-      <c r="E177" s="34" t="s">
+      <c r="D177" s="48"/>
+      <c r="E177" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="35"/>
-      <c r="I177" s="36"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="44"/>
+      <c r="I177" s="45"/>
       <c r="J177" s="9">
         <f>SUM(J171:J176)</f>
         <v>0.30902777777777779</v>
       </c>
     </row>
     <row r="178" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="37">
+      <c r="D178" s="46">
         <v>45778</v>
       </c>
       <c r="E178" s="20" t="s">
@@ -4939,7 +5113,7 @@
       </c>
     </row>
     <row r="179" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="38"/>
+      <c r="D179" s="47"/>
       <c r="E179" s="20" t="s">
         <v>13</v>
       </c>
@@ -4960,7 +5134,7 @@
       </c>
     </row>
     <row r="180" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="38"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="21" t="s">
         <v>87</v>
       </c>
@@ -4981,7 +5155,7 @@
       </c>
     </row>
     <row r="181" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="38"/>
+      <c r="D181" s="47"/>
       <c r="E181" s="21" t="s">
         <v>88</v>
       </c>
@@ -5002,7 +5176,7 @@
       </c>
     </row>
     <row r="182" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="38"/>
+      <c r="D182" s="47"/>
       <c r="E182" s="21" t="s">
         <v>90</v>
       </c>
@@ -5023,7 +5197,7 @@
       </c>
     </row>
     <row r="183" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="38"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="21" t="s">
         <v>27</v>
       </c>
@@ -5044,21 +5218,21 @@
       </c>
     </row>
     <row r="184" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="39"/>
-      <c r="E184" s="34" t="s">
+      <c r="D184" s="48"/>
+      <c r="E184" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F184" s="35"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="36"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="44"/>
+      <c r="I184" s="45"/>
       <c r="J184" s="9">
         <f>SUM(J178:J183)</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="185" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="37">
+      <c r="D185" s="46">
         <v>45779</v>
       </c>
       <c r="E185" s="20" t="s">
@@ -5081,7 +5255,7 @@
       </c>
     </row>
     <row r="186" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="38"/>
+      <c r="D186" s="47"/>
       <c r="E186" s="20" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5276,7 @@
       </c>
     </row>
     <row r="187" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="38"/>
+      <c r="D187" s="47"/>
       <c r="E187" s="21" t="s">
         <v>87</v>
       </c>
@@ -5123,7 +5297,7 @@
       </c>
     </row>
     <row r="188" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="38"/>
+      <c r="D188" s="47"/>
       <c r="E188" s="21" t="s">
         <v>88</v>
       </c>
@@ -5144,7 +5318,7 @@
       </c>
     </row>
     <row r="189" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="38"/>
+      <c r="D189" s="47"/>
       <c r="E189" s="21" t="s">
         <v>90</v>
       </c>
@@ -5165,7 +5339,7 @@
       </c>
     </row>
     <row r="190" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="38"/>
+      <c r="D190" s="47"/>
       <c r="E190" s="21" t="s">
         <v>27</v>
       </c>
@@ -5186,21 +5360,21 @@
       </c>
     </row>
     <row r="191" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="39"/>
-      <c r="E191" s="34" t="s">
+      <c r="D191" s="48"/>
+      <c r="E191" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F191" s="35"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="35"/>
-      <c r="I191" s="36"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="44"/>
+      <c r="I191" s="45"/>
       <c r="J191" s="9">
         <f>SUM(J185:J190)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="192" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="37">
+      <c r="D192" s="46">
         <v>45780</v>
       </c>
       <c r="E192" s="20" t="s">
@@ -5223,7 +5397,7 @@
       </c>
     </row>
     <row r="193" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="38"/>
+      <c r="D193" s="47"/>
       <c r="E193" s="20" t="s">
         <v>13</v>
       </c>
@@ -5244,7 +5418,7 @@
       </c>
     </row>
     <row r="194" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="38"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="21" t="s">
         <v>87</v>
       </c>
@@ -5265,7 +5439,7 @@
       </c>
     </row>
     <row r="195" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="38"/>
+      <c r="D195" s="47"/>
       <c r="E195" s="21" t="s">
         <v>88</v>
       </c>
@@ -5286,7 +5460,7 @@
       </c>
     </row>
     <row r="196" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="38"/>
+      <c r="D196" s="47"/>
       <c r="E196" s="21" t="s">
         <v>90</v>
       </c>
@@ -5307,7 +5481,7 @@
       </c>
     </row>
     <row r="197" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="38"/>
+      <c r="D197" s="47"/>
       <c r="E197" s="21" t="s">
         <v>27</v>
       </c>
@@ -5328,21 +5502,21 @@
       </c>
     </row>
     <row r="198" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="39"/>
-      <c r="E198" s="34" t="s">
+      <c r="D198" s="48"/>
+      <c r="E198" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F198" s="35"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="35"/>
-      <c r="I198" s="36"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="44"/>
+      <c r="H198" s="44"/>
+      <c r="I198" s="45"/>
       <c r="J198" s="9">
         <f>SUM(J192:J197)</f>
         <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="199" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="37">
+      <c r="D199" s="46">
         <v>45781</v>
       </c>
       <c r="E199" s="11" t="s">
@@ -5365,7 +5539,7 @@
       </c>
     </row>
     <row r="200" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="38"/>
+      <c r="D200" s="47"/>
       <c r="E200" s="11" t="s">
         <v>13</v>
       </c>
@@ -5386,7 +5560,7 @@
       </c>
     </row>
     <row r="201" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="38"/>
+      <c r="D201" s="47"/>
       <c r="E201" s="21" t="s">
         <v>87</v>
       </c>
@@ -5407,7 +5581,7 @@
       </c>
     </row>
     <row r="202" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="38"/>
+      <c r="D202" s="47"/>
       <c r="E202" s="21" t="s">
         <v>88</v>
       </c>
@@ -5428,7 +5602,7 @@
       </c>
     </row>
     <row r="203" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="38"/>
+      <c r="D203" s="47"/>
       <c r="E203" s="12" t="s">
         <v>90</v>
       </c>
@@ -5449,7 +5623,7 @@
       </c>
     </row>
     <row r="204" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="38"/>
+      <c r="D204" s="47"/>
       <c r="E204" s="12" t="s">
         <v>27</v>
       </c>
@@ -5470,21 +5644,21 @@
       </c>
     </row>
     <row r="205" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="39"/>
-      <c r="E205" s="34" t="s">
+      <c r="D205" s="48"/>
+      <c r="E205" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F205" s="35"/>
-      <c r="G205" s="35"/>
-      <c r="H205" s="35"/>
-      <c r="I205" s="36"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="44"/>
+      <c r="H205" s="44"/>
+      <c r="I205" s="45"/>
       <c r="J205" s="10">
         <f>SUM(J199:J204)</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="37">
+      <c r="D206" s="46">
         <v>45782</v>
       </c>
       <c r="E206" s="24" t="s">
@@ -5507,7 +5681,7 @@
       </c>
     </row>
     <row r="207" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="38"/>
+      <c r="D207" s="47"/>
       <c r="E207" s="24" t="s">
         <v>13</v>
       </c>
@@ -5528,7 +5702,7 @@
       </c>
     </row>
     <row r="208" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="38"/>
+      <c r="D208" s="47"/>
       <c r="E208" s="25" t="s">
         <v>87</v>
       </c>
@@ -5549,7 +5723,7 @@
       </c>
     </row>
     <row r="209" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="38"/>
+      <c r="D209" s="47"/>
       <c r="E209" s="25" t="s">
         <v>88</v>
       </c>
@@ -5570,7 +5744,7 @@
       </c>
     </row>
     <row r="210" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="38"/>
+      <c r="D210" s="47"/>
       <c r="E210" s="24" t="s">
         <v>90</v>
       </c>
@@ -5591,7 +5765,7 @@
       </c>
     </row>
     <row r="211" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="38"/>
+      <c r="D211" s="47"/>
       <c r="E211" s="12" t="s">
         <v>27</v>
       </c>
@@ -5612,21 +5786,21 @@
       </c>
     </row>
     <row r="212" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="39"/>
-      <c r="E212" s="34" t="s">
+      <c r="D212" s="48"/>
+      <c r="E212" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F212" s="35"/>
-      <c r="G212" s="35"/>
-      <c r="H212" s="35"/>
-      <c r="I212" s="36"/>
+      <c r="F212" s="44"/>
+      <c r="G212" s="44"/>
+      <c r="H212" s="44"/>
+      <c r="I212" s="45"/>
       <c r="J212" s="10">
         <f>SUM(J206:J211)</f>
         <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="213" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="37">
+      <c r="D213" s="46">
         <v>45783</v>
       </c>
       <c r="E213" s="24" t="s">
@@ -5649,7 +5823,7 @@
       </c>
     </row>
     <row r="214" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="38"/>
+      <c r="D214" s="47"/>
       <c r="E214" s="24" t="s">
         <v>105</v>
       </c>
@@ -5670,7 +5844,7 @@
       </c>
     </row>
     <row r="215" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="38"/>
+      <c r="D215" s="47"/>
       <c r="E215" s="25" t="s">
         <v>108</v>
       </c>
@@ -5691,7 +5865,7 @@
       </c>
     </row>
     <row r="216" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="38"/>
+      <c r="D216" s="47"/>
       <c r="E216" s="25" t="s">
         <v>109</v>
       </c>
@@ -5712,7 +5886,7 @@
       </c>
     </row>
     <row r="217" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="38"/>
+      <c r="D217" s="47"/>
       <c r="E217" s="24" t="s">
         <v>112</v>
       </c>
@@ -5733,7 +5907,7 @@
       </c>
     </row>
     <row r="218" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="38"/>
+      <c r="D218" s="47"/>
       <c r="E218" s="12" t="s">
         <v>115</v>
       </c>
@@ -5754,21 +5928,21 @@
       </c>
     </row>
     <row r="219" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="39"/>
-      <c r="E219" s="34" t="s">
+      <c r="D219" s="48"/>
+      <c r="E219" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F219" s="35"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="35"/>
-      <c r="I219" s="36"/>
+      <c r="F219" s="44"/>
+      <c r="G219" s="44"/>
+      <c r="H219" s="44"/>
+      <c r="I219" s="45"/>
       <c r="J219" s="10">
         <f>SUM(J213:J218)</f>
         <v>0.36111111111111116</v>
       </c>
     </row>
     <row r="220" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="37">
+      <c r="D220" s="46">
         <v>45784</v>
       </c>
       <c r="E220" s="24" t="s">
@@ -5791,7 +5965,7 @@
       </c>
     </row>
     <row r="221" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="38"/>
+      <c r="D221" s="47"/>
       <c r="E221" s="24" t="s">
         <v>105</v>
       </c>
@@ -5812,7 +5986,7 @@
       </c>
     </row>
     <row r="222" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="38"/>
+      <c r="D222" s="47"/>
       <c r="E222" s="25" t="s">
         <v>108</v>
       </c>
@@ -5833,7 +6007,7 @@
       </c>
     </row>
     <row r="223" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="38"/>
+      <c r="D223" s="47"/>
       <c r="E223" s="25" t="s">
         <v>109</v>
       </c>
@@ -5854,7 +6028,7 @@
       </c>
     </row>
     <row r="224" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="38"/>
+      <c r="D224" s="47"/>
       <c r="E224" s="24" t="s">
         <v>112</v>
       </c>
@@ -5875,7 +6049,7 @@
       </c>
     </row>
     <row r="225" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="38"/>
+      <c r="D225" s="47"/>
       <c r="E225" s="12" t="s">
         <v>115</v>
       </c>
@@ -5896,21 +6070,21 @@
       </c>
     </row>
     <row r="226" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="39"/>
-      <c r="E226" s="34" t="s">
+      <c r="D226" s="48"/>
+      <c r="E226" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F226" s="35"/>
-      <c r="G226" s="35"/>
-      <c r="H226" s="35"/>
-      <c r="I226" s="36"/>
+      <c r="F226" s="44"/>
+      <c r="G226" s="44"/>
+      <c r="H226" s="44"/>
+      <c r="I226" s="45"/>
       <c r="J226" s="10">
         <f>SUM(J220:J225)</f>
         <v>0.38194444444444448</v>
       </c>
     </row>
     <row r="227" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="37">
+      <c r="D227" s="46">
         <v>45785</v>
       </c>
       <c r="E227" s="24" t="s">
@@ -5933,7 +6107,7 @@
       </c>
     </row>
     <row r="228" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="38"/>
+      <c r="D228" s="47"/>
       <c r="E228" s="24" t="s">
         <v>105</v>
       </c>
@@ -5954,7 +6128,7 @@
       </c>
     </row>
     <row r="229" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="38"/>
+      <c r="D229" s="47"/>
       <c r="E229" s="25" t="s">
         <v>108</v>
       </c>
@@ -5975,7 +6149,7 @@
       </c>
     </row>
     <row r="230" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="38"/>
+      <c r="D230" s="47"/>
       <c r="E230" s="25" t="s">
         <v>109</v>
       </c>
@@ -5996,7 +6170,7 @@
       </c>
     </row>
     <row r="231" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="38"/>
+      <c r="D231" s="47"/>
       <c r="E231" s="24" t="s">
         <v>112</v>
       </c>
@@ -6017,7 +6191,7 @@
       </c>
     </row>
     <row r="232" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="38"/>
+      <c r="D232" s="47"/>
       <c r="E232" s="12" t="s">
         <v>115</v>
       </c>
@@ -6038,21 +6212,21 @@
       </c>
     </row>
     <row r="233" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="39"/>
-      <c r="E233" s="34" t="s">
+      <c r="D233" s="48"/>
+      <c r="E233" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F233" s="35"/>
-      <c r="G233" s="35"/>
-      <c r="H233" s="35"/>
-      <c r="I233" s="36"/>
+      <c r="F233" s="44"/>
+      <c r="G233" s="44"/>
+      <c r="H233" s="44"/>
+      <c r="I233" s="45"/>
       <c r="J233" s="10">
         <f>SUM(J227:J232)</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="234" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="37">
+      <c r="D234" s="46">
         <v>45786</v>
       </c>
       <c r="E234" s="24" t="s">
@@ -6075,7 +6249,7 @@
       </c>
     </row>
     <row r="235" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="38"/>
+      <c r="D235" s="47"/>
       <c r="E235" s="24" t="s">
         <v>105</v>
       </c>
@@ -6096,7 +6270,7 @@
       </c>
     </row>
     <row r="236" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="38"/>
+      <c r="D236" s="47"/>
       <c r="E236" s="25" t="s">
         <v>108</v>
       </c>
@@ -6117,7 +6291,7 @@
       </c>
     </row>
     <row r="237" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="38"/>
+      <c r="D237" s="47"/>
       <c r="E237" s="25" t="s">
         <v>109</v>
       </c>
@@ -6138,7 +6312,7 @@
       </c>
     </row>
     <row r="238" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="38"/>
+      <c r="D238" s="47"/>
       <c r="E238" s="24" t="s">
         <v>112</v>
       </c>
@@ -6159,7 +6333,7 @@
       </c>
     </row>
     <row r="239" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="38"/>
+      <c r="D239" s="47"/>
       <c r="E239" s="12" t="s">
         <v>115</v>
       </c>
@@ -6180,21 +6354,21 @@
       </c>
     </row>
     <row r="240" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="39"/>
-      <c r="E240" s="34" t="s">
+      <c r="D240" s="48"/>
+      <c r="E240" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F240" s="35"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="35"/>
-      <c r="I240" s="36"/>
+      <c r="F240" s="44"/>
+      <c r="G240" s="44"/>
+      <c r="H240" s="44"/>
+      <c r="I240" s="45"/>
       <c r="J240" s="10">
         <f>SUM(J234:J239)</f>
         <v>0.24305555555555558</v>
       </c>
     </row>
     <row r="241" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="37">
+      <c r="D241" s="46">
         <v>45787</v>
       </c>
       <c r="E241" s="24" t="s">
@@ -6217,7 +6391,7 @@
       </c>
     </row>
     <row r="242" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="38"/>
+      <c r="D242" s="47"/>
       <c r="E242" s="24" t="s">
         <v>105</v>
       </c>
@@ -6238,7 +6412,7 @@
       </c>
     </row>
     <row r="243" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="38"/>
+      <c r="D243" s="47"/>
       <c r="E243" s="25" t="s">
         <v>108</v>
       </c>
@@ -6259,7 +6433,7 @@
       </c>
     </row>
     <row r="244" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="38"/>
+      <c r="D244" s="47"/>
       <c r="E244" s="25" t="s">
         <v>109</v>
       </c>
@@ -6280,7 +6454,7 @@
       </c>
     </row>
     <row r="245" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="38"/>
+      <c r="D245" s="47"/>
       <c r="E245" s="24" t="s">
         <v>112</v>
       </c>
@@ -6301,7 +6475,7 @@
       </c>
     </row>
     <row r="246" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="38"/>
+      <c r="D246" s="47"/>
       <c r="E246" s="12" t="s">
         <v>115</v>
       </c>
@@ -6322,21 +6496,21 @@
       </c>
     </row>
     <row r="247" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="39"/>
-      <c r="E247" s="34" t="s">
+      <c r="D247" s="48"/>
+      <c r="E247" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F247" s="35"/>
-      <c r="G247" s="35"/>
-      <c r="H247" s="35"/>
-      <c r="I247" s="36"/>
+      <c r="F247" s="44"/>
+      <c r="G247" s="44"/>
+      <c r="H247" s="44"/>
+      <c r="I247" s="45"/>
       <c r="J247" s="10">
         <f>SUM(J241:J246)</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="248" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="37">
+      <c r="D248" s="46">
         <v>45788</v>
       </c>
       <c r="E248" s="24" t="s">
@@ -6359,7 +6533,7 @@
       </c>
     </row>
     <row r="249" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="38"/>
+      <c r="D249" s="47"/>
       <c r="E249" s="24" t="s">
         <v>105</v>
       </c>
@@ -6380,7 +6554,7 @@
       </c>
     </row>
     <row r="250" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="38"/>
+      <c r="D250" s="47"/>
       <c r="E250" s="25" t="s">
         <v>108</v>
       </c>
@@ -6401,7 +6575,7 @@
       </c>
     </row>
     <row r="251" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="38"/>
+      <c r="D251" s="47"/>
       <c r="E251" s="25" t="s">
         <v>109</v>
       </c>
@@ -6422,7 +6596,7 @@
       </c>
     </row>
     <row r="252" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="38"/>
+      <c r="D252" s="47"/>
       <c r="E252" s="24" t="s">
         <v>112</v>
       </c>
@@ -6443,7 +6617,7 @@
       </c>
     </row>
     <row r="253" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="38"/>
+      <c r="D253" s="47"/>
       <c r="E253" s="12" t="s">
         <v>115</v>
       </c>
@@ -6464,21 +6638,21 @@
       </c>
     </row>
     <row r="254" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="39"/>
-      <c r="E254" s="34" t="s">
+      <c r="D254" s="48"/>
+      <c r="E254" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F254" s="35"/>
-      <c r="G254" s="35"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="36"/>
+      <c r="F254" s="44"/>
+      <c r="G254" s="44"/>
+      <c r="H254" s="44"/>
+      <c r="I254" s="45"/>
       <c r="J254" s="10">
         <f>SUM(J248:J253)</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="37">
+      <c r="D255" s="46">
         <v>45789</v>
       </c>
       <c r="E255" s="24" t="s">
@@ -6501,7 +6675,7 @@
       </c>
     </row>
     <row r="256" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="38"/>
+      <c r="D256" s="47"/>
       <c r="E256" s="24" t="s">
         <v>105</v>
       </c>
@@ -6522,7 +6696,7 @@
       </c>
     </row>
     <row r="257" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="38"/>
+      <c r="D257" s="47"/>
       <c r="E257" s="25" t="s">
         <v>108</v>
       </c>
@@ -6543,7 +6717,7 @@
       </c>
     </row>
     <row r="258" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="38"/>
+      <c r="D258" s="47"/>
       <c r="E258" s="25" t="s">
         <v>109</v>
       </c>
@@ -6564,7 +6738,7 @@
       </c>
     </row>
     <row r="259" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="38"/>
+      <c r="D259" s="47"/>
       <c r="E259" s="24" t="s">
         <v>112</v>
       </c>
@@ -6585,7 +6759,7 @@
       </c>
     </row>
     <row r="260" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="38"/>
+      <c r="D260" s="47"/>
       <c r="E260" s="7" t="s">
         <v>25</v>
       </c>
@@ -6606,21 +6780,21 @@
       </c>
     </row>
     <row r="261" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="39"/>
-      <c r="E261" s="34" t="s">
+      <c r="D261" s="48"/>
+      <c r="E261" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F261" s="35"/>
-      <c r="G261" s="35"/>
-      <c r="H261" s="35"/>
-      <c r="I261" s="36"/>
+      <c r="F261" s="44"/>
+      <c r="G261" s="44"/>
+      <c r="H261" s="44"/>
+      <c r="I261" s="45"/>
       <c r="J261" s="10">
         <f>SUM(J255:J260)</f>
         <v>0.36111111111111105</v>
       </c>
     </row>
     <row r="262" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="37">
+      <c r="D262" s="46">
         <v>45790</v>
       </c>
       <c r="E262" s="24" t="s">
@@ -6643,7 +6817,7 @@
       </c>
     </row>
     <row r="263" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="38"/>
+      <c r="D263" s="47"/>
       <c r="E263" s="24" t="s">
         <v>105</v>
       </c>
@@ -6664,7 +6838,7 @@
       </c>
     </row>
     <row r="264" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="38"/>
+      <c r="D264" s="47"/>
       <c r="E264" s="25" t="s">
         <v>108</v>
       </c>
@@ -6685,7 +6859,7 @@
       </c>
     </row>
     <row r="265" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="38"/>
+      <c r="D265" s="47"/>
       <c r="E265" s="25" t="s">
         <v>109</v>
       </c>
@@ -6706,7 +6880,7 @@
       </c>
     </row>
     <row r="266" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="38"/>
+      <c r="D266" s="47"/>
       <c r="E266" s="24" t="s">
         <v>112</v>
       </c>
@@ -6727,7 +6901,7 @@
       </c>
     </row>
     <row r="267" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="38"/>
+      <c r="D267" s="47"/>
       <c r="E267" s="12" t="s">
         <v>115</v>
       </c>
@@ -6748,21 +6922,21 @@
       </c>
     </row>
     <row r="268" spans="4:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="39"/>
-      <c r="E268" s="34" t="s">
+      <c r="D268" s="48"/>
+      <c r="E268" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F268" s="35"/>
-      <c r="G268" s="35"/>
-      <c r="H268" s="35"/>
-      <c r="I268" s="36"/>
+      <c r="F268" s="44"/>
+      <c r="G268" s="44"/>
+      <c r="H268" s="44"/>
+      <c r="I268" s="45"/>
       <c r="J268" s="10">
         <f>SUM(J262:J267)</f>
         <v>0.13194444444444445</v>
       </c>
     </row>
     <row r="269" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="37">
+      <c r="D269" s="46">
         <v>45791</v>
       </c>
       <c r="E269" s="24" t="s">
@@ -6786,7 +6960,7 @@
       </c>
     </row>
     <row r="270" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="38"/>
+      <c r="D270" s="47"/>
       <c r="E270" s="24" t="s">
         <v>105</v>
       </c>
@@ -6808,7 +6982,7 @@
       </c>
     </row>
     <row r="271" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="38"/>
+      <c r="D271" s="47"/>
       <c r="E271" s="25" t="s">
         <v>108</v>
       </c>
@@ -6830,7 +7004,7 @@
       </c>
     </row>
     <row r="272" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="38"/>
+      <c r="D272" s="47"/>
       <c r="E272" s="25" t="s">
         <v>109</v>
       </c>
@@ -6852,7 +7026,7 @@
       </c>
     </row>
     <row r="273" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="38"/>
+      <c r="D273" s="47"/>
       <c r="E273" s="24" t="s">
         <v>112</v>
       </c>
@@ -6874,7 +7048,7 @@
       </c>
     </row>
     <row r="274" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="38"/>
+      <c r="D274" s="47"/>
       <c r="E274" s="12" t="s">
         <v>115</v>
       </c>
@@ -6896,21 +7070,21 @@
       </c>
     </row>
     <row r="275" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="39"/>
-      <c r="E275" s="34" t="s">
+      <c r="D275" s="48"/>
+      <c r="E275" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F275" s="35"/>
-      <c r="G275" s="35"/>
-      <c r="H275" s="35"/>
-      <c r="I275" s="36"/>
+      <c r="F275" s="44"/>
+      <c r="G275" s="44"/>
+      <c r="H275" s="44"/>
+      <c r="I275" s="45"/>
       <c r="J275" s="10" t="str">
         <f t="array" ref="J275">TEXT(SUMPRODUCT(--(J269:J274)), "h:mm")</f>
         <v>10:40</v>
       </c>
     </row>
     <row r="276" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="37">
+      <c r="D276" s="46">
         <v>45792</v>
       </c>
       <c r="E276" s="24" t="s">
@@ -6934,7 +7108,7 @@
       </c>
     </row>
     <row r="277" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="38"/>
+      <c r="D277" s="47"/>
       <c r="E277" s="24" t="s">
         <v>105</v>
       </c>
@@ -6956,7 +7130,7 @@
       </c>
     </row>
     <row r="278" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="38"/>
+      <c r="D278" s="47"/>
       <c r="E278" s="25" t="s">
         <v>108</v>
       </c>
@@ -6978,7 +7152,7 @@
       </c>
     </row>
     <row r="279" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="38"/>
+      <c r="D279" s="47"/>
       <c r="E279" s="25" t="s">
         <v>109</v>
       </c>
@@ -7000,7 +7174,7 @@
       </c>
     </row>
     <row r="280" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="38"/>
+      <c r="D280" s="47"/>
       <c r="E280" s="24" t="s">
         <v>112</v>
       </c>
@@ -7022,7 +7196,7 @@
       </c>
     </row>
     <row r="281" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="38"/>
+      <c r="D281" s="47"/>
       <c r="E281" s="12" t="s">
         <v>115</v>
       </c>
@@ -7044,21 +7218,21 @@
       </c>
     </row>
     <row r="282" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="39"/>
-      <c r="E282" s="34" t="s">
+      <c r="D282" s="48"/>
+      <c r="E282" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F282" s="35"/>
-      <c r="G282" s="35"/>
-      <c r="H282" s="35"/>
-      <c r="I282" s="36"/>
+      <c r="F282" s="44"/>
+      <c r="G282" s="44"/>
+      <c r="H282" s="44"/>
+      <c r="I282" s="45"/>
       <c r="J282" s="10" t="str">
         <f t="array" ref="J282">TEXT(SUMPRODUCT(--(J276:J281)), "h:mm")</f>
         <v>9:40</v>
       </c>
     </row>
     <row r="283" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="37">
+      <c r="D283" s="46">
         <v>45793</v>
       </c>
       <c r="E283" s="24" t="s">
@@ -7082,7 +7256,7 @@
       </c>
     </row>
     <row r="284" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="38"/>
+      <c r="D284" s="47"/>
       <c r="E284" s="24" t="s">
         <v>105</v>
       </c>
@@ -7104,7 +7278,7 @@
       </c>
     </row>
     <row r="285" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="38"/>
+      <c r="D285" s="47"/>
       <c r="E285" s="25" t="s">
         <v>108</v>
       </c>
@@ -7126,7 +7300,7 @@
       </c>
     </row>
     <row r="286" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="38"/>
+      <c r="D286" s="47"/>
       <c r="E286" s="25" t="s">
         <v>109</v>
       </c>
@@ -7148,7 +7322,7 @@
       </c>
     </row>
     <row r="287" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="38"/>
+      <c r="D287" s="47"/>
       <c r="E287" s="24" t="s">
         <v>112</v>
       </c>
@@ -7170,7 +7344,7 @@
       </c>
     </row>
     <row r="288" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="38"/>
+      <c r="D288" s="47"/>
       <c r="E288" s="12" t="s">
         <v>115</v>
       </c>
@@ -7192,21 +7366,21 @@
       </c>
     </row>
     <row r="289" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="39"/>
-      <c r="E289" s="34" t="s">
+      <c r="D289" s="48"/>
+      <c r="E289" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F289" s="35"/>
-      <c r="G289" s="35"/>
-      <c r="H289" s="35"/>
-      <c r="I289" s="36"/>
+      <c r="F289" s="44"/>
+      <c r="G289" s="44"/>
+      <c r="H289" s="44"/>
+      <c r="I289" s="45"/>
       <c r="J289" s="10" t="str">
         <f t="array" ref="J289">TEXT(SUMPRODUCT(--(J283:J288)), "h:mm")</f>
         <v>6:40</v>
       </c>
     </row>
     <row r="290" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="37">
+      <c r="D290" s="46">
         <v>45794</v>
       </c>
       <c r="E290" s="24" t="s">
@@ -7230,7 +7404,7 @@
       </c>
     </row>
     <row r="291" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="38"/>
+      <c r="D291" s="47"/>
       <c r="E291" s="24" t="s">
         <v>105</v>
       </c>
@@ -7252,935 +7426,1201 @@
       </c>
     </row>
     <row r="292" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="38"/>
+      <c r="D292" s="47"/>
       <c r="E292" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H292" s="6"/>
-      <c r="I292" s="6"/>
+      <c r="F292" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G292" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H292" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I292" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J292" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="293" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="38"/>
+      <c r="D293" s="47"/>
       <c r="E293" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F293" s="6"/>
+      <c r="F293" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G293" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H293" s="6"/>
-      <c r="I293" s="6"/>
+      <c r="H293" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I293" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="J293" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="294" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="38"/>
+      <c r="D294" s="47"/>
       <c r="E294" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F294" s="6"/>
-      <c r="G294" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H294" s="6"/>
-      <c r="I294" s="6"/>
+      <c r="F294" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G294" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H294" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I294" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="J294" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>0:00</v>
+        <v>2:00</v>
       </c>
     </row>
     <row r="295" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="38"/>
+      <c r="D295" s="47"/>
       <c r="E295" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F295" s="6"/>
-      <c r="G295" s="6"/>
-      <c r="H295" s="6"/>
-      <c r="I295" s="6"/>
+      <c r="F295" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G295" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H295" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I295" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J295" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="296" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="39"/>
-      <c r="E296" s="34" t="s">
+      <c r="D296" s="48"/>
+      <c r="E296" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F296" s="35"/>
-      <c r="G296" s="35"/>
-      <c r="H296" s="35"/>
-      <c r="I296" s="36"/>
+      <c r="F296" s="44"/>
+      <c r="G296" s="44"/>
+      <c r="H296" s="44"/>
+      <c r="I296" s="45"/>
       <c r="J296" s="10" t="str">
         <f t="array" ref="J296">TEXT(SUMPRODUCT(--(J290:J295)), "h:mm")</f>
-        <v>3:00</v>
+        <v>7:10</v>
       </c>
     </row>
     <row r="297" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="37">
+      <c r="D297" s="46">
         <v>45795</v>
       </c>
       <c r="E297" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F297" s="6"/>
-      <c r="G297" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H297" s="6"/>
-      <c r="I297" s="6"/>
+      <c r="F297" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G297" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H297" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I297" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J297" s="6" t="str">
         <f t="shared" ref="J297:J302" si="4">IF(F297="P", TEXT(TIMEVALUE(RIGHT(E297,5)) - TIMEVALUE(LEFT(E297,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="298" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="38"/>
+      <c r="D298" s="47"/>
       <c r="E298" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F298" s="6"/>
-      <c r="G298" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H298" s="6"/>
-      <c r="I298" s="6"/>
+      <c r="F298" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G298" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H298" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I298" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J298" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="299" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="38"/>
+      <c r="D299" s="47"/>
       <c r="E299" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F299" s="6"/>
-      <c r="G299" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H299" s="6"/>
-      <c r="I299" s="6"/>
+      <c r="F299" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H299" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I299" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J299" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="300" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="38"/>
+      <c r="D300" s="47"/>
       <c r="E300" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F300" s="6"/>
-      <c r="G300" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H300" s="6"/>
-      <c r="I300" s="6"/>
+      <c r="F300" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G300" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H300" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I300" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J300" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="301" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="38"/>
+      <c r="D301" s="47"/>
       <c r="E301" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F301" s="6"/>
-      <c r="G301" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H301" s="6"/>
-      <c r="I301" s="6"/>
+      <c r="F301" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H301" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I301" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J301" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="302" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="38"/>
+      <c r="D302" s="47"/>
       <c r="E302" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F302" s="6"/>
-      <c r="G302" s="6"/>
-      <c r="H302" s="6"/>
-      <c r="I302" s="6"/>
+      <c r="F302" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G302" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H302" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I302" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J302" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="303" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="39"/>
-      <c r="E303" s="34" t="s">
+      <c r="D303" s="48"/>
+      <c r="E303" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F303" s="35"/>
-      <c r="G303" s="35"/>
-      <c r="H303" s="35"/>
-      <c r="I303" s="36"/>
+      <c r="F303" s="44"/>
+      <c r="G303" s="44"/>
+      <c r="H303" s="44"/>
+      <c r="I303" s="45"/>
       <c r="J303" s="10" t="str">
         <f t="array" ref="J303">TEXT(SUMPRODUCT(--(J297:J302)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="304" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="37">
+      <c r="D304" s="46">
         <v>45796</v>
       </c>
       <c r="E304" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H304" s="6"/>
-      <c r="I304" s="6"/>
+      <c r="F304" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H304" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I304" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="J304" s="6" t="str">
         <f t="shared" ref="J304:J309" si="5">IF(F304="P", TEXT(TIMEVALUE(RIGHT(E304,5)) - TIMEVALUE(LEFT(E304,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
+        <v>1:30</v>
       </c>
     </row>
     <row r="305" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="38"/>
+      <c r="D305" s="47"/>
       <c r="E305" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F305" s="6"/>
-      <c r="G305" s="6" t="s">
+      <c r="F305" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H305" s="6"/>
-      <c r="I305" s="6"/>
+      <c r="H305" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I305" s="32" t="s">
+        <v>157</v>
+      </c>
       <c r="J305" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="306" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="38"/>
+      <c r="D306" s="47"/>
       <c r="E306" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F306" s="6"/>
-      <c r="G306" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H306" s="6"/>
-      <c r="I306" s="6"/>
+      <c r="F306" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H306" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I306" s="32" t="s">
+        <v>150</v>
+      </c>
       <c r="J306" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0:00</v>
+        <v>1:00</v>
       </c>
     </row>
     <row r="307" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="38"/>
+      <c r="D307" s="47"/>
       <c r="E307" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F307" s="6"/>
+      <c r="F307" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G307" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H307" s="6"/>
-      <c r="I307" s="6"/>
+      <c r="H307" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I307" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="J307" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="308" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="38"/>
+      <c r="D308" s="47"/>
       <c r="E308" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F308" s="6"/>
-      <c r="G308" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H308" s="6"/>
-      <c r="I308" s="6"/>
+      <c r="F308" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G308" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H308" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I308" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J308" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="309" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="38"/>
+      <c r="D309" s="47"/>
       <c r="E309" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F309" s="6"/>
-      <c r="G309" s="6"/>
-      <c r="H309" s="6"/>
-      <c r="I309" s="6"/>
+      <c r="F309" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G309" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H309" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I309" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J309" s="6" t="str">
         <f t="shared" si="5"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="310" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="39"/>
-      <c r="E310" s="34" t="s">
+      <c r="D310" s="48"/>
+      <c r="E310" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F310" s="35"/>
-      <c r="G310" s="35"/>
-      <c r="H310" s="35"/>
-      <c r="I310" s="36"/>
+      <c r="F310" s="44"/>
+      <c r="G310" s="44"/>
+      <c r="H310" s="44"/>
+      <c r="I310" s="45"/>
       <c r="J310" s="10" t="str">
         <f t="array" ref="J310">TEXT(SUMPRODUCT(--(J304:J309)), "h:mm")</f>
-        <v>0:00</v>
+        <v>7:40</v>
       </c>
     </row>
     <row r="311" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="37">
+      <c r="D311" s="46">
         <v>45797</v>
       </c>
       <c r="E311" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F311" s="6"/>
-      <c r="G311" s="6" t="s">
+      <c r="F311" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G311" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H311" s="6"/>
-      <c r="I311" s="6"/>
+      <c r="H311" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I311" s="33" t="s">
+        <v>160</v>
+      </c>
       <c r="J311" s="6" t="str">
         <f t="shared" ref="J311:J316" si="6">IF(F311="P", TEXT(TIMEVALUE(RIGHT(E311,5)) - TIMEVALUE(LEFT(E311,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
+        <v>1:30</v>
       </c>
     </row>
     <row r="312" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="38"/>
+      <c r="D312" s="47"/>
       <c r="E312" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F312" s="6"/>
-      <c r="G312" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H312" s="6"/>
-      <c r="I312" s="6"/>
+      <c r="F312" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H312" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I312" s="33" t="s">
+        <v>161</v>
+      </c>
       <c r="J312" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="313" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="38"/>
+      <c r="D313" s="47"/>
       <c r="E313" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F313" s="6"/>
-      <c r="G313" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H313" s="6"/>
-      <c r="I313" s="6"/>
+      <c r="F313" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G313" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H313" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I313" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J313" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="314" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="38"/>
+      <c r="D314" s="47"/>
       <c r="E314" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F314" s="6"/>
+      <c r="F314" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G314" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H314" s="6"/>
-      <c r="I314" s="6"/>
+      <c r="H314" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I314" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="J314" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="315" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="38"/>
+      <c r="D315" s="47"/>
       <c r="E315" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F315" s="6"/>
-      <c r="G315" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H315" s="6"/>
-      <c r="I315" s="6"/>
+      <c r="F315" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H315" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I315" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="J315" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0:00</v>
+        <v>2:00</v>
       </c>
     </row>
     <row r="316" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="38"/>
+      <c r="D316" s="47"/>
       <c r="E316" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
-      <c r="H316" s="6"/>
-      <c r="I316" s="6"/>
+      <c r="F316" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G316" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H316" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I316" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J316" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="317" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="39"/>
-      <c r="E317" s="34" t="s">
+      <c r="D317" s="48"/>
+      <c r="E317" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F317" s="35"/>
-      <c r="G317" s="35"/>
-      <c r="H317" s="35"/>
-      <c r="I317" s="36"/>
+      <c r="F317" s="44"/>
+      <c r="G317" s="44"/>
+      <c r="H317" s="44"/>
+      <c r="I317" s="45"/>
       <c r="J317" s="10" t="str">
         <f t="array" ref="J317">TEXT(SUMPRODUCT(--(J311:J316)), "h:mm")</f>
-        <v>0:00</v>
+        <v>8:40</v>
       </c>
     </row>
     <row r="318" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="37">
+      <c r="D318" s="46">
         <v>45798</v>
       </c>
       <c r="E318" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F318" s="6"/>
-      <c r="G318" s="6" t="s">
+      <c r="F318" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H318" s="6"/>
-      <c r="I318" s="6"/>
+      <c r="H318" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="I318" s="33" t="s">
+        <v>166</v>
+      </c>
       <c r="J318" s="6" t="str">
         <f t="shared" ref="J318:J323" si="7">IF(F318="P", TEXT(TIMEVALUE(RIGHT(E318,5)) - TIMEVALUE(LEFT(E318,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
+        <v>1:30</v>
       </c>
     </row>
     <row r="319" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="38"/>
+      <c r="D319" s="47"/>
       <c r="E319" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F319" s="6"/>
-      <c r="G319" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H319" s="6"/>
-      <c r="I319" s="6"/>
+      <c r="F319" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H319" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I319" s="34" t="s">
+        <v>167</v>
+      </c>
       <c r="J319" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="320" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="38"/>
+      <c r="D320" s="47"/>
       <c r="E320" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F320" s="6"/>
-      <c r="G320" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H320" s="6"/>
-      <c r="I320" s="6"/>
+      <c r="F320" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G320" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H320" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I320" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J320" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="321" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="38"/>
+      <c r="D321" s="47"/>
       <c r="E321" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F321" s="6"/>
-      <c r="G321" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H321" s="6"/>
-      <c r="I321" s="6"/>
+      <c r="F321" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H321" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I321" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="J321" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="322" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="38"/>
+      <c r="D322" s="47"/>
       <c r="E322" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F322" s="6"/>
-      <c r="G322" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H322" s="6"/>
-      <c r="I322" s="6"/>
+      <c r="F322" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H322" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I322" s="35" t="s">
+        <v>170</v>
+      </c>
       <c r="J322" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>0:00</v>
+        <v>2:00</v>
       </c>
     </row>
     <row r="323" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="38"/>
+      <c r="D323" s="47"/>
       <c r="E323" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F323" s="6"/>
-      <c r="G323" s="6"/>
-      <c r="H323" s="6"/>
-      <c r="I323" s="6"/>
+      <c r="F323" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G323" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H323" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I323" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J323" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="324" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="39"/>
-      <c r="E324" s="34" t="s">
+      <c r="D324" s="48"/>
+      <c r="E324" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F324" s="35"/>
-      <c r="G324" s="35"/>
-      <c r="H324" s="35"/>
-      <c r="I324" s="36"/>
+      <c r="F324" s="44"/>
+      <c r="G324" s="44"/>
+      <c r="H324" s="44"/>
+      <c r="I324" s="45"/>
       <c r="J324" s="10" t="str">
         <f t="array" ref="J324">TEXT(SUMPRODUCT(--(J318:J323)), "h:mm")</f>
-        <v>0:00</v>
+        <v>8:40</v>
       </c>
     </row>
     <row r="325" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="37">
+      <c r="D325" s="46">
         <v>45799</v>
       </c>
       <c r="E325" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F325" s="6"/>
+      <c r="F325" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G325" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H325" s="6"/>
-      <c r="I325" s="6"/>
+      <c r="H325" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I325" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="J325" s="6" t="str">
         <f t="shared" ref="J325:J330" si="8">IF(F325="P", TEXT(TIMEVALUE(RIGHT(E325,5)) - TIMEVALUE(LEFT(E325,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
+        <v>1:30</v>
       </c>
     </row>
     <row r="326" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="38"/>
+      <c r="D326" s="47"/>
       <c r="E326" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F326" s="6"/>
+      <c r="F326" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G326" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H326" s="6"/>
-      <c r="I326" s="6"/>
+      <c r="H326" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I326" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="J326" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
     </row>
     <row r="327" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="38"/>
+      <c r="D327" s="47"/>
       <c r="E327" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F327" s="6"/>
-      <c r="G327" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H327" s="6"/>
-      <c r="I327" s="6"/>
+      <c r="F327" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H327" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I327" s="36" t="s">
+        <v>169</v>
+      </c>
       <c r="J327" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0:00</v>
+        <v>1:00</v>
       </c>
     </row>
     <row r="328" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="38"/>
+      <c r="D328" s="47"/>
       <c r="E328" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F328" s="6"/>
+      <c r="F328" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G328" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H328" s="6"/>
-      <c r="I328" s="6"/>
+      <c r="H328" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I328" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="J328" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="329" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="38"/>
+      <c r="D329" s="47"/>
       <c r="E329" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F329" s="6"/>
-      <c r="G329" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H329" s="6"/>
-      <c r="I329" s="6"/>
+      <c r="F329" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G329" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H329" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I329" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J329" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="330" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="38"/>
+      <c r="D330" s="47"/>
       <c r="E330" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-      <c r="I330" s="6"/>
+      <c r="F330" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G330" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H330" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I330" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J330" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="331" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="39"/>
-      <c r="E331" s="34" t="s">
+      <c r="D331" s="48"/>
+      <c r="E331" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F331" s="35"/>
-      <c r="G331" s="35"/>
-      <c r="H331" s="35"/>
-      <c r="I331" s="36"/>
+      <c r="F331" s="44"/>
+      <c r="G331" s="44"/>
+      <c r="H331" s="44"/>
+      <c r="I331" s="45"/>
       <c r="J331" s="10" t="str">
         <f t="array" ref="J331">TEXT(SUMPRODUCT(--(J325:J330)), "h:mm")</f>
-        <v>0:00</v>
+        <v>7:40</v>
       </c>
     </row>
     <row r="332" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="37">
+      <c r="D332" s="46">
         <v>45800</v>
       </c>
       <c r="E332" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F332" s="6"/>
-      <c r="G332" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H332" s="6"/>
-      <c r="I332" s="6"/>
+      <c r="F332" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G332" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H332" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I332" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J332" s="6" t="str">
         <f t="shared" ref="J332:J337" si="9">IF(F332="P", TEXT(TIMEVALUE(RIGHT(E332,5)) - TIMEVALUE(LEFT(E332,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="333" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="38"/>
+      <c r="D333" s="47"/>
       <c r="E333" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F333" s="6"/>
-      <c r="G333" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H333" s="6"/>
-      <c r="I333" s="6"/>
+      <c r="F333" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G333" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H333" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I333" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J333" s="6" t="str">
         <f t="shared" si="9"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="334" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="38"/>
+      <c r="D334" s="47"/>
       <c r="E334" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F334" s="6"/>
+      <c r="F334" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G334" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H334" s="6"/>
-      <c r="I334" s="6"/>
+      <c r="H334" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I334" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="J334" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0:00</v>
+        <v>1:00</v>
       </c>
     </row>
     <row r="335" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="38"/>
+      <c r="D335" s="47"/>
       <c r="E335" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F335" s="6"/>
+      <c r="F335" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G335" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H335" s="6"/>
-      <c r="I335" s="6"/>
+      <c r="H335" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I335" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="J335" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>0:00</v>
+        <v>2:10</v>
       </c>
     </row>
     <row r="336" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="38"/>
+      <c r="D336" s="47"/>
       <c r="E336" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H336" s="6"/>
-      <c r="I336" s="6"/>
+      <c r="F336" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G336" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H336" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I336" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J336" s="6" t="str">
         <f t="shared" si="9"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="337" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="38"/>
+      <c r="D337" s="47"/>
       <c r="E337" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="6"/>
-      <c r="I337" s="6"/>
+      <c r="F337" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G337" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H337" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I337" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J337" s="6" t="str">
         <f t="shared" si="9"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="338" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="39"/>
-      <c r="E338" s="34" t="s">
+      <c r="D338" s="48"/>
+      <c r="E338" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F338" s="35"/>
-      <c r="G338" s="35"/>
-      <c r="H338" s="35"/>
-      <c r="I338" s="36"/>
+      <c r="F338" s="44"/>
+      <c r="G338" s="44"/>
+      <c r="H338" s="44"/>
+      <c r="I338" s="45"/>
       <c r="J338" s="10" t="str">
         <f t="array" ref="J338">TEXT(SUMPRODUCT(--(J332:J337)), "h:mm")</f>
-        <v>0:00</v>
+        <v>3:10</v>
       </c>
     </row>
     <row r="339" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="37">
+      <c r="D339" s="46">
         <v>45801</v>
       </c>
       <c r="E339" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F339" s="6"/>
-      <c r="G339" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H339" s="6"/>
-      <c r="I339" s="6"/>
+      <c r="F339" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G339" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H339" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I339" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J339" s="6" t="str">
-        <f t="shared" ref="J339:J344" si="10">IF(F339="P", TEXT(TIMEVALUE(RIGHT(E339,5)) - TIMEVALUE(LEFT(E339,5)), "h:mm"), "0:00")</f>
+        <f>IF(F339="P", TEXT(TIMEVALUE(RIGHT(E339,5)) - TIMEVALUE(LEFT(E339,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="340" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="38"/>
+      <c r="D340" s="47"/>
       <c r="E340" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F340" s="6"/>
-      <c r="G340" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H340" s="6"/>
-      <c r="I340" s="6"/>
+      <c r="F340" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G340" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H340" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I340" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="J340" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0:00</v>
+        <f>IF(F340="P", TEXT(TIMEVALUE(RIGHT(E340,5)) - TIMEVALUE(LEFT(E340,5)), "h:mm"), "0:00")</f>
+        <v>3:00</v>
       </c>
     </row>
     <row r="341" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="38"/>
+      <c r="D341" s="47"/>
       <c r="E341" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F341" s="6"/>
-      <c r="G341" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H341" s="6"/>
-      <c r="I341" s="6"/>
+      <c r="F341" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G341" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H341" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I341" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="J341" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(F341="P", TEXT(TIMEVALUE(RIGHT(E341,5)) - TIMEVALUE(LEFT(E341,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="342" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="38"/>
+      <c r="D342" s="47"/>
       <c r="E342" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F342" s="6"/>
+      <c r="F342" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="G342" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H342" s="6"/>
-      <c r="I342" s="6"/>
+      <c r="H342" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I342" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="J342" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0:00</v>
+        <f>IF(F342="P", TEXT(TIMEVALUE(RIGHT(E342,5)) - TIMEVALUE(LEFT(E342,5)), "h:mm"), "0:00")</f>
+        <v>2:10</v>
       </c>
     </row>
     <row r="343" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="38"/>
+      <c r="D343" s="47"/>
       <c r="E343" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F343" s="6"/>
-      <c r="G343" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H343" s="6"/>
-      <c r="I343" s="6"/>
+      <c r="F343" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H343" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I343" s="37" t="s">
+        <v>182</v>
+      </c>
       <c r="J343" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0:00</v>
+        <f>IF(F343="P", TEXT(TIMEVALUE(RIGHT(E343,5)) - TIMEVALUE(LEFT(E343,5)), "h:mm"), "0:00")</f>
+        <v>2:00</v>
       </c>
     </row>
     <row r="344" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="38"/>
+      <c r="D344" s="47"/>
       <c r="E344" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
-      <c r="H344" s="6"/>
-      <c r="I344" s="6"/>
-      <c r="J344" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>0:00</v>
+      <c r="F344" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H344" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I344" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J344" s="38">
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="345" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="39"/>
-      <c r="E345" s="34" t="s">
+      <c r="D345" s="48"/>
+      <c r="E345" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F345" s="35"/>
-      <c r="G345" s="35"/>
-      <c r="H345" s="35"/>
-      <c r="I345" s="36"/>
+      <c r="F345" s="44"/>
+      <c r="G345" s="44"/>
+      <c r="H345" s="44"/>
+      <c r="I345" s="45"/>
       <c r="J345" s="10" t="str">
         <f t="array" ref="J345">TEXT(SUMPRODUCT(--(J339:J344)), "h:mm")</f>
-        <v>0:00</v>
+        <v>7:55</v>
       </c>
     </row>
     <row r="346" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="37">
+      <c r="D346" s="46">
         <v>45802</v>
       </c>
       <c r="E346" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F346" s="6"/>
-      <c r="G346" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G346" s="6"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
-      <c r="J346" s="6" t="str">
-        <f t="shared" ref="J346:J351" si="11">IF(F346="P", TEXT(TIMEVALUE(RIGHT(E346,5)) - TIMEVALUE(LEFT(E346,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
-      </c>
+      <c r="J346" s="6"/>
     </row>
     <row r="347" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="38"/>
+      <c r="D347" s="47"/>
       <c r="E347" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F347" s="6"/>
-      <c r="G347" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G347" s="6"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
-      <c r="J347" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0:00</v>
-      </c>
+      <c r="J347" s="6"/>
     </row>
     <row r="348" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="38"/>
+      <c r="D348" s="47"/>
       <c r="E348" s="25" t="s">
         <v>108</v>
       </c>
       <c r="F348" s="6"/>
-      <c r="G348" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G348" s="6"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
-      <c r="J348" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0:00</v>
-      </c>
+      <c r="J348" s="6"/>
     </row>
     <row r="349" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="38"/>
+      <c r="D349" s="47"/>
       <c r="E349" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F349" s="6"/>
-      <c r="G349" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G349" s="6"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
-      <c r="J349" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0:00</v>
-      </c>
+      <c r="J349" s="6"/>
     </row>
     <row r="350" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="38"/>
+      <c r="D350" s="47"/>
       <c r="E350" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F350" s="6"/>
-      <c r="G350" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G350" s="6"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
-      <c r="J350" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0:00</v>
-      </c>
+      <c r="J350" s="6"/>
     </row>
     <row r="351" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="38"/>
+      <c r="D351" s="47"/>
       <c r="E351" s="12" t="s">
         <v>115</v>
       </c>
@@ -8188,109 +8628,81 @@
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
-      <c r="J351" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>0:00</v>
-      </c>
+      <c r="J351" s="6"/>
     </row>
     <row r="352" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" s="39"/>
-      <c r="E352" s="34" t="s">
+      <c r="D352" s="48"/>
+      <c r="E352" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F352" s="35"/>
-      <c r="G352" s="35"/>
-      <c r="H352" s="35"/>
-      <c r="I352" s="36"/>
-      <c r="J352" s="10" t="str">
-        <f t="array" ref="J352">TEXT(SUMPRODUCT(--(J346:J351)), "h:mm")</f>
-        <v>0:00</v>
+      <c r="F352" s="44"/>
+      <c r="G352" s="44"/>
+      <c r="H352" s="44"/>
+      <c r="I352" s="45"/>
+      <c r="J352" s="9">
+        <f>SUM(J344:J351)</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="353" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" s="37">
+      <c r="D353" s="46">
         <v>45803</v>
       </c>
       <c r="E353" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F353" s="6"/>
-      <c r="G353" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
-      <c r="J353" s="6" t="str">
-        <f t="shared" ref="J353:J358" si="12">IF(F353="P", TEXT(TIMEVALUE(RIGHT(E353,5)) - TIMEVALUE(LEFT(E353,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
-      </c>
+      <c r="J353" s="6"/>
     </row>
     <row r="354" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="38"/>
+      <c r="D354" s="47"/>
       <c r="E354" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F354" s="6"/>
-      <c r="G354" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G354" s="6"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
-      <c r="J354" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0:00</v>
-      </c>
+      <c r="J354" s="6"/>
     </row>
     <row r="355" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="38"/>
+      <c r="D355" s="47"/>
       <c r="E355" s="25" t="s">
         <v>108</v>
       </c>
       <c r="F355" s="6"/>
-      <c r="G355" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G355" s="6"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
-      <c r="J355" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0:00</v>
-      </c>
+      <c r="J355" s="6"/>
     </row>
     <row r="356" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="38"/>
+      <c r="D356" s="47"/>
       <c r="E356" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F356" s="6"/>
-      <c r="G356" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
-      <c r="J356" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0:00</v>
-      </c>
+      <c r="J356" s="6"/>
     </row>
     <row r="357" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" s="38"/>
+      <c r="D357" s="47"/>
       <c r="E357" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F357" s="6"/>
-      <c r="G357" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G357" s="6"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
-      <c r="J357" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0:00</v>
-      </c>
+      <c r="J357" s="6"/>
     </row>
     <row r="358" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" s="38"/>
+      <c r="D358" s="47"/>
       <c r="E358" s="12" t="s">
         <v>115</v>
       </c>
@@ -8298,109 +8710,81 @@
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
-      <c r="J358" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>0:00</v>
-      </c>
+      <c r="J358" s="6"/>
     </row>
     <row r="359" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="39"/>
-      <c r="E359" s="34" t="s">
+      <c r="D359" s="48"/>
+      <c r="E359" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F359" s="35"/>
-      <c r="G359" s="35"/>
-      <c r="H359" s="35"/>
-      <c r="I359" s="36"/>
-      <c r="J359" s="10" t="str">
-        <f t="array" ref="J359">TEXT(SUMPRODUCT(--(J353:J358)), "h:mm")</f>
-        <v>0:00</v>
+      <c r="F359" s="44"/>
+      <c r="G359" s="44"/>
+      <c r="H359" s="44"/>
+      <c r="I359" s="45"/>
+      <c r="J359" s="9">
+        <f>SUM(J351:J358)</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="360" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="37">
+      <c r="D360" s="46">
         <v>45804</v>
       </c>
       <c r="E360" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F360" s="6"/>
-      <c r="G360" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G360" s="6"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
-      <c r="J360" s="6" t="str">
-        <f t="shared" ref="J360:J365" si="13">IF(F360="P", TEXT(TIMEVALUE(RIGHT(E360,5)) - TIMEVALUE(LEFT(E360,5)), "h:mm"), "0:00")</f>
-        <v>0:00</v>
-      </c>
+      <c r="J360" s="6"/>
     </row>
     <row r="361" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="38"/>
+      <c r="D361" s="47"/>
       <c r="E361" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F361" s="6"/>
-      <c r="G361" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G361" s="6"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
-      <c r="J361" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0:00</v>
-      </c>
+      <c r="J361" s="6"/>
     </row>
     <row r="362" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" s="38"/>
+      <c r="D362" s="47"/>
       <c r="E362" s="25" t="s">
         <v>108</v>
       </c>
       <c r="F362" s="6"/>
-      <c r="G362" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G362" s="6"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
-      <c r="J362" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0:00</v>
-      </c>
+      <c r="J362" s="6"/>
     </row>
     <row r="363" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D363" s="38"/>
+      <c r="D363" s="47"/>
       <c r="E363" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F363" s="6"/>
-      <c r="G363" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
-      <c r="J363" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0:00</v>
-      </c>
+      <c r="J363" s="6"/>
     </row>
     <row r="364" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="38"/>
+      <c r="D364" s="47"/>
       <c r="E364" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F364" s="6"/>
-      <c r="G364" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G364" s="6"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
-      <c r="J364" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0:00</v>
-      </c>
+      <c r="J364" s="6"/>
     </row>
     <row r="365" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="38"/>
+      <c r="D365" s="47"/>
       <c r="E365" s="12" t="s">
         <v>115</v>
       </c>
@@ -8408,27 +8792,24 @@
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
-      <c r="J365" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>0:00</v>
-      </c>
+      <c r="J365" s="6"/>
     </row>
     <row r="366" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="39"/>
-      <c r="E366" s="34" t="s">
+      <c r="D366" s="48"/>
+      <c r="E366" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F366" s="35"/>
-      <c r="G366" s="35"/>
-      <c r="H366" s="35"/>
-      <c r="I366" s="36"/>
-      <c r="J366" s="10" t="str">
-        <f t="array" ref="J366">TEXT(SUMPRODUCT(--(J360:J365)), "h:mm")</f>
-        <v>0:00</v>
+      <c r="F366" s="44"/>
+      <c r="G366" s="44"/>
+      <c r="H366" s="44"/>
+      <c r="I366" s="45"/>
+      <c r="J366" s="9">
+        <f>SUM(J358:J365)</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="367" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" s="37">
+      <c r="D367" s="46">
         <v>45805</v>
       </c>
       <c r="E367" s="24" t="s">
@@ -8441,12 +8822,12 @@
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
       <c r="J367" s="6" t="str">
-        <f t="shared" ref="J367:J372" si="14">IF(F367="P", TEXT(TIMEVALUE(RIGHT(E367,5)) - TIMEVALUE(LEFT(E367,5)), "h:mm"), "0:00")</f>
+        <f t="shared" ref="J367:J372" si="10">IF(F367="P", TEXT(TIMEVALUE(RIGHT(E367,5)) - TIMEVALUE(LEFT(E367,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="368" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" s="38"/>
+      <c r="D368" s="47"/>
       <c r="E368" s="24" t="s">
         <v>105</v>
       </c>
@@ -8457,12 +8838,12 @@
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
       <c r="J368" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="369" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" s="38"/>
+      <c r="D369" s="47"/>
       <c r="E369" s="25" t="s">
         <v>108</v>
       </c>
@@ -8473,12 +8854,12 @@
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
       <c r="J369" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="370" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" s="38"/>
+      <c r="D370" s="47"/>
       <c r="E370" s="25" t="s">
         <v>109</v>
       </c>
@@ -8489,12 +8870,12 @@
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
       <c r="J370" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="371" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" s="38"/>
+      <c r="D371" s="47"/>
       <c r="E371" s="24" t="s">
         <v>112</v>
       </c>
@@ -8505,12 +8886,12 @@
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
       <c r="J371" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="372" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" s="38"/>
+      <c r="D372" s="47"/>
       <c r="E372" s="12" t="s">
         <v>115</v>
       </c>
@@ -8519,26 +8900,26 @@
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
       <c r="J372" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="373" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" s="39"/>
-      <c r="E373" s="34" t="s">
+      <c r="D373" s="48"/>
+      <c r="E373" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F373" s="35"/>
-      <c r="G373" s="35"/>
-      <c r="H373" s="35"/>
-      <c r="I373" s="36"/>
+      <c r="F373" s="44"/>
+      <c r="G373" s="44"/>
+      <c r="H373" s="44"/>
+      <c r="I373" s="45"/>
       <c r="J373" s="10" t="str">
         <f t="array" ref="J373">TEXT(SUMPRODUCT(--(J367:J372)), "h:mm")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="374" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" s="37">
+      <c r="D374" s="46">
         <v>45806</v>
       </c>
       <c r="E374" s="24" t="s">
@@ -8551,12 +8932,12 @@
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6" t="str">
-        <f t="shared" ref="J374:J379" si="15">IF(F374="P", TEXT(TIMEVALUE(RIGHT(E374,5)) - TIMEVALUE(LEFT(E374,5)), "h:mm"), "0:00")</f>
+        <f t="shared" ref="J374:J379" si="11">IF(F374="P", TEXT(TIMEVALUE(RIGHT(E374,5)) - TIMEVALUE(LEFT(E374,5)), "h:mm"), "0:00")</f>
         <v>0:00</v>
       </c>
     </row>
     <row r="375" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" s="38"/>
+      <c r="D375" s="47"/>
       <c r="E375" s="24" t="s">
         <v>105</v>
       </c>
@@ -8567,12 +8948,12 @@
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
       <c r="J375" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="376" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" s="38"/>
+      <c r="D376" s="47"/>
       <c r="E376" s="25" t="s">
         <v>108</v>
       </c>
@@ -8583,12 +8964,12 @@
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
       <c r="J376" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="377" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" s="38"/>
+      <c r="D377" s="47"/>
       <c r="E377" s="25" t="s">
         <v>109</v>
       </c>
@@ -8599,12 +8980,12 @@
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
       <c r="J377" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="378" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" s="38"/>
+      <c r="D378" s="47"/>
       <c r="E378" s="24" t="s">
         <v>112</v>
       </c>
@@ -8615,12 +8996,12 @@
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
       <c r="J378" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="379" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" s="38"/>
+      <c r="D379" s="47"/>
       <c r="E379" s="12" t="s">
         <v>115</v>
       </c>
@@ -8629,19 +9010,19 @@
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
       <c r="J379" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0:00</v>
       </c>
     </row>
     <row r="380" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" s="39"/>
-      <c r="E380" s="34" t="s">
+      <c r="D380" s="48"/>
+      <c r="E380" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F380" s="35"/>
-      <c r="G380" s="35"/>
-      <c r="H380" s="35"/>
-      <c r="I380" s="36"/>
+      <c r="F380" s="44"/>
+      <c r="G380" s="44"/>
+      <c r="H380" s="44"/>
+      <c r="I380" s="45"/>
       <c r="J380" s="10" t="str">
         <f t="array" ref="J380">TEXT(SUMPRODUCT(--(J374:J379)), "h:mm")</f>
         <v>0:00</v>
@@ -8652,6 +9033,7 @@
   <mergeCells count="99">
     <mergeCell ref="D2:P4"/>
     <mergeCell ref="E380:I380"/>
+    <mergeCell ref="E113:I113"/>
     <mergeCell ref="D96:D104"/>
     <mergeCell ref="D297:D303"/>
     <mergeCell ref="E317:I317"/>
@@ -8662,7 +9044,6 @@
     <mergeCell ref="D69:D77"/>
     <mergeCell ref="E163:I163"/>
     <mergeCell ref="D262:D268"/>
-    <mergeCell ref="E113:I113"/>
     <mergeCell ref="D15:D23"/>
     <mergeCell ref="D24:D32"/>
     <mergeCell ref="D290:D296"/>
@@ -8740,8 +9121,8 @@
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E219:I219"/>
     <mergeCell ref="D123:D131"/>
+    <mergeCell ref="D132:D140"/>
     <mergeCell ref="D157:D163"/>
-    <mergeCell ref="D132:D140"/>
     <mergeCell ref="E95:I95"/>
     <mergeCell ref="D51:D59"/>
     <mergeCell ref="D42:D50"/>
